--- a/database/industries/lastic/pekerman/product/monthly_seprated.xlsx
+++ b/database/industries/lastic/pekerman/product/monthly_seprated.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekerman\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF0B826F-933D-4B64-841A-F959BD26803B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="5550"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1341" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="87">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +34,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
   </si>
   <si>
     <t>ماه 7 منتهی به 1397/07</t>
@@ -187,6 +183,9 @@
     <t>ماه 7 منتهی به 1401/07</t>
   </si>
   <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
     <t>مقدار تولید داخلی</t>
   </si>
   <si>
@@ -286,7 +285,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -479,7 +478,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -491,7 +490,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -538,23 +537,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -590,23 +572,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -758,17 +723,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:BB84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -823,7 +788,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -880,7 +845,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -937,7 +902,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -992,7 +957,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1049,7 +1014,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1106,7 +1071,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1161,7 +1126,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1318,7 +1283,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1373,7 +1338,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1430,7 +1395,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1501,95 +1466,95 @@
       <c r="Y11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z11" s="11" t="s">
-        <v>58</v>
+      <c r="Z11" s="11">
+        <v>133862</v>
       </c>
       <c r="AA11" s="11">
-        <v>133862</v>
+        <v>192349</v>
       </c>
       <c r="AB11" s="11">
-        <v>192349</v>
+        <v>160459</v>
       </c>
       <c r="AC11" s="11">
-        <v>160459</v>
+        <v>147792</v>
       </c>
       <c r="AD11" s="11">
-        <v>147792</v>
+        <v>124953</v>
       </c>
       <c r="AE11" s="11">
-        <v>124953</v>
+        <v>123835</v>
       </c>
       <c r="AF11" s="11">
-        <v>123835</v>
+        <v>129275</v>
       </c>
       <c r="AG11" s="11">
-        <v>129275</v>
+        <v>163599</v>
       </c>
       <c r="AH11" s="11">
-        <v>163599</v>
+        <v>196055</v>
       </c>
       <c r="AI11" s="11">
-        <v>196055</v>
+        <v>111434</v>
       </c>
       <c r="AJ11" s="11">
-        <v>111434</v>
+        <v>152945</v>
       </c>
       <c r="AK11" s="11">
-        <v>152945</v>
+        <v>155975</v>
       </c>
       <c r="AL11" s="11">
-        <v>155975</v>
+        <v>142096</v>
       </c>
       <c r="AM11" s="11">
-        <v>142096</v>
+        <v>120974</v>
       </c>
       <c r="AN11" s="11">
-        <v>120974</v>
+        <v>131422</v>
       </c>
       <c r="AO11" s="11">
-        <v>131422</v>
+        <v>135395</v>
       </c>
       <c r="AP11" s="11">
-        <v>135395</v>
+        <v>132289</v>
       </c>
       <c r="AQ11" s="11">
-        <v>132289</v>
+        <v>137703</v>
       </c>
       <c r="AR11" s="11">
-        <v>137703</v>
+        <v>150376</v>
       </c>
       <c r="AS11" s="11">
-        <v>150376</v>
+        <v>98751</v>
       </c>
       <c r="AT11" s="11">
-        <v>98751</v>
+        <v>83857</v>
       </c>
       <c r="AU11" s="11">
-        <v>83857</v>
+        <v>55707</v>
       </c>
       <c r="AV11" s="11">
-        <v>55707</v>
+        <v>63774</v>
       </c>
       <c r="AW11" s="11">
-        <v>63774</v>
+        <v>96015</v>
       </c>
       <c r="AX11" s="11">
-        <v>96015</v>
+        <v>104375</v>
       </c>
       <c r="AY11" s="11">
-        <v>104375</v>
+        <v>97588</v>
       </c>
       <c r="AZ11" s="11">
-        <v>97588</v>
+        <v>106321</v>
       </c>
       <c r="BA11" s="11">
-        <v>106321</v>
+        <v>107491</v>
       </c>
       <c r="BB11" s="11">
-        <v>107491</v>
+        <v>135177</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1660,95 +1625,95 @@
       <c r="Y12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z12" s="13" t="s">
-        <v>58</v>
+      <c r="Z12" s="13">
+        <v>244820</v>
       </c>
       <c r="AA12" s="13">
-        <v>244820</v>
+        <v>286880</v>
       </c>
       <c r="AB12" s="13">
-        <v>286880</v>
+        <v>316978</v>
       </c>
       <c r="AC12" s="13">
-        <v>316978</v>
+        <v>275490</v>
       </c>
       <c r="AD12" s="13">
-        <v>275490</v>
+        <v>298710</v>
       </c>
       <c r="AE12" s="13">
-        <v>298710</v>
+        <v>301000</v>
       </c>
       <c r="AF12" s="13">
-        <v>301000</v>
+        <v>302677</v>
       </c>
       <c r="AG12" s="13">
-        <v>302677</v>
+        <v>321774</v>
       </c>
       <c r="AH12" s="13">
-        <v>321774</v>
+        <v>300944</v>
       </c>
       <c r="AI12" s="13">
-        <v>300944</v>
+        <v>170432</v>
       </c>
       <c r="AJ12" s="13">
-        <v>170432</v>
+        <v>300451</v>
       </c>
       <c r="AK12" s="13">
-        <v>300451</v>
+        <v>303856</v>
       </c>
       <c r="AL12" s="13">
-        <v>303856</v>
+        <v>293876</v>
       </c>
       <c r="AM12" s="13">
-        <v>293876</v>
+        <v>200669</v>
       </c>
       <c r="AN12" s="13">
-        <v>200669</v>
+        <v>255651</v>
       </c>
       <c r="AO12" s="13">
-        <v>255651</v>
+        <v>262963</v>
       </c>
       <c r="AP12" s="13">
-        <v>262963</v>
+        <v>262524</v>
       </c>
       <c r="AQ12" s="13">
-        <v>262524</v>
+        <v>266704</v>
       </c>
       <c r="AR12" s="13">
-        <v>266704</v>
+        <v>270866</v>
       </c>
       <c r="AS12" s="13">
-        <v>270866</v>
+        <v>241075</v>
       </c>
       <c r="AT12" s="13">
-        <v>241075</v>
+        <v>255272</v>
       </c>
       <c r="AU12" s="13">
-        <v>255272</v>
+        <v>92280</v>
       </c>
       <c r="AV12" s="13">
-        <v>92280</v>
+        <v>171554</v>
       </c>
       <c r="AW12" s="13">
-        <v>171554</v>
+        <v>210493</v>
       </c>
       <c r="AX12" s="13">
-        <v>210493</v>
+        <v>219954</v>
       </c>
       <c r="AY12" s="13">
-        <v>219954</v>
+        <v>153426</v>
       </c>
       <c r="AZ12" s="13">
-        <v>153426</v>
+        <v>265597</v>
       </c>
       <c r="BA12" s="13">
-        <v>265597</v>
+        <v>280858</v>
       </c>
       <c r="BB12" s="13">
-        <v>280858</v>
+        <v>190885</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1819,95 +1784,95 @@
       <c r="Y13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z13" s="11" t="s">
-        <v>58</v>
+      <c r="Z13" s="11">
+        <v>2157117</v>
       </c>
       <c r="AA13" s="11">
-        <v>2157117</v>
+        <v>2203077</v>
       </c>
       <c r="AB13" s="11">
-        <v>2203077</v>
+        <v>2747977</v>
       </c>
       <c r="AC13" s="11">
-        <v>2747977</v>
+        <v>2603431</v>
       </c>
       <c r="AD13" s="11">
-        <v>2603431</v>
+        <v>2693222</v>
       </c>
       <c r="AE13" s="11">
-        <v>2693222</v>
+        <v>2674037</v>
       </c>
       <c r="AF13" s="11">
-        <v>2674037</v>
+        <v>2705137</v>
       </c>
       <c r="AG13" s="11">
-        <v>2705137</v>
+        <v>2808741</v>
       </c>
       <c r="AH13" s="11">
-        <v>2808741</v>
+        <v>2819587</v>
       </c>
       <c r="AI13" s="11">
-        <v>2819587</v>
+        <v>1640722</v>
       </c>
       <c r="AJ13" s="11">
-        <v>1640722</v>
+        <v>2926884</v>
       </c>
       <c r="AK13" s="11">
-        <v>2926884</v>
+        <v>2861475</v>
       </c>
       <c r="AL13" s="11">
-        <v>2861475</v>
+        <v>2914527</v>
       </c>
       <c r="AM13" s="11">
-        <v>2914527</v>
+        <v>2070652</v>
       </c>
       <c r="AN13" s="11">
-        <v>2070652</v>
+        <v>2535626</v>
       </c>
       <c r="AO13" s="11">
-        <v>2535626</v>
+        <v>2697190</v>
       </c>
       <c r="AP13" s="11">
-        <v>2697190</v>
+        <v>2677214</v>
       </c>
       <c r="AQ13" s="11">
-        <v>2677214</v>
+        <v>2619521</v>
       </c>
       <c r="AR13" s="11">
-        <v>2619521</v>
+        <v>2630484</v>
       </c>
       <c r="AS13" s="11">
-        <v>2630484</v>
+        <v>2603164</v>
       </c>
       <c r="AT13" s="11">
-        <v>2603164</v>
+        <v>2193307</v>
       </c>
       <c r="AU13" s="11">
-        <v>2193307</v>
+        <v>1418543</v>
       </c>
       <c r="AV13" s="11">
-        <v>1418543</v>
+        <v>2608877</v>
       </c>
       <c r="AW13" s="11">
-        <v>2608877</v>
+        <v>2692676</v>
       </c>
       <c r="AX13" s="11">
-        <v>2692676</v>
+        <v>2711857</v>
       </c>
       <c r="AY13" s="11">
-        <v>2711857</v>
+        <v>1787937</v>
       </c>
       <c r="AZ13" s="11">
-        <v>1787937</v>
+        <v>2438795</v>
       </c>
       <c r="BA13" s="11">
-        <v>2438795</v>
+        <v>2443112</v>
       </c>
       <c r="BB13" s="11">
-        <v>2443112</v>
+        <v>2370132</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1978,95 +1943,95 @@
       <c r="Y14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z14" s="13" t="s">
-        <v>58</v>
+      <c r="Z14" s="13">
+        <v>3859112</v>
       </c>
       <c r="AA14" s="13">
-        <v>3859112</v>
+        <v>4620506</v>
       </c>
       <c r="AB14" s="13">
-        <v>4620506</v>
+        <v>4740937</v>
       </c>
       <c r="AC14" s="13">
-        <v>4740937</v>
+        <v>4610138</v>
       </c>
       <c r="AD14" s="13">
-        <v>4610138</v>
+        <v>4602770</v>
       </c>
       <c r="AE14" s="13">
-        <v>4602770</v>
+        <v>4636081</v>
       </c>
       <c r="AF14" s="13">
-        <v>4636081</v>
+        <v>4677931</v>
       </c>
       <c r="AG14" s="13">
-        <v>4677931</v>
+        <v>4882636</v>
       </c>
       <c r="AH14" s="13">
-        <v>4882636</v>
+        <v>4841085</v>
       </c>
       <c r="AI14" s="13">
-        <v>4841085</v>
+        <v>2737030</v>
       </c>
       <c r="AJ14" s="13">
-        <v>2737030</v>
+        <v>5009156</v>
       </c>
       <c r="AK14" s="13">
-        <v>5009156</v>
+        <v>4698709</v>
       </c>
       <c r="AL14" s="13">
-        <v>4698709</v>
+        <v>5223075</v>
       </c>
       <c r="AM14" s="13">
-        <v>5223075</v>
+        <v>3217180</v>
       </c>
       <c r="AN14" s="13">
-        <v>3217180</v>
+        <v>4725551</v>
       </c>
       <c r="AO14" s="13">
-        <v>4725551</v>
+        <v>4874454</v>
       </c>
       <c r="AP14" s="13">
-        <v>4874454</v>
+        <v>5084516</v>
       </c>
       <c r="AQ14" s="13">
-        <v>5084516</v>
+        <v>5073476</v>
       </c>
       <c r="AR14" s="13">
-        <v>5073476</v>
+        <v>5051990</v>
       </c>
       <c r="AS14" s="13">
-        <v>5051990</v>
+        <v>4787135</v>
       </c>
       <c r="AT14" s="13">
-        <v>4787135</v>
+        <v>4209099</v>
       </c>
       <c r="AU14" s="13">
-        <v>4209099</v>
+        <v>3453025</v>
       </c>
       <c r="AV14" s="13">
-        <v>3453025</v>
+        <v>5322608</v>
       </c>
       <c r="AW14" s="13">
-        <v>5322608</v>
+        <v>5478651</v>
       </c>
       <c r="AX14" s="13">
-        <v>5478651</v>
+        <v>5288140</v>
       </c>
       <c r="AY14" s="13">
-        <v>5288140</v>
+        <v>3913055</v>
       </c>
       <c r="AZ14" s="13">
-        <v>3913055</v>
+        <v>5691649</v>
       </c>
       <c r="BA14" s="13">
-        <v>5691649</v>
+        <v>3828881</v>
       </c>
       <c r="BB14" s="13">
-        <v>3828881</v>
+        <v>4957770</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>62</v>
       </c>
@@ -2136,94 +2101,94 @@
         <v>0</v>
       </c>
       <c r="Z15" s="15">
-        <v>0</v>
+        <v>6394911</v>
       </c>
       <c r="AA15" s="15">
-        <v>6394911</v>
+        <v>7302812</v>
       </c>
       <c r="AB15" s="15">
-        <v>7302812</v>
+        <v>7966351</v>
       </c>
       <c r="AC15" s="15">
-        <v>7966351</v>
+        <v>7636851</v>
       </c>
       <c r="AD15" s="15">
-        <v>7636851</v>
+        <v>7719655</v>
       </c>
       <c r="AE15" s="15">
-        <v>7719655</v>
+        <v>7734953</v>
       </c>
       <c r="AF15" s="15">
-        <v>7734953</v>
+        <v>7815020</v>
       </c>
       <c r="AG15" s="15">
-        <v>7815020</v>
+        <v>8176750</v>
       </c>
       <c r="AH15" s="15">
-        <v>8176750</v>
+        <v>8157671</v>
       </c>
       <c r="AI15" s="15">
-        <v>8157671</v>
+        <v>4659618</v>
       </c>
       <c r="AJ15" s="15">
-        <v>4659618</v>
+        <v>8389436</v>
       </c>
       <c r="AK15" s="15">
-        <v>8389436</v>
+        <v>8020015</v>
       </c>
       <c r="AL15" s="15">
-        <v>8020015</v>
+        <v>8573574</v>
       </c>
       <c r="AM15" s="15">
-        <v>8573574</v>
+        <v>5609475</v>
       </c>
       <c r="AN15" s="15">
-        <v>5609475</v>
+        <v>7648250</v>
       </c>
       <c r="AO15" s="15">
-        <v>7648250</v>
+        <v>7970002</v>
       </c>
       <c r="AP15" s="15">
-        <v>7970002</v>
+        <v>8156543</v>
       </c>
       <c r="AQ15" s="15">
-        <v>8156543</v>
+        <v>8097404</v>
       </c>
       <c r="AR15" s="15">
-        <v>8097404</v>
+        <v>8103716</v>
       </c>
       <c r="AS15" s="15">
-        <v>8103716</v>
+        <v>7730125</v>
       </c>
       <c r="AT15" s="15">
-        <v>7730125</v>
+        <v>6741535</v>
       </c>
       <c r="AU15" s="15">
-        <v>6741535</v>
+        <v>5019555</v>
       </c>
       <c r="AV15" s="15">
-        <v>5019555</v>
+        <v>8166813</v>
       </c>
       <c r="AW15" s="15">
-        <v>8166813</v>
+        <v>8477835</v>
       </c>
       <c r="AX15" s="15">
-        <v>8477835</v>
+        <v>8324326</v>
       </c>
       <c r="AY15" s="15">
-        <v>8324326</v>
+        <v>5952006</v>
       </c>
       <c r="AZ15" s="15">
-        <v>5952006</v>
+        <v>8502362</v>
       </c>
       <c r="BA15" s="15">
-        <v>8502362</v>
+        <v>6660342</v>
       </c>
       <c r="BB15" s="15">
-        <v>6660342</v>
+        <v>7653964</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>63</v>
       </c>
@@ -2280,7 +2245,7 @@
       <c r="BA16" s="9"/>
       <c r="BB16" s="9"/>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>56</v>
       </c>
@@ -2351,8 +2316,8 @@
       <c r="Y17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z17" s="11" t="s">
-        <v>58</v>
+      <c r="Z17" s="11">
+        <v>0</v>
       </c>
       <c r="AA17" s="11">
         <v>0</v>
@@ -2381,8 +2346,8 @@
       <c r="AI17" s="11">
         <v>0</v>
       </c>
-      <c r="AJ17" s="11">
-        <v>0</v>
+      <c r="AJ17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK17" s="11" t="s">
         <v>58</v>
@@ -2411,8 +2376,8 @@
       <c r="AS17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT17" s="11" t="s">
-        <v>58</v>
+      <c r="AT17" s="11">
+        <v>0</v>
       </c>
       <c r="AU17" s="11" t="s">
         <v>58</v>
@@ -2439,7 +2404,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>59</v>
       </c>
@@ -2510,8 +2475,8 @@
       <c r="Y18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z18" s="13" t="s">
-        <v>58</v>
+      <c r="Z18" s="13">
+        <v>0</v>
       </c>
       <c r="AA18" s="13">
         <v>0</v>
@@ -2540,8 +2505,8 @@
       <c r="AI18" s="13">
         <v>0</v>
       </c>
-      <c r="AJ18" s="13">
-        <v>0</v>
+      <c r="AJ18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK18" s="13" t="s">
         <v>58</v>
@@ -2570,8 +2535,8 @@
       <c r="AS18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT18" s="13" t="s">
-        <v>58</v>
+      <c r="AT18" s="13">
+        <v>0</v>
       </c>
       <c r="AU18" s="13" t="s">
         <v>58</v>
@@ -2585,11 +2550,11 @@
       <c r="AX18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ18" s="13" t="s">
-        <v>58</v>
+      <c r="AY18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ18" s="13">
+        <v>0</v>
       </c>
       <c r="BA18" s="13">
         <v>0</v>
@@ -2598,7 +2563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>60</v>
       </c>
@@ -2669,8 +2634,8 @@
       <c r="Y19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z19" s="11" t="s">
-        <v>58</v>
+      <c r="Z19" s="11">
+        <v>0</v>
       </c>
       <c r="AA19" s="11">
         <v>0</v>
@@ -2699,8 +2664,8 @@
       <c r="AI19" s="11">
         <v>0</v>
       </c>
-      <c r="AJ19" s="11">
-        <v>0</v>
+      <c r="AJ19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK19" s="11" t="s">
         <v>58</v>
@@ -2729,8 +2694,8 @@
       <c r="AS19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT19" s="11" t="s">
-        <v>58</v>
+      <c r="AT19" s="11">
+        <v>0</v>
       </c>
       <c r="AU19" s="11" t="s">
         <v>58</v>
@@ -2741,11 +2706,11 @@
       <c r="AW19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY19" s="11" t="s">
-        <v>58</v>
+      <c r="AX19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY19" s="11">
+        <v>0</v>
       </c>
       <c r="AZ19" s="11">
         <v>0</v>
@@ -2757,7 +2722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>61</v>
       </c>
@@ -2828,8 +2793,8 @@
       <c r="Y20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z20" s="13" t="s">
-        <v>58</v>
+      <c r="Z20" s="13">
+        <v>0</v>
       </c>
       <c r="AA20" s="13">
         <v>0</v>
@@ -2858,8 +2823,8 @@
       <c r="AI20" s="13">
         <v>0</v>
       </c>
-      <c r="AJ20" s="13">
-        <v>0</v>
+      <c r="AJ20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK20" s="13" t="s">
         <v>58</v>
@@ -2888,8 +2853,8 @@
       <c r="AS20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT20" s="13" t="s">
-        <v>58</v>
+      <c r="AT20" s="13">
+        <v>0</v>
       </c>
       <c r="AU20" s="13" t="s">
         <v>58</v>
@@ -2900,11 +2865,11 @@
       <c r="AW20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY20" s="13" t="s">
-        <v>58</v>
+      <c r="AX20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY20" s="13">
+        <v>0</v>
       </c>
       <c r="AZ20" s="13">
         <v>0</v>
@@ -2916,7 +2881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>64</v>
       </c>
@@ -3073,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
         <v>65</v>
       </c>
@@ -3130,7 +3095,7 @@
       <c r="BA22" s="17"/>
       <c r="BB22" s="17"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>66</v>
       </c>
@@ -3199,8 +3164,8 @@
       <c r="Y23" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z23" s="15" t="s">
-        <v>58</v>
+      <c r="Z23" s="15">
+        <v>0</v>
       </c>
       <c r="AA23" s="15">
         <v>0</v>
@@ -3287,7 +3252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
         <v>67</v>
       </c>
@@ -3357,94 +3322,94 @@
         <v>0</v>
       </c>
       <c r="Z24" s="19">
-        <v>0</v>
+        <v>6394911</v>
       </c>
       <c r="AA24" s="19">
-        <v>6394911</v>
+        <v>7302812</v>
       </c>
       <c r="AB24" s="19">
-        <v>7302812</v>
+        <v>7966351</v>
       </c>
       <c r="AC24" s="19">
-        <v>7966351</v>
+        <v>7636851</v>
       </c>
       <c r="AD24" s="19">
-        <v>7636851</v>
+        <v>7719655</v>
       </c>
       <c r="AE24" s="19">
-        <v>7719655</v>
+        <v>7734953</v>
       </c>
       <c r="AF24" s="19">
-        <v>7734953</v>
+        <v>7815020</v>
       </c>
       <c r="AG24" s="19">
-        <v>7815020</v>
+        <v>8176750</v>
       </c>
       <c r="AH24" s="19">
-        <v>8176750</v>
+        <v>8157671</v>
       </c>
       <c r="AI24" s="19">
-        <v>8157671</v>
+        <v>4659618</v>
       </c>
       <c r="AJ24" s="19">
-        <v>4659618</v>
+        <v>8389436</v>
       </c>
       <c r="AK24" s="19">
-        <v>8389436</v>
+        <v>8020015</v>
       </c>
       <c r="AL24" s="19">
-        <v>8020015</v>
+        <v>8573574</v>
       </c>
       <c r="AM24" s="19">
-        <v>8573574</v>
+        <v>5609475</v>
       </c>
       <c r="AN24" s="19">
-        <v>5609475</v>
+        <v>7648250</v>
       </c>
       <c r="AO24" s="19">
-        <v>7648250</v>
+        <v>7970002</v>
       </c>
       <c r="AP24" s="19">
-        <v>7970002</v>
+        <v>8156543</v>
       </c>
       <c r="AQ24" s="19">
-        <v>8156543</v>
+        <v>8097404</v>
       </c>
       <c r="AR24" s="19">
-        <v>8097404</v>
+        <v>8103716</v>
       </c>
       <c r="AS24" s="19">
-        <v>8103716</v>
+        <v>7730125</v>
       </c>
       <c r="AT24" s="19">
-        <v>7730125</v>
+        <v>6741535</v>
       </c>
       <c r="AU24" s="19">
-        <v>6741535</v>
+        <v>5019555</v>
       </c>
       <c r="AV24" s="19">
-        <v>5019555</v>
+        <v>8166813</v>
       </c>
       <c r="AW24" s="19">
-        <v>8166813</v>
+        <v>8477835</v>
       </c>
       <c r="AX24" s="19">
-        <v>8477835</v>
+        <v>8324326</v>
       </c>
       <c r="AY24" s="19">
-        <v>8324326</v>
+        <v>5952006</v>
       </c>
       <c r="AZ24" s="19">
-        <v>5952006</v>
+        <v>8502362</v>
       </c>
       <c r="BA24" s="19">
-        <v>8502362</v>
+        <v>6660342</v>
       </c>
       <c r="BB24" s="19">
-        <v>6660342</v>
+        <v>7653964</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3499,7 +3464,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3554,7 +3519,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3609,7 +3574,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>68</v>
       </c>
@@ -3766,7 +3731,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3821,7 +3786,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>69</v>
       </c>
@@ -3878,7 +3843,7 @@
       <c r="BA30" s="9"/>
       <c r="BB30" s="9"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>56</v>
       </c>
@@ -3949,95 +3914,95 @@
       <c r="Y31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z31" s="11" t="s">
-        <v>58</v>
+      <c r="Z31" s="11">
+        <v>159727</v>
       </c>
       <c r="AA31" s="11">
-        <v>159727</v>
+        <v>126414</v>
       </c>
       <c r="AB31" s="11">
-        <v>126414</v>
+        <v>152880</v>
       </c>
       <c r="AC31" s="11">
-        <v>152880</v>
+        <v>139081</v>
       </c>
       <c r="AD31" s="11">
-        <v>139081</v>
+        <v>110289</v>
       </c>
       <c r="AE31" s="11">
-        <v>110289</v>
+        <v>109578</v>
       </c>
       <c r="AF31" s="11">
-        <v>109578</v>
+        <v>143875</v>
       </c>
       <c r="AG31" s="11">
-        <v>143875</v>
+        <v>155910</v>
       </c>
       <c r="AH31" s="11">
-        <v>155910</v>
+        <v>89342</v>
       </c>
       <c r="AI31" s="11">
-        <v>89342</v>
+        <v>45179</v>
       </c>
       <c r="AJ31" s="11">
-        <v>45179</v>
+        <v>177411</v>
       </c>
       <c r="AK31" s="11">
-        <v>177411</v>
+        <v>125612</v>
       </c>
       <c r="AL31" s="11">
-        <v>125612</v>
+        <v>114782</v>
       </c>
       <c r="AM31" s="11">
-        <v>114782</v>
+        <v>106385</v>
       </c>
       <c r="AN31" s="11">
-        <v>106385</v>
+        <v>202331</v>
       </c>
       <c r="AO31" s="11">
-        <v>202331</v>
+        <v>173454</v>
       </c>
       <c r="AP31" s="11">
-        <v>173454</v>
+        <v>141951</v>
       </c>
       <c r="AQ31" s="11">
-        <v>141951</v>
+        <v>137075</v>
       </c>
       <c r="AR31" s="11">
-        <v>137075</v>
+        <v>191385</v>
       </c>
       <c r="AS31" s="11">
-        <v>191385</v>
+        <v>26528</v>
       </c>
       <c r="AT31" s="11">
-        <v>26528</v>
+        <v>124386</v>
       </c>
       <c r="AU31" s="11">
-        <v>124386</v>
+        <v>85573</v>
       </c>
       <c r="AV31" s="11">
-        <v>85573</v>
+        <v>104351</v>
       </c>
       <c r="AW31" s="11">
-        <v>104351</v>
+        <v>94203</v>
       </c>
       <c r="AX31" s="11">
-        <v>94203</v>
+        <v>122720</v>
       </c>
       <c r="AY31" s="11">
-        <v>122720</v>
+        <v>100303</v>
       </c>
       <c r="AZ31" s="11">
-        <v>100303</v>
+        <v>118598</v>
       </c>
       <c r="BA31" s="11">
-        <v>118598</v>
+        <v>125405</v>
       </c>
       <c r="BB31" s="11">
-        <v>125405</v>
+        <v>117258</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>59</v>
       </c>
@@ -4108,95 +4073,95 @@
       <c r="Y32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z32" s="13" t="s">
-        <v>58</v>
+      <c r="Z32" s="13">
+        <v>246235</v>
       </c>
       <c r="AA32" s="13">
-        <v>246235</v>
+        <v>261542</v>
       </c>
       <c r="AB32" s="13">
-        <v>261542</v>
+        <v>377687</v>
       </c>
       <c r="AC32" s="13">
-        <v>377687</v>
+        <v>318951</v>
       </c>
       <c r="AD32" s="13">
-        <v>318951</v>
+        <v>255039</v>
       </c>
       <c r="AE32" s="13">
-        <v>255039</v>
+        <v>220668</v>
       </c>
       <c r="AF32" s="13">
-        <v>220668</v>
+        <v>281497</v>
       </c>
       <c r="AG32" s="13">
-        <v>281497</v>
+        <v>211170</v>
       </c>
       <c r="AH32" s="13">
-        <v>211170</v>
+        <v>239869</v>
       </c>
       <c r="AI32" s="13">
-        <v>239869</v>
+        <v>128288</v>
       </c>
       <c r="AJ32" s="13">
-        <v>128288</v>
+        <v>433623</v>
       </c>
       <c r="AK32" s="13">
-        <v>433623</v>
+        <v>289631</v>
       </c>
       <c r="AL32" s="13">
-        <v>289631</v>
+        <v>277229</v>
       </c>
       <c r="AM32" s="13">
-        <v>277229</v>
+        <v>165599</v>
       </c>
       <c r="AN32" s="13">
-        <v>165599</v>
+        <v>331429</v>
       </c>
       <c r="AO32" s="13">
-        <v>331429</v>
+        <v>256297</v>
       </c>
       <c r="AP32" s="13">
-        <v>256297</v>
+        <v>194357</v>
       </c>
       <c r="AQ32" s="13">
-        <v>194357</v>
+        <v>192000</v>
       </c>
       <c r="AR32" s="13">
-        <v>192000</v>
+        <v>246349</v>
       </c>
       <c r="AS32" s="13">
-        <v>246349</v>
+        <v>130408</v>
       </c>
       <c r="AT32" s="13">
-        <v>130408</v>
+        <v>276103</v>
       </c>
       <c r="AU32" s="13">
-        <v>276103</v>
+        <v>143941</v>
       </c>
       <c r="AV32" s="13">
-        <v>143941</v>
+        <v>193100</v>
       </c>
       <c r="AW32" s="13">
-        <v>193100</v>
+        <v>292684</v>
       </c>
       <c r="AX32" s="13">
-        <v>292684</v>
+        <v>274282</v>
       </c>
       <c r="AY32" s="13">
-        <v>274282</v>
+        <v>184921</v>
       </c>
       <c r="AZ32" s="13">
-        <v>184921</v>
+        <v>278384</v>
       </c>
       <c r="BA32" s="13">
-        <v>278384</v>
+        <v>270816</v>
       </c>
       <c r="BB32" s="13">
-        <v>270816</v>
+        <v>277385</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>60</v>
       </c>
@@ -4267,95 +4232,95 @@
       <c r="Y33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z33" s="11" t="s">
-        <v>58</v>
+      <c r="Z33" s="11">
+        <v>2581762</v>
       </c>
       <c r="AA33" s="11">
-        <v>2581762</v>
+        <v>1580913</v>
       </c>
       <c r="AB33" s="11">
-        <v>1580913</v>
+        <v>2664249</v>
       </c>
       <c r="AC33" s="11">
-        <v>2664249</v>
+        <v>2543703</v>
       </c>
       <c r="AD33" s="11">
-        <v>2543703</v>
+        <v>2461361</v>
       </c>
       <c r="AE33" s="11">
-        <v>2461361</v>
+        <v>1776079</v>
       </c>
       <c r="AF33" s="11">
-        <v>1776079</v>
+        <v>2117786</v>
       </c>
       <c r="AG33" s="11">
-        <v>2117786</v>
+        <v>2440395</v>
       </c>
       <c r="AH33" s="11">
-        <v>2440395</v>
+        <v>2156300</v>
       </c>
       <c r="AI33" s="11">
-        <v>2156300</v>
+        <v>1371262</v>
       </c>
       <c r="AJ33" s="11">
-        <v>1371262</v>
+        <v>2883052</v>
       </c>
       <c r="AK33" s="11">
-        <v>2883052</v>
+        <v>3595563</v>
       </c>
       <c r="AL33" s="11">
-        <v>3595563</v>
+        <v>2296443</v>
       </c>
       <c r="AM33" s="11">
-        <v>2296443</v>
+        <v>2828429</v>
       </c>
       <c r="AN33" s="11">
-        <v>2828429</v>
+        <v>3562063</v>
       </c>
       <c r="AO33" s="11">
-        <v>3562063</v>
+        <v>2489079</v>
       </c>
       <c r="AP33" s="11">
-        <v>2489079</v>
+        <v>2548569</v>
       </c>
       <c r="AQ33" s="11">
-        <v>2548569</v>
+        <v>1665944</v>
       </c>
       <c r="AR33" s="11">
-        <v>1665944</v>
+        <v>2017416</v>
       </c>
       <c r="AS33" s="11">
-        <v>2017416</v>
+        <v>1662413</v>
       </c>
       <c r="AT33" s="11">
-        <v>1662413</v>
+        <v>2601693</v>
       </c>
       <c r="AU33" s="11">
-        <v>2601693</v>
+        <v>1111511</v>
       </c>
       <c r="AV33" s="11">
-        <v>1111511</v>
+        <v>4183959</v>
       </c>
       <c r="AW33" s="11">
-        <v>4183959</v>
+        <v>2604751</v>
       </c>
       <c r="AX33" s="11">
-        <v>2604751</v>
+        <v>3077439</v>
       </c>
       <c r="AY33" s="11">
-        <v>3077439</v>
+        <v>2275404</v>
       </c>
       <c r="AZ33" s="11">
-        <v>2275404</v>
+        <v>2589083</v>
       </c>
       <c r="BA33" s="11">
-        <v>2589083</v>
+        <v>2187400</v>
       </c>
       <c r="BB33" s="11">
-        <v>2187400</v>
+        <v>2777459</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>61</v>
       </c>
@@ -4426,95 +4391,95 @@
       <c r="Y34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z34" s="13" t="s">
-        <v>58</v>
+      <c r="Z34" s="13">
+        <v>4736869</v>
       </c>
       <c r="AA34" s="13">
-        <v>4736869</v>
+        <v>3536365</v>
       </c>
       <c r="AB34" s="13">
-        <v>3536365</v>
+        <v>5281256</v>
       </c>
       <c r="AC34" s="13">
-        <v>5281256</v>
+        <v>4843745</v>
       </c>
       <c r="AD34" s="13">
-        <v>4843745</v>
+        <v>4515487</v>
       </c>
       <c r="AE34" s="13">
-        <v>4515487</v>
+        <v>3802653</v>
       </c>
       <c r="AF34" s="13">
-        <v>3802653</v>
+        <v>4813840</v>
       </c>
       <c r="AG34" s="13">
-        <v>4813840</v>
+        <v>4477138</v>
       </c>
       <c r="AH34" s="13">
-        <v>4477138</v>
+        <v>4450246</v>
       </c>
       <c r="AI34" s="13">
-        <v>4450246</v>
+        <v>2767829</v>
       </c>
       <c r="AJ34" s="13">
-        <v>2767829</v>
+        <v>4804993</v>
       </c>
       <c r="AK34" s="13">
-        <v>4804993</v>
+        <v>4978792</v>
       </c>
       <c r="AL34" s="13">
-        <v>4978792</v>
+        <v>5632641</v>
       </c>
       <c r="AM34" s="13">
-        <v>5632641</v>
+        <v>3590625</v>
       </c>
       <c r="AN34" s="13">
-        <v>3590625</v>
+        <v>5022958</v>
       </c>
       <c r="AO34" s="13">
-        <v>5022958</v>
+        <v>4364005</v>
       </c>
       <c r="AP34" s="13">
-        <v>4364005</v>
+        <v>4755076</v>
       </c>
       <c r="AQ34" s="13">
-        <v>4755076</v>
+        <v>5774215</v>
       </c>
       <c r="AR34" s="13">
-        <v>5774215</v>
+        <v>4311551</v>
       </c>
       <c r="AS34" s="13">
-        <v>4311551</v>
+        <v>5209264</v>
       </c>
       <c r="AT34" s="13">
-        <v>5209264</v>
+        <v>4201316</v>
       </c>
       <c r="AU34" s="13">
-        <v>4201316</v>
+        <v>2729923</v>
       </c>
       <c r="AV34" s="13">
-        <v>2729923</v>
+        <v>4860901</v>
       </c>
       <c r="AW34" s="13">
-        <v>4860901</v>
+        <v>5522645</v>
       </c>
       <c r="AX34" s="13">
-        <v>5522645</v>
+        <v>5418613</v>
       </c>
       <c r="AY34" s="13">
-        <v>5418613</v>
+        <v>4595344</v>
       </c>
       <c r="AZ34" s="13">
-        <v>4582596</v>
+        <v>5285449</v>
       </c>
       <c r="BA34" s="13">
-        <v>5285449</v>
+        <v>3728474</v>
       </c>
       <c r="BB34" s="13">
-        <v>3728474</v>
+        <v>4962053</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
         <v>70</v>
       </c>
@@ -4584,94 +4549,94 @@
         <v>0</v>
       </c>
       <c r="Z35" s="15">
-        <v>0</v>
+        <v>7724593</v>
       </c>
       <c r="AA35" s="15">
-        <v>7724593</v>
+        <v>5505234</v>
       </c>
       <c r="AB35" s="15">
-        <v>5505234</v>
+        <v>8476072</v>
       </c>
       <c r="AC35" s="15">
-        <v>8476072</v>
+        <v>7845480</v>
       </c>
       <c r="AD35" s="15">
-        <v>7845480</v>
+        <v>7342176</v>
       </c>
       <c r="AE35" s="15">
-        <v>7342176</v>
+        <v>5908978</v>
       </c>
       <c r="AF35" s="15">
-        <v>5908978</v>
+        <v>7356998</v>
       </c>
       <c r="AG35" s="15">
-        <v>7356998</v>
+        <v>7284613</v>
       </c>
       <c r="AH35" s="15">
-        <v>7284613</v>
+        <v>6935757</v>
       </c>
       <c r="AI35" s="15">
-        <v>6935757</v>
+        <v>4312558</v>
       </c>
       <c r="AJ35" s="15">
-        <v>4312558</v>
+        <v>8299079</v>
       </c>
       <c r="AK35" s="15">
-        <v>8299079</v>
+        <v>8989598</v>
       </c>
       <c r="AL35" s="15">
-        <v>8989598</v>
+        <v>8321095</v>
       </c>
       <c r="AM35" s="15">
-        <v>8321095</v>
+        <v>6691038</v>
       </c>
       <c r="AN35" s="15">
-        <v>6691038</v>
+        <v>9118781</v>
       </c>
       <c r="AO35" s="15">
-        <v>9118781</v>
+        <v>7282835</v>
       </c>
       <c r="AP35" s="15">
-        <v>7282835</v>
+        <v>7639953</v>
       </c>
       <c r="AQ35" s="15">
-        <v>7639953</v>
+        <v>7769234</v>
       </c>
       <c r="AR35" s="15">
-        <v>7769234</v>
+        <v>6766701</v>
       </c>
       <c r="AS35" s="15">
-        <v>6766701</v>
+        <v>7028613</v>
       </c>
       <c r="AT35" s="15">
-        <v>7028613</v>
+        <v>7203498</v>
       </c>
       <c r="AU35" s="15">
-        <v>7203498</v>
+        <v>4070948</v>
       </c>
       <c r="AV35" s="15">
-        <v>4070948</v>
+        <v>9342311</v>
       </c>
       <c r="AW35" s="15">
-        <v>9342311</v>
+        <v>8514283</v>
       </c>
       <c r="AX35" s="15">
-        <v>8514283</v>
+        <v>8893054</v>
       </c>
       <c r="AY35" s="15">
-        <v>8893054</v>
+        <v>7155972</v>
       </c>
       <c r="AZ35" s="15">
-        <v>7143224</v>
+        <v>8271514</v>
       </c>
       <c r="BA35" s="15">
-        <v>8271514</v>
+        <v>6312095</v>
       </c>
       <c r="BB35" s="15">
-        <v>6312095</v>
+        <v>8134155</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>71</v>
       </c>
@@ -4728,7 +4693,7 @@
       <c r="BA36" s="9"/>
       <c r="BB36" s="9"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>56</v>
       </c>
@@ -4799,8 +4764,8 @@
       <c r="Y37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z37" s="11" t="s">
-        <v>58</v>
+      <c r="Z37" s="11">
+        <v>0</v>
       </c>
       <c r="AA37" s="11">
         <v>0</v>
@@ -4829,8 +4794,8 @@
       <c r="AI37" s="11">
         <v>0</v>
       </c>
-      <c r="AJ37" s="11">
-        <v>0</v>
+      <c r="AJ37" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK37" s="11" t="s">
         <v>58</v>
@@ -4859,8 +4824,8 @@
       <c r="AS37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT37" s="11" t="s">
-        <v>58</v>
+      <c r="AT37" s="11">
+        <v>0</v>
       </c>
       <c r="AU37" s="11" t="s">
         <v>58</v>
@@ -4887,7 +4852,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>59</v>
       </c>
@@ -4958,8 +4923,8 @@
       <c r="Y38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z38" s="13" t="s">
-        <v>58</v>
+      <c r="Z38" s="13">
+        <v>0</v>
       </c>
       <c r="AA38" s="13">
         <v>0</v>
@@ -4988,8 +4953,8 @@
       <c r="AI38" s="13">
         <v>0</v>
       </c>
-      <c r="AJ38" s="13">
-        <v>0</v>
+      <c r="AJ38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK38" s="13" t="s">
         <v>58</v>
@@ -5018,8 +4983,8 @@
       <c r="AS38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT38" s="13" t="s">
-        <v>58</v>
+      <c r="AT38" s="13">
+        <v>0</v>
       </c>
       <c r="AU38" s="13" t="s">
         <v>58</v>
@@ -5033,20 +4998,20 @@
       <c r="AX38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ38" s="13" t="s">
-        <v>58</v>
+      <c r="AY38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ38" s="13">
+        <v>14</v>
       </c>
       <c r="BA38" s="13">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BB38" s="13">
-        <v>0</v>
+        <v>1373</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>60</v>
       </c>
@@ -5117,8 +5082,8 @@
       <c r="Y39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z39" s="11" t="s">
-        <v>58</v>
+      <c r="Z39" s="11">
+        <v>0</v>
       </c>
       <c r="AA39" s="11">
         <v>0</v>
@@ -5147,8 +5112,8 @@
       <c r="AI39" s="11">
         <v>0</v>
       </c>
-      <c r="AJ39" s="11">
-        <v>0</v>
+      <c r="AJ39" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK39" s="11" t="s">
         <v>58</v>
@@ -5177,8 +5142,8 @@
       <c r="AS39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT39" s="11" t="s">
-        <v>58</v>
+      <c r="AT39" s="11">
+        <v>0</v>
       </c>
       <c r="AU39" s="11" t="s">
         <v>58</v>
@@ -5189,23 +5154,23 @@
       <c r="AW39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY39" s="11" t="s">
-        <v>58</v>
+      <c r="AX39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY39" s="11">
+        <v>44763</v>
       </c>
       <c r="AZ39" s="11">
-        <v>44763</v>
+        <v>61915</v>
       </c>
       <c r="BA39" s="11">
-        <v>61915</v>
+        <v>41145</v>
       </c>
       <c r="BB39" s="11">
-        <v>41145</v>
+        <v>98322</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>61</v>
       </c>
@@ -5276,8 +5241,8 @@
       <c r="Y40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z40" s="13" t="s">
-        <v>58</v>
+      <c r="Z40" s="13">
+        <v>0</v>
       </c>
       <c r="AA40" s="13">
         <v>0</v>
@@ -5306,8 +5271,8 @@
       <c r="AI40" s="13">
         <v>0</v>
       </c>
-      <c r="AJ40" s="13">
-        <v>0</v>
+      <c r="AJ40" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK40" s="13" t="s">
         <v>58</v>
@@ -5336,8 +5301,8 @@
       <c r="AS40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT40" s="13" t="s">
-        <v>58</v>
+      <c r="AT40" s="13">
+        <v>0</v>
       </c>
       <c r="AU40" s="13" t="s">
         <v>58</v>
@@ -5348,23 +5313,23 @@
       <c r="AW40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY40" s="13" t="s">
-        <v>58</v>
+      <c r="AX40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY40" s="13">
+        <v>84442</v>
       </c>
       <c r="AZ40" s="13">
-        <v>84442</v>
+        <v>84475</v>
       </c>
       <c r="BA40" s="13">
-        <v>84475</v>
+        <v>108656</v>
       </c>
       <c r="BB40" s="13">
-        <v>108656</v>
+        <v>26691</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
         <v>72</v>
       </c>
@@ -5509,19 +5474,19 @@
         <v>0</v>
       </c>
       <c r="AY41" s="15">
-        <v>0</v>
+        <v>129205</v>
       </c>
       <c r="AZ41" s="15">
-        <v>129205</v>
+        <v>146404</v>
       </c>
       <c r="BA41" s="15">
-        <v>146404</v>
+        <v>149801</v>
       </c>
       <c r="BB41" s="15">
-        <v>149801</v>
+        <v>126386</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="s">
         <v>65</v>
       </c>
@@ -5578,7 +5543,7 @@
       <c r="BA42" s="17"/>
       <c r="BB42" s="17"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
         <v>66</v>
       </c>
@@ -5647,8 +5612,8 @@
       <c r="Y43" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z43" s="15" t="s">
-        <v>58</v>
+      <c r="Z43" s="15">
+        <v>0</v>
       </c>
       <c r="AA43" s="15">
         <v>0</v>
@@ -5735,7 +5700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
         <v>73</v>
       </c>
@@ -5792,7 +5757,7 @@
       <c r="BA44" s="17"/>
       <c r="BB44" s="17"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
         <v>74</v>
       </c>
@@ -5861,8 +5826,8 @@
       <c r="Y45" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z45" s="15" t="s">
-        <v>58</v>
+      <c r="Z45" s="15">
+        <v>0</v>
       </c>
       <c r="AA45" s="15">
         <v>0</v>
@@ -5949,7 +5914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
         <v>67</v>
       </c>
@@ -6019,94 +5984,94 @@
         <v>0</v>
       </c>
       <c r="Z46" s="19">
-        <v>0</v>
+        <v>7724593</v>
       </c>
       <c r="AA46" s="19">
-        <v>7724593</v>
+        <v>5505234</v>
       </c>
       <c r="AB46" s="19">
-        <v>5505234</v>
+        <v>8476072</v>
       </c>
       <c r="AC46" s="19">
-        <v>8476072</v>
+        <v>7845480</v>
       </c>
       <c r="AD46" s="19">
-        <v>7845480</v>
+        <v>7342176</v>
       </c>
       <c r="AE46" s="19">
-        <v>7342176</v>
+        <v>5908978</v>
       </c>
       <c r="AF46" s="19">
-        <v>5908978</v>
+        <v>7356998</v>
       </c>
       <c r="AG46" s="19">
-        <v>7356998</v>
+        <v>7284613</v>
       </c>
       <c r="AH46" s="19">
-        <v>7284613</v>
+        <v>6935757</v>
       </c>
       <c r="AI46" s="19">
-        <v>6935757</v>
+        <v>4312558</v>
       </c>
       <c r="AJ46" s="19">
-        <v>4312558</v>
+        <v>8299079</v>
       </c>
       <c r="AK46" s="19">
-        <v>8299079</v>
+        <v>8989598</v>
       </c>
       <c r="AL46" s="19">
-        <v>8989598</v>
+        <v>8321095</v>
       </c>
       <c r="AM46" s="19">
-        <v>8321095</v>
+        <v>6691038</v>
       </c>
       <c r="AN46" s="19">
-        <v>6691038</v>
+        <v>9118781</v>
       </c>
       <c r="AO46" s="19">
-        <v>9118781</v>
+        <v>7282835</v>
       </c>
       <c r="AP46" s="19">
-        <v>7282835</v>
+        <v>7639953</v>
       </c>
       <c r="AQ46" s="19">
-        <v>7639953</v>
+        <v>7769234</v>
       </c>
       <c r="AR46" s="19">
-        <v>7769234</v>
+        <v>6766701</v>
       </c>
       <c r="AS46" s="19">
-        <v>6766701</v>
+        <v>7028613</v>
       </c>
       <c r="AT46" s="19">
-        <v>7028613</v>
+        <v>7203498</v>
       </c>
       <c r="AU46" s="19">
-        <v>7203498</v>
+        <v>4070948</v>
       </c>
       <c r="AV46" s="19">
-        <v>4070948</v>
+        <v>9342311</v>
       </c>
       <c r="AW46" s="19">
-        <v>9342311</v>
+        <v>8514283</v>
       </c>
       <c r="AX46" s="19">
-        <v>8514283</v>
+        <v>8893054</v>
       </c>
       <c r="AY46" s="19">
-        <v>8893054</v>
+        <v>7285177</v>
       </c>
       <c r="AZ46" s="19">
-        <v>7272429</v>
+        <v>8417918</v>
       </c>
       <c r="BA46" s="19">
-        <v>8417918</v>
+        <v>6461896</v>
       </c>
       <c r="BB46" s="19">
-        <v>6461896</v>
+        <v>8260541</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6161,7 +6126,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6216,7 +6181,7 @@
       <c r="BA48" s="1"/>
       <c r="BB48" s="1"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6271,7 +6236,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
         <v>75</v>
       </c>
@@ -6428,7 +6393,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6483,7 +6448,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>76</v>
       </c>
@@ -6540,7 +6505,7 @@
       <c r="BA52" s="9"/>
       <c r="BB52" s="9"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>56</v>
       </c>
@@ -6611,95 +6576,95 @@
       <c r="Y53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z53" s="11" t="s">
-        <v>58</v>
+      <c r="Z53" s="11">
+        <v>48989</v>
       </c>
       <c r="AA53" s="11">
-        <v>48989</v>
+        <v>39792</v>
       </c>
       <c r="AB53" s="11">
-        <v>39792</v>
+        <v>48283</v>
       </c>
       <c r="AC53" s="11">
-        <v>48283</v>
+        <v>42098</v>
       </c>
       <c r="AD53" s="11">
-        <v>42098</v>
+        <v>32645</v>
       </c>
       <c r="AE53" s="11">
-        <v>32645</v>
+        <v>32796</v>
       </c>
       <c r="AF53" s="11">
-        <v>32796</v>
+        <v>41797</v>
       </c>
       <c r="AG53" s="11">
-        <v>41797</v>
+        <v>45881</v>
       </c>
       <c r="AH53" s="11">
-        <v>45881</v>
+        <v>26872</v>
       </c>
       <c r="AI53" s="11">
-        <v>26872</v>
+        <v>13580</v>
       </c>
       <c r="AJ53" s="11">
-        <v>13580</v>
+        <v>52189</v>
       </c>
       <c r="AK53" s="11">
-        <v>52189</v>
+        <v>36484</v>
       </c>
       <c r="AL53" s="11">
-        <v>36484</v>
+        <v>33489</v>
       </c>
       <c r="AM53" s="11">
-        <v>33489</v>
+        <v>31362</v>
       </c>
       <c r="AN53" s="11">
-        <v>31362</v>
+        <v>58120</v>
       </c>
       <c r="AO53" s="11">
-        <v>58120</v>
+        <v>50176</v>
       </c>
       <c r="AP53" s="11">
-        <v>50176</v>
+        <v>41973</v>
       </c>
       <c r="AQ53" s="11">
-        <v>41973</v>
+        <v>40011</v>
       </c>
       <c r="AR53" s="11">
-        <v>40011</v>
+        <v>55342</v>
       </c>
       <c r="AS53" s="11">
-        <v>55342</v>
+        <v>10241</v>
       </c>
       <c r="AT53" s="11">
-        <v>10241</v>
+        <v>43552</v>
       </c>
       <c r="AU53" s="11">
-        <v>43552</v>
+        <v>30027</v>
       </c>
       <c r="AV53" s="11">
-        <v>30027</v>
+        <v>50115</v>
       </c>
       <c r="AW53" s="11">
-        <v>50115</v>
+        <v>37664</v>
       </c>
       <c r="AX53" s="11">
-        <v>37664</v>
+        <v>56301</v>
       </c>
       <c r="AY53" s="11">
-        <v>56301</v>
+        <v>47272</v>
       </c>
       <c r="AZ53" s="11">
-        <v>47272</v>
+        <v>56827</v>
       </c>
       <c r="BA53" s="11">
-        <v>56827</v>
+        <v>68225</v>
       </c>
       <c r="BB53" s="11">
-        <v>68225</v>
+        <v>72064</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>59</v>
       </c>
@@ -6770,95 +6735,95 @@
       <c r="Y54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z54" s="13" t="s">
-        <v>58</v>
+      <c r="Z54" s="13">
+        <v>123933</v>
       </c>
       <c r="AA54" s="13">
-        <v>123933</v>
+        <v>143947</v>
       </c>
       <c r="AB54" s="13">
-        <v>143947</v>
+        <v>218355</v>
       </c>
       <c r="AC54" s="13">
-        <v>218355</v>
+        <v>183944</v>
       </c>
       <c r="AD54" s="13">
-        <v>183944</v>
+        <v>146812</v>
       </c>
       <c r="AE54" s="13">
-        <v>146812</v>
+        <v>128691</v>
       </c>
       <c r="AF54" s="13">
-        <v>128691</v>
+        <v>160343</v>
       </c>
       <c r="AG54" s="13">
-        <v>160343</v>
+        <v>122939</v>
       </c>
       <c r="AH54" s="13">
-        <v>122939</v>
+        <v>138367</v>
       </c>
       <c r="AI54" s="13">
-        <v>138367</v>
+        <v>73709</v>
       </c>
       <c r="AJ54" s="13">
-        <v>73709</v>
+        <v>251030</v>
       </c>
       <c r="AK54" s="13">
-        <v>251030</v>
+        <v>168392</v>
       </c>
       <c r="AL54" s="13">
-        <v>168392</v>
+        <v>157165</v>
       </c>
       <c r="AM54" s="13">
-        <v>157165</v>
+        <v>95238</v>
       </c>
       <c r="AN54" s="13">
-        <v>95238</v>
+        <v>187439</v>
       </c>
       <c r="AO54" s="13">
-        <v>187439</v>
+        <v>148135</v>
       </c>
       <c r="AP54" s="13">
-        <v>148135</v>
+        <v>113068</v>
       </c>
       <c r="AQ54" s="13">
-        <v>113068</v>
+        <v>108936</v>
       </c>
       <c r="AR54" s="13">
-        <v>108936</v>
+        <v>143156</v>
       </c>
       <c r="AS54" s="13">
-        <v>143156</v>
+        <v>96506</v>
       </c>
       <c r="AT54" s="13">
-        <v>96506</v>
+        <v>204093</v>
       </c>
       <c r="AU54" s="13">
-        <v>204093</v>
+        <v>106605</v>
       </c>
       <c r="AV54" s="13">
-        <v>106605</v>
+        <v>145313</v>
       </c>
       <c r="AW54" s="13">
-        <v>145313</v>
+        <v>209357</v>
       </c>
       <c r="AX54" s="13">
-        <v>209357</v>
+        <v>201846</v>
       </c>
       <c r="AY54" s="13">
-        <v>201846</v>
+        <v>158735</v>
       </c>
       <c r="AZ54" s="13">
-        <v>158735</v>
+        <v>247121</v>
       </c>
       <c r="BA54" s="13">
-        <v>247121</v>
+        <v>291847</v>
       </c>
       <c r="BB54" s="13">
-        <v>291847</v>
+        <v>308922</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>60</v>
       </c>
@@ -6929,95 +6894,95 @@
       <c r="Y55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z55" s="11" t="s">
-        <v>58</v>
+      <c r="Z55" s="11">
+        <v>849123</v>
       </c>
       <c r="AA55" s="11">
-        <v>849123</v>
+        <v>595911</v>
       </c>
       <c r="AB55" s="11">
-        <v>595911</v>
+        <v>1108313</v>
       </c>
       <c r="AC55" s="11">
-        <v>1108313</v>
+        <v>1031586</v>
       </c>
       <c r="AD55" s="11">
-        <v>1031586</v>
+        <v>1005646</v>
       </c>
       <c r="AE55" s="11">
-        <v>1005646</v>
+        <v>746742</v>
       </c>
       <c r="AF55" s="11">
-        <v>746742</v>
+        <v>1069436</v>
       </c>
       <c r="AG55" s="11">
-        <v>1069436</v>
+        <v>1281241</v>
       </c>
       <c r="AH55" s="11">
-        <v>1281241</v>
+        <v>1387108</v>
       </c>
       <c r="AI55" s="11">
-        <v>1387108</v>
+        <v>743677</v>
       </c>
       <c r="AJ55" s="11">
-        <v>743677</v>
+        <v>1588025</v>
       </c>
       <c r="AK55" s="11">
-        <v>1588025</v>
+        <v>1975465</v>
       </c>
       <c r="AL55" s="11">
-        <v>1975465</v>
+        <v>1264333</v>
       </c>
       <c r="AM55" s="11">
-        <v>1264333</v>
+        <v>1549929</v>
       </c>
       <c r="AN55" s="11">
-        <v>1549929</v>
+        <v>1953240</v>
       </c>
       <c r="AO55" s="11">
-        <v>1953240</v>
+        <v>1343690</v>
       </c>
       <c r="AP55" s="11">
-        <v>1343690</v>
+        <v>1385257</v>
       </c>
       <c r="AQ55" s="11">
-        <v>1385257</v>
+        <v>1040898</v>
       </c>
       <c r="AR55" s="11">
-        <v>1040898</v>
+        <v>1243622</v>
       </c>
       <c r="AS55" s="11">
-        <v>1243622</v>
+        <v>993773</v>
       </c>
       <c r="AT55" s="11">
-        <v>993773</v>
+        <v>1686317</v>
       </c>
       <c r="AU55" s="11">
-        <v>1686317</v>
+        <v>664396</v>
       </c>
       <c r="AV55" s="11">
-        <v>664396</v>
+        <v>2596866</v>
       </c>
       <c r="AW55" s="11">
-        <v>2596866</v>
+        <v>1782819</v>
       </c>
       <c r="AX55" s="11">
-        <v>1782819</v>
+        <v>2220167</v>
       </c>
       <c r="AY55" s="11">
-        <v>2220167</v>
+        <v>1659379</v>
       </c>
       <c r="AZ55" s="11">
-        <v>1659379</v>
+        <v>1954715</v>
       </c>
       <c r="BA55" s="11">
-        <v>1954715</v>
+        <v>1733639</v>
       </c>
       <c r="BB55" s="11">
-        <v>1733639</v>
+        <v>2272539</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>61</v>
       </c>
@@ -7088,95 +7053,95 @@
       <c r="Y56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z56" s="13" t="s">
-        <v>58</v>
+      <c r="Z56" s="13">
+        <v>1378861</v>
       </c>
       <c r="AA56" s="13">
-        <v>1378861</v>
+        <v>1226566</v>
       </c>
       <c r="AB56" s="13">
-        <v>1226566</v>
+        <v>2174719</v>
       </c>
       <c r="AC56" s="13">
-        <v>2174719</v>
+        <v>1858515</v>
       </c>
       <c r="AD56" s="13">
-        <v>1858515</v>
+        <v>1800961</v>
       </c>
       <c r="AE56" s="13">
-        <v>1800961</v>
+        <v>1859323</v>
       </c>
       <c r="AF56" s="13">
-        <v>1859323</v>
+        <v>2559714</v>
       </c>
       <c r="AG56" s="13">
-        <v>2559714</v>
+        <v>2583842</v>
       </c>
       <c r="AH56" s="13">
-        <v>2583842</v>
+        <v>2482218</v>
       </c>
       <c r="AI56" s="13">
-        <v>2482218</v>
+        <v>1489683</v>
       </c>
       <c r="AJ56" s="13">
-        <v>1489683</v>
+        <v>2537265</v>
       </c>
       <c r="AK56" s="13">
-        <v>2537265</v>
+        <v>2608152</v>
       </c>
       <c r="AL56" s="13">
-        <v>2608152</v>
+        <v>3056985</v>
       </c>
       <c r="AM56" s="13">
-        <v>3056985</v>
+        <v>1925926</v>
       </c>
       <c r="AN56" s="13">
-        <v>1925926</v>
+        <v>2743058</v>
       </c>
       <c r="AO56" s="13">
-        <v>2743058</v>
+        <v>2346792</v>
       </c>
       <c r="AP56" s="13">
-        <v>2346792</v>
+        <v>2598725</v>
       </c>
       <c r="AQ56" s="13">
-        <v>2598725</v>
+        <v>3331106</v>
       </c>
       <c r="AR56" s="13">
-        <v>3331106</v>
+        <v>2562188</v>
       </c>
       <c r="AS56" s="13">
-        <v>2562188</v>
+        <v>3031193</v>
       </c>
       <c r="AT56" s="13">
-        <v>3031193</v>
+        <v>2552731</v>
       </c>
       <c r="AU56" s="13">
-        <v>2552731</v>
+        <v>1680153</v>
       </c>
       <c r="AV56" s="13">
-        <v>1680153</v>
+        <v>3038928</v>
       </c>
       <c r="AW56" s="13">
-        <v>3038928</v>
+        <v>3861560</v>
       </c>
       <c r="AX56" s="13">
-        <v>3861560</v>
+        <v>4242534</v>
       </c>
       <c r="AY56" s="13">
-        <v>3948718</v>
+        <v>3731897</v>
       </c>
       <c r="AZ56" s="13">
-        <v>3722268</v>
+        <v>3848333</v>
       </c>
       <c r="BA56" s="13">
-        <v>3848333</v>
+        <v>2959424</v>
       </c>
       <c r="BB56" s="13">
-        <v>2959424</v>
+        <v>4023052</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
         <v>70</v>
       </c>
@@ -7246,94 +7211,94 @@
         <v>0</v>
       </c>
       <c r="Z57" s="15">
-        <v>0</v>
+        <v>2400906</v>
       </c>
       <c r="AA57" s="15">
-        <v>2400906</v>
+        <v>2006216</v>
       </c>
       <c r="AB57" s="15">
-        <v>2006216</v>
+        <v>3549670</v>
       </c>
       <c r="AC57" s="15">
-        <v>3549670</v>
+        <v>3116143</v>
       </c>
       <c r="AD57" s="15">
-        <v>3116143</v>
+        <v>2986064</v>
       </c>
       <c r="AE57" s="15">
-        <v>2986064</v>
+        <v>2767552</v>
       </c>
       <c r="AF57" s="15">
-        <v>2767552</v>
+        <v>3831290</v>
       </c>
       <c r="AG57" s="15">
-        <v>3831290</v>
+        <v>4033903</v>
       </c>
       <c r="AH57" s="15">
-        <v>4033903</v>
+        <v>4034565</v>
       </c>
       <c r="AI57" s="15">
-        <v>4034565</v>
+        <v>2320649</v>
       </c>
       <c r="AJ57" s="15">
-        <v>2320649</v>
+        <v>4428509</v>
       </c>
       <c r="AK57" s="15">
-        <v>4428509</v>
+        <v>4788493</v>
       </c>
       <c r="AL57" s="15">
-        <v>4788493</v>
+        <v>4511972</v>
       </c>
       <c r="AM57" s="15">
-        <v>4511972</v>
+        <v>3602455</v>
       </c>
       <c r="AN57" s="15">
-        <v>3602455</v>
+        <v>4941857</v>
       </c>
       <c r="AO57" s="15">
-        <v>4941857</v>
+        <v>3888793</v>
       </c>
       <c r="AP57" s="15">
-        <v>3888793</v>
+        <v>4139023</v>
       </c>
       <c r="AQ57" s="15">
-        <v>4139023</v>
+        <v>4520951</v>
       </c>
       <c r="AR57" s="15">
-        <v>4520951</v>
+        <v>4004308</v>
       </c>
       <c r="AS57" s="15">
-        <v>4004308</v>
+        <v>4131713</v>
       </c>
       <c r="AT57" s="15">
-        <v>4131713</v>
+        <v>4486693</v>
       </c>
       <c r="AU57" s="15">
-        <v>4486693</v>
+        <v>2481181</v>
       </c>
       <c r="AV57" s="15">
-        <v>2481181</v>
+        <v>5831222</v>
       </c>
       <c r="AW57" s="15">
-        <v>5831222</v>
+        <v>5891400</v>
       </c>
       <c r="AX57" s="15">
-        <v>5891400</v>
+        <v>6720848</v>
       </c>
       <c r="AY57" s="15">
-        <v>6427032</v>
+        <v>5597283</v>
       </c>
       <c r="AZ57" s="15">
-        <v>5587654</v>
+        <v>6106996</v>
       </c>
       <c r="BA57" s="15">
-        <v>6106996</v>
+        <v>5053135</v>
       </c>
       <c r="BB57" s="15">
-        <v>5053135</v>
+        <v>6676577</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
         <v>78</v>
       </c>
@@ -7390,7 +7355,7 @@
       <c r="BA58" s="9"/>
       <c r="BB58" s="9"/>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>56</v>
       </c>
@@ -7461,8 +7426,8 @@
       <c r="Y59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z59" s="11" t="s">
-        <v>58</v>
+      <c r="Z59" s="11">
+        <v>0</v>
       </c>
       <c r="AA59" s="11">
         <v>0</v>
@@ -7524,8 +7489,8 @@
       <c r="AT59" s="11">
         <v>0</v>
       </c>
-      <c r="AU59" s="11">
-        <v>0</v>
+      <c r="AU59" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV59" s="11" t="s">
         <v>58</v>
@@ -7549,7 +7514,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>59</v>
       </c>
@@ -7620,8 +7585,8 @@
       <c r="Y60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z60" s="13" t="s">
-        <v>58</v>
+      <c r="Z60" s="13">
+        <v>0</v>
       </c>
       <c r="AA60" s="13">
         <v>0</v>
@@ -7683,8 +7648,8 @@
       <c r="AT60" s="13">
         <v>0</v>
       </c>
-      <c r="AU60" s="13">
-        <v>0</v>
+      <c r="AU60" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV60" s="13" t="s">
         <v>58</v>
@@ -7695,20 +7660,20 @@
       <c r="AX60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY60" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ60" s="13" t="s">
-        <v>58</v>
+      <c r="AY60" s="13">
+        <v>0</v>
+      </c>
+      <c r="AZ60" s="13">
+        <v>15</v>
       </c>
       <c r="BA60" s="13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BB60" s="13">
-        <v>0</v>
+        <v>1001</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>60</v>
       </c>
@@ -7779,8 +7744,8 @@
       <c r="Y61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z61" s="11" t="s">
-        <v>58</v>
+      <c r="Z61" s="11">
+        <v>0</v>
       </c>
       <c r="AA61" s="11">
         <v>0</v>
@@ -7842,8 +7807,8 @@
       <c r="AT61" s="11">
         <v>0</v>
       </c>
-      <c r="AU61" s="11">
-        <v>0</v>
+      <c r="AU61" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV61" s="11" t="s">
         <v>58</v>
@@ -7851,23 +7816,23 @@
       <c r="AW61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY61" s="11" t="s">
-        <v>58</v>
+      <c r="AX61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AY61" s="11">
+        <v>30627</v>
       </c>
       <c r="AZ61" s="11">
-        <v>30627</v>
+        <v>46152</v>
       </c>
       <c r="BA61" s="11">
-        <v>46152</v>
+        <v>30937</v>
       </c>
       <c r="BB61" s="11">
-        <v>30937</v>
+        <v>75739</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>61</v>
       </c>
@@ -7938,8 +7903,8 @@
       <c r="Y62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z62" s="13" t="s">
-        <v>58</v>
+      <c r="Z62" s="13">
+        <v>0</v>
       </c>
       <c r="AA62" s="13">
         <v>0</v>
@@ -8001,8 +7966,8 @@
       <c r="AT62" s="13">
         <v>0</v>
       </c>
-      <c r="AU62" s="13">
-        <v>0</v>
+      <c r="AU62" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV62" s="13" t="s">
         <v>58</v>
@@ -8010,23 +7975,23 @@
       <c r="AW62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX62" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AY62" s="13" t="s">
-        <v>58</v>
+      <c r="AX62" s="13">
+        <v>0</v>
+      </c>
+      <c r="AY62" s="13">
+        <v>58842</v>
       </c>
       <c r="AZ62" s="13">
-        <v>58842</v>
+        <v>61311</v>
       </c>
       <c r="BA62" s="13">
-        <v>61311</v>
+        <v>79539</v>
       </c>
       <c r="BB62" s="13">
-        <v>79539</v>
+        <v>21930</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="14" t="s">
         <v>72</v>
       </c>
@@ -8171,19 +8136,19 @@
         <v>0</v>
       </c>
       <c r="AY63" s="15">
-        <v>0</v>
+        <v>89469</v>
       </c>
       <c r="AZ63" s="15">
-        <v>89469</v>
+        <v>107478</v>
       </c>
       <c r="BA63" s="15">
-        <v>107478</v>
+        <v>110476</v>
       </c>
       <c r="BB63" s="15">
-        <v>110476</v>
+        <v>98670</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="16" t="s">
         <v>79</v>
       </c>
@@ -8240,7 +8205,7 @@
       <c r="BA64" s="17"/>
       <c r="BB64" s="17"/>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
         <v>66</v>
       </c>
@@ -8311,8 +8276,8 @@
       <c r="Y65" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z65" s="15" t="s">
-        <v>58</v>
+      <c r="Z65" s="15">
+        <v>0</v>
       </c>
       <c r="AA65" s="15">
         <v>0</v>
@@ -8399,7 +8364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="16" t="s">
         <v>80</v>
       </c>
@@ -8456,7 +8421,7 @@
       <c r="BA66" s="17"/>
       <c r="BB66" s="17"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
         <v>74</v>
       </c>
@@ -8527,8 +8492,8 @@
       <c r="Y67" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Z67" s="15" t="s">
-        <v>58</v>
+      <c r="Z67" s="15">
+        <v>0</v>
       </c>
       <c r="AA67" s="15">
         <v>0</v>
@@ -8615,7 +8580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>81</v>
       </c>
@@ -8672,7 +8637,7 @@
       <c r="BA68" s="9"/>
       <c r="BB68" s="9"/>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>82</v>
       </c>
@@ -8743,8 +8708,8 @@
       <c r="Y69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z69" s="11" t="s">
-        <v>58</v>
+      <c r="Z69" s="11">
+        <v>0</v>
       </c>
       <c r="AA69" s="11">
         <v>0</v>
@@ -8831,7 +8796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="18" t="s">
         <v>67</v>
       </c>
@@ -8901,94 +8866,94 @@
         <v>0</v>
       </c>
       <c r="Z70" s="19">
-        <v>0</v>
+        <v>2400906</v>
       </c>
       <c r="AA70" s="19">
-        <v>2400906</v>
+        <v>2006216</v>
       </c>
       <c r="AB70" s="19">
-        <v>2006216</v>
+        <v>3549670</v>
       </c>
       <c r="AC70" s="19">
-        <v>3549670</v>
+        <v>3116143</v>
       </c>
       <c r="AD70" s="19">
-        <v>3116143</v>
+        <v>2986064</v>
       </c>
       <c r="AE70" s="19">
-        <v>2986064</v>
+        <v>2767552</v>
       </c>
       <c r="AF70" s="19">
-        <v>2767552</v>
+        <v>3831290</v>
       </c>
       <c r="AG70" s="19">
-        <v>3831290</v>
+        <v>4033903</v>
       </c>
       <c r="AH70" s="19">
-        <v>4033903</v>
+        <v>4034565</v>
       </c>
       <c r="AI70" s="19">
-        <v>4034565</v>
+        <v>2320649</v>
       </c>
       <c r="AJ70" s="19">
-        <v>2320649</v>
+        <v>4428509</v>
       </c>
       <c r="AK70" s="19">
-        <v>4428509</v>
+        <v>4788493</v>
       </c>
       <c r="AL70" s="19">
-        <v>4788493</v>
+        <v>4511972</v>
       </c>
       <c r="AM70" s="19">
-        <v>4511972</v>
+        <v>3602455</v>
       </c>
       <c r="AN70" s="19">
-        <v>3602455</v>
+        <v>4941857</v>
       </c>
       <c r="AO70" s="19">
-        <v>4941857</v>
+        <v>3888793</v>
       </c>
       <c r="AP70" s="19">
-        <v>3888793</v>
+        <v>4139023</v>
       </c>
       <c r="AQ70" s="19">
-        <v>4139023</v>
+        <v>4520951</v>
       </c>
       <c r="AR70" s="19">
-        <v>4520951</v>
+        <v>4004308</v>
       </c>
       <c r="AS70" s="19">
-        <v>4004308</v>
+        <v>4131713</v>
       </c>
       <c r="AT70" s="19">
-        <v>4131713</v>
+        <v>4486693</v>
       </c>
       <c r="AU70" s="19">
-        <v>4486693</v>
+        <v>2481181</v>
       </c>
       <c r="AV70" s="19">
-        <v>2481181</v>
+        <v>5831222</v>
       </c>
       <c r="AW70" s="19">
-        <v>5831222</v>
+        <v>5891400</v>
       </c>
       <c r="AX70" s="19">
-        <v>5891400</v>
+        <v>6720848</v>
       </c>
       <c r="AY70" s="19">
-        <v>6427032</v>
+        <v>5686752</v>
       </c>
       <c r="AZ70" s="19">
-        <v>5677123</v>
+        <v>6214474</v>
       </c>
       <c r="BA70" s="19">
-        <v>6214474</v>
+        <v>5163611</v>
       </c>
       <c r="BB70" s="19">
-        <v>5163611</v>
+        <v>6775247</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -9043,7 +9008,7 @@
       <c r="BA71" s="1"/>
       <c r="BB71" s="1"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -9098,7 +9063,7 @@
       <c r="BA72" s="1"/>
       <c r="BB72" s="1"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -9153,7 +9118,7 @@
       <c r="BA73" s="1"/>
       <c r="BB73" s="1"/>
     </row>
-    <row r="74" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
         <v>83</v>
       </c>
@@ -9310,7 +9275,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -9365,7 +9330,7 @@
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
         <v>84</v>
       </c>
@@ -9422,7 +9387,7 @@
       <c r="BA76" s="9"/>
       <c r="BB76" s="9"/>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>56</v>
       </c>
@@ -9493,95 +9458,95 @@
       <c r="Y77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z77" s="11" t="s">
-        <v>58</v>
+      <c r="Z77" s="11">
+        <v>306705</v>
       </c>
       <c r="AA77" s="11">
-        <v>306705</v>
+        <v>314775</v>
       </c>
       <c r="AB77" s="11">
-        <v>314775</v>
+        <v>315823</v>
       </c>
       <c r="AC77" s="11">
-        <v>315823</v>
+        <v>302687</v>
       </c>
       <c r="AD77" s="11">
-        <v>302687</v>
+        <v>295995</v>
       </c>
       <c r="AE77" s="11">
-        <v>295995</v>
+        <v>299294</v>
       </c>
       <c r="AF77" s="11">
-        <v>299294</v>
+        <v>290509</v>
       </c>
       <c r="AG77" s="11">
-        <v>290509</v>
+        <v>294279</v>
       </c>
       <c r="AH77" s="11">
-        <v>294279</v>
+        <v>300777</v>
       </c>
       <c r="AI77" s="11">
-        <v>300777</v>
+        <v>300582</v>
       </c>
       <c r="AJ77" s="11">
-        <v>300582</v>
+        <v>294170</v>
       </c>
       <c r="AK77" s="11">
-        <v>294170</v>
+        <v>290450</v>
       </c>
       <c r="AL77" s="11">
-        <v>290450</v>
+        <v>291762</v>
       </c>
       <c r="AM77" s="11">
-        <v>291762</v>
+        <v>294797</v>
       </c>
       <c r="AN77" s="11">
-        <v>294797</v>
+        <v>287252</v>
       </c>
       <c r="AO77" s="11">
-        <v>287252</v>
+        <v>289276</v>
       </c>
       <c r="AP77" s="11">
-        <v>289276</v>
+        <v>295687</v>
       </c>
       <c r="AQ77" s="11">
-        <v>295687</v>
+        <v>291891</v>
       </c>
       <c r="AR77" s="11">
-        <v>291891</v>
+        <v>289166</v>
       </c>
       <c r="AS77" s="11">
-        <v>289166</v>
+        <v>386045</v>
       </c>
       <c r="AT77" s="11">
-        <v>386045</v>
+        <v>350136</v>
       </c>
       <c r="AU77" s="11">
-        <v>350136</v>
+        <v>350893</v>
       </c>
       <c r="AV77" s="11">
-        <v>350893</v>
+        <v>480254</v>
       </c>
       <c r="AW77" s="11">
-        <v>480254</v>
+        <v>399817</v>
       </c>
       <c r="AX77" s="11">
-        <v>399817</v>
+        <v>458776</v>
       </c>
       <c r="AY77" s="11">
-        <v>458776</v>
+        <v>471292</v>
       </c>
       <c r="AZ77" s="11">
-        <v>471292</v>
+        <v>479156</v>
       </c>
       <c r="BA77" s="11">
-        <v>479156</v>
+        <v>544037</v>
       </c>
       <c r="BB77" s="11">
-        <v>544037</v>
+        <v>614576</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>59</v>
       </c>
@@ -9652,95 +9617,95 @@
       <c r="Y78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z78" s="13" t="s">
-        <v>58</v>
+      <c r="Z78" s="13">
+        <v>503312</v>
       </c>
       <c r="AA78" s="13">
-        <v>503312</v>
+        <v>550378</v>
       </c>
       <c r="AB78" s="13">
-        <v>550378</v>
+        <v>578137</v>
       </c>
       <c r="AC78" s="13">
-        <v>578137</v>
+        <v>576716</v>
       </c>
       <c r="AD78" s="13">
-        <v>576716</v>
+        <v>575645</v>
       </c>
       <c r="AE78" s="13">
-        <v>575645</v>
+        <v>583188</v>
       </c>
       <c r="AF78" s="13">
-        <v>583188</v>
+        <v>569608</v>
       </c>
       <c r="AG78" s="13">
-        <v>569608</v>
+        <v>582180</v>
       </c>
       <c r="AH78" s="13">
-        <v>582180</v>
+        <v>576844</v>
       </c>
       <c r="AI78" s="13">
-        <v>576844</v>
+        <v>574559</v>
       </c>
       <c r="AJ78" s="13">
-        <v>574559</v>
+        <v>578913</v>
       </c>
       <c r="AK78" s="13">
-        <v>578913</v>
+        <v>581402</v>
       </c>
       <c r="AL78" s="13">
-        <v>581402</v>
+        <v>566914</v>
       </c>
       <c r="AM78" s="13">
-        <v>566914</v>
+        <v>575112</v>
       </c>
       <c r="AN78" s="13">
-        <v>575112</v>
+        <v>565548</v>
       </c>
       <c r="AO78" s="13">
-        <v>565548</v>
+        <v>577982</v>
       </c>
       <c r="AP78" s="13">
-        <v>577982</v>
+        <v>581754</v>
       </c>
       <c r="AQ78" s="13">
-        <v>581754</v>
+        <v>567375</v>
       </c>
       <c r="AR78" s="13">
-        <v>567375</v>
+        <v>581111</v>
       </c>
       <c r="AS78" s="13">
-        <v>581111</v>
+        <v>740031</v>
       </c>
       <c r="AT78" s="13">
-        <v>740031</v>
+        <v>739192</v>
       </c>
       <c r="AU78" s="13">
-        <v>739192</v>
+        <v>740616</v>
       </c>
       <c r="AV78" s="13">
-        <v>740616</v>
+        <v>752527</v>
       </c>
       <c r="AW78" s="13">
-        <v>752527</v>
+        <v>715300</v>
       </c>
       <c r="AX78" s="13">
-        <v>715300</v>
+        <v>735907</v>
       </c>
       <c r="AY78" s="13">
-        <v>735907</v>
+        <v>858394</v>
       </c>
       <c r="AZ78" s="13">
-        <v>858394</v>
+        <v>887698</v>
       </c>
       <c r="BA78" s="13">
-        <v>887698</v>
+        <v>1077658</v>
       </c>
       <c r="BB78" s="13">
-        <v>1077658</v>
+        <v>1113694</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>60</v>
       </c>
@@ -9811,95 +9776,95 @@
       <c r="Y79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Z79" s="11" t="s">
-        <v>58</v>
+      <c r="Z79" s="11">
+        <v>328893</v>
       </c>
       <c r="AA79" s="11">
-        <v>328893</v>
+        <v>376941</v>
       </c>
       <c r="AB79" s="11">
-        <v>376941</v>
+        <v>415995</v>
       </c>
       <c r="AC79" s="11">
-        <v>415995</v>
+        <v>405545</v>
       </c>
       <c r="AD79" s="11">
-        <v>405545</v>
+        <v>408573</v>
       </c>
       <c r="AE79" s="11">
-        <v>408573</v>
+        <v>420444</v>
       </c>
       <c r="AF79" s="11">
-        <v>420444</v>
+        <v>504978</v>
       </c>
       <c r="AG79" s="11">
-        <v>504978</v>
+        <v>525014</v>
       </c>
       <c r="AH79" s="11">
-        <v>525014</v>
+        <v>643282</v>
       </c>
       <c r="AI79" s="11">
-        <v>643282</v>
+        <v>542330</v>
       </c>
       <c r="AJ79" s="11">
-        <v>542330</v>
+        <v>550814</v>
       </c>
       <c r="AK79" s="11">
-        <v>550814</v>
+        <v>549417</v>
       </c>
       <c r="AL79" s="11">
-        <v>549417</v>
+        <v>550561</v>
       </c>
       <c r="AM79" s="11">
-        <v>550561</v>
+        <v>547982</v>
       </c>
       <c r="AN79" s="11">
-        <v>547982</v>
+        <v>548345</v>
       </c>
       <c r="AO79" s="11">
-        <v>548345</v>
+        <v>539834</v>
       </c>
       <c r="AP79" s="11">
-        <v>539834</v>
+        <v>543543</v>
       </c>
       <c r="AQ79" s="11">
-        <v>543543</v>
+        <v>624810</v>
       </c>
       <c r="AR79" s="11">
-        <v>624810</v>
+        <v>616443</v>
       </c>
       <c r="AS79" s="11">
-        <v>616443</v>
+        <v>597789</v>
       </c>
       <c r="AT79" s="11">
-        <v>597789</v>
+        <v>648161</v>
       </c>
       <c r="AU79" s="11">
-        <v>648161</v>
+        <v>597741</v>
       </c>
       <c r="AV79" s="11">
-        <v>597741</v>
+        <v>620672</v>
       </c>
       <c r="AW79" s="11">
-        <v>620672</v>
+        <v>684449</v>
       </c>
       <c r="AX79" s="11">
-        <v>684449</v>
+        <v>721433</v>
       </c>
       <c r="AY79" s="11">
-        <v>721433</v>
+        <v>729268</v>
       </c>
       <c r="AZ79" s="11">
-        <v>729268</v>
+        <v>754984</v>
       </c>
       <c r="BA79" s="11">
-        <v>754984</v>
+        <v>792557</v>
       </c>
       <c r="BB79" s="11">
-        <v>792557</v>
+        <v>818208</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
         <v>61</v>
       </c>
@@ -9970,95 +9935,95 @@
       <c r="Y80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z80" s="13" t="s">
-        <v>58</v>
+      <c r="Z80" s="13">
+        <v>291091</v>
       </c>
       <c r="AA80" s="13">
-        <v>291091</v>
+        <v>346844</v>
       </c>
       <c r="AB80" s="13">
-        <v>346844</v>
+        <v>411781</v>
       </c>
       <c r="AC80" s="13">
-        <v>411781</v>
+        <v>383694</v>
       </c>
       <c r="AD80" s="13">
-        <v>383694</v>
+        <v>398841</v>
       </c>
       <c r="AE80" s="13">
-        <v>398841</v>
+        <v>488954</v>
       </c>
       <c r="AF80" s="13">
-        <v>488954</v>
+        <v>531741</v>
       </c>
       <c r="AG80" s="13">
-        <v>531741</v>
+        <v>577119</v>
       </c>
       <c r="AH80" s="13">
-        <v>577119</v>
+        <v>557771</v>
       </c>
       <c r="AI80" s="13">
-        <v>557771</v>
+        <v>538214</v>
       </c>
       <c r="AJ80" s="13">
-        <v>538214</v>
+        <v>528048</v>
       </c>
       <c r="AK80" s="13">
-        <v>528048</v>
+        <v>523852</v>
       </c>
       <c r="AL80" s="13">
-        <v>523852</v>
+        <v>542727</v>
       </c>
       <c r="AM80" s="13">
-        <v>542727</v>
+        <v>536376</v>
       </c>
       <c r="AN80" s="13">
-        <v>536376</v>
+        <v>546104</v>
       </c>
       <c r="AO80" s="13">
-        <v>546104</v>
+        <v>537761</v>
       </c>
       <c r="AP80" s="13">
-        <v>537761</v>
+        <v>546516</v>
       </c>
       <c r="AQ80" s="13">
-        <v>546516</v>
+        <v>576893</v>
       </c>
       <c r="AR80" s="13">
-        <v>576893</v>
+        <v>594261</v>
       </c>
       <c r="AS80" s="13">
-        <v>594261</v>
+        <v>581885</v>
       </c>
       <c r="AT80" s="13">
-        <v>581885</v>
+        <v>607603</v>
       </c>
       <c r="AU80" s="13">
-        <v>607603</v>
+        <v>615458</v>
       </c>
       <c r="AV80" s="13">
-        <v>615458</v>
+        <v>625178</v>
       </c>
       <c r="AW80" s="13">
-        <v>625178</v>
+        <v>699223</v>
       </c>
       <c r="AX80" s="13">
-        <v>699223</v>
+        <v>744587</v>
       </c>
       <c r="AY80" s="13">
-        <v>728732</v>
+        <v>812284</v>
       </c>
       <c r="AZ80" s="13">
-        <v>812262</v>
+        <v>728100</v>
       </c>
       <c r="BA80" s="13">
-        <v>728100</v>
+        <v>793736</v>
       </c>
       <c r="BB80" s="13">
-        <v>793736</v>
+        <v>810764</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
         <v>86</v>
       </c>
@@ -10115,7 +10080,7 @@
       <c r="BA81" s="9"/>
       <c r="BB81" s="9"/>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>59</v>
       </c>
@@ -10264,17 +10229,17 @@
       <c r="AY82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ82" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA82" s="11">
+      <c r="AZ82" s="11">
         <v>1071429</v>
       </c>
-      <c r="BB82" s="11" t="s">
-        <v>58</v>
+      <c r="BA82" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB82" s="11">
+        <v>729060</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
         <v>60</v>
       </c>
@@ -10420,20 +10385,20 @@
       <c r="AX83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY83" s="13" t="s">
-        <v>58</v>
+      <c r="AY83" s="13">
+        <v>684203</v>
       </c>
       <c r="AZ83" s="13">
-        <v>684203</v>
+        <v>745409</v>
       </c>
       <c r="BA83" s="13">
-        <v>745409</v>
+        <v>751902</v>
       </c>
       <c r="BB83" s="13">
-        <v>751902</v>
+        <v>770316</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
         <v>61</v>
       </c>
@@ -10579,17 +10544,17 @@
       <c r="AX84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY84" s="11" t="s">
-        <v>58</v>
+      <c r="AY84" s="11">
+        <v>696833</v>
       </c>
       <c r="AZ84" s="11">
-        <v>696833</v>
+        <v>725789</v>
       </c>
       <c r="BA84" s="11">
-        <v>725789</v>
+        <v>732026</v>
       </c>
       <c r="BB84" s="11">
-        <v>732026</v>
+        <v>821625</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/lastic/pekerman/product/monthly_seprated.xlsx
+++ b/database/industries/lastic/pekerman/product/monthly_seprated.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekerman\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C852A8C-C89C-40B0-82B4-202BBDD1619C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20430" windowHeight="5550"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1290" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="87">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -186,6 +184,9 @@
     <t>ماه 8 منتهی به 1401/08</t>
   </si>
   <si>
+    <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
     <t>مقدار تولید داخلی</t>
   </si>
   <si>
@@ -285,7 +286,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -478,7 +479,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -490,7 +491,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -537,6 +538,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -572,6 +590,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -723,17 +758,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:BB84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -788,7 +823,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -845,7 +880,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -902,7 +937,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -957,7 +992,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1014,7 +1049,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1071,7 +1106,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1126,7 +1161,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1283,7 +1318,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1338,7 +1373,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1395,7 +1430,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1463,98 +1498,98 @@
       <c r="X11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>58</v>
+      <c r="Y11" s="11">
+        <v>133862</v>
       </c>
       <c r="Z11" s="11">
-        <v>133862</v>
+        <v>192349</v>
       </c>
       <c r="AA11" s="11">
-        <v>192349</v>
+        <v>160459</v>
       </c>
       <c r="AB11" s="11">
-        <v>160459</v>
+        <v>147792</v>
       </c>
       <c r="AC11" s="11">
-        <v>147792</v>
+        <v>124953</v>
       </c>
       <c r="AD11" s="11">
-        <v>124953</v>
+        <v>123835</v>
       </c>
       <c r="AE11" s="11">
-        <v>123835</v>
+        <v>129275</v>
       </c>
       <c r="AF11" s="11">
-        <v>129275</v>
+        <v>163599</v>
       </c>
       <c r="AG11" s="11">
-        <v>163599</v>
+        <v>196055</v>
       </c>
       <c r="AH11" s="11">
-        <v>196055</v>
+        <v>111434</v>
       </c>
       <c r="AI11" s="11">
-        <v>111434</v>
+        <v>152945</v>
       </c>
       <c r="AJ11" s="11">
-        <v>152945</v>
+        <v>155975</v>
       </c>
       <c r="AK11" s="11">
-        <v>155975</v>
+        <v>142096</v>
       </c>
       <c r="AL11" s="11">
-        <v>142096</v>
+        <v>120974</v>
       </c>
       <c r="AM11" s="11">
-        <v>120974</v>
+        <v>131422</v>
       </c>
       <c r="AN11" s="11">
-        <v>131422</v>
+        <v>135395</v>
       </c>
       <c r="AO11" s="11">
-        <v>135395</v>
+        <v>132289</v>
       </c>
       <c r="AP11" s="11">
-        <v>132289</v>
+        <v>137703</v>
       </c>
       <c r="AQ11" s="11">
-        <v>137703</v>
+        <v>150376</v>
       </c>
       <c r="AR11" s="11">
-        <v>150376</v>
+        <v>98751</v>
       </c>
       <c r="AS11" s="11">
-        <v>98751</v>
+        <v>83857</v>
       </c>
       <c r="AT11" s="11">
-        <v>83857</v>
+        <v>55707</v>
       </c>
       <c r="AU11" s="11">
-        <v>55707</v>
+        <v>63774</v>
       </c>
       <c r="AV11" s="11">
-        <v>63774</v>
+        <v>96015</v>
       </c>
       <c r="AW11" s="11">
-        <v>96015</v>
+        <v>104375</v>
       </c>
       <c r="AX11" s="11">
-        <v>104375</v>
+        <v>97588</v>
       </c>
       <c r="AY11" s="11">
-        <v>97588</v>
+        <v>106321</v>
       </c>
       <c r="AZ11" s="11">
-        <v>106321</v>
+        <v>107491</v>
       </c>
       <c r="BA11" s="11">
-        <v>107491</v>
+        <v>135177</v>
       </c>
       <c r="BB11" s="11">
-        <v>135177</v>
+        <v>136180</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1622,98 +1657,98 @@
       <c r="X12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>58</v>
+      <c r="Y12" s="13">
+        <v>244820</v>
       </c>
       <c r="Z12" s="13">
-        <v>244820</v>
+        <v>286880</v>
       </c>
       <c r="AA12" s="13">
-        <v>286880</v>
+        <v>316978</v>
       </c>
       <c r="AB12" s="13">
-        <v>316978</v>
+        <v>275490</v>
       </c>
       <c r="AC12" s="13">
-        <v>275490</v>
+        <v>298710</v>
       </c>
       <c r="AD12" s="13">
-        <v>298710</v>
+        <v>301000</v>
       </c>
       <c r="AE12" s="13">
-        <v>301000</v>
+        <v>302677</v>
       </c>
       <c r="AF12" s="13">
-        <v>302677</v>
+        <v>321774</v>
       </c>
       <c r="AG12" s="13">
-        <v>321774</v>
+        <v>300944</v>
       </c>
       <c r="AH12" s="13">
-        <v>300944</v>
+        <v>170432</v>
       </c>
       <c r="AI12" s="13">
-        <v>170432</v>
+        <v>300451</v>
       </c>
       <c r="AJ12" s="13">
-        <v>300451</v>
+        <v>303856</v>
       </c>
       <c r="AK12" s="13">
-        <v>303856</v>
+        <v>293876</v>
       </c>
       <c r="AL12" s="13">
-        <v>293876</v>
+        <v>200669</v>
       </c>
       <c r="AM12" s="13">
-        <v>200669</v>
+        <v>255651</v>
       </c>
       <c r="AN12" s="13">
-        <v>255651</v>
+        <v>262963</v>
       </c>
       <c r="AO12" s="13">
-        <v>262963</v>
+        <v>262524</v>
       </c>
       <c r="AP12" s="13">
-        <v>262524</v>
+        <v>266704</v>
       </c>
       <c r="AQ12" s="13">
-        <v>266704</v>
+        <v>270866</v>
       </c>
       <c r="AR12" s="13">
-        <v>270866</v>
+        <v>241075</v>
       </c>
       <c r="AS12" s="13">
-        <v>241075</v>
+        <v>255272</v>
       </c>
       <c r="AT12" s="13">
-        <v>255272</v>
+        <v>92280</v>
       </c>
       <c r="AU12" s="13">
-        <v>92280</v>
+        <v>171554</v>
       </c>
       <c r="AV12" s="13">
-        <v>171554</v>
+        <v>210493</v>
       </c>
       <c r="AW12" s="13">
-        <v>210493</v>
+        <v>219954</v>
       </c>
       <c r="AX12" s="13">
-        <v>219954</v>
+        <v>153426</v>
       </c>
       <c r="AY12" s="13">
-        <v>153426</v>
+        <v>265597</v>
       </c>
       <c r="AZ12" s="13">
-        <v>265597</v>
+        <v>280858</v>
       </c>
       <c r="BA12" s="13">
-        <v>280858</v>
+        <v>190885</v>
       </c>
       <c r="BB12" s="13">
-        <v>190885</v>
+        <v>215965</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1781,98 +1816,98 @@
       <c r="X13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y13" s="11" t="s">
-        <v>58</v>
+      <c r="Y13" s="11">
+        <v>2157117</v>
       </c>
       <c r="Z13" s="11">
-        <v>2157117</v>
+        <v>2203077</v>
       </c>
       <c r="AA13" s="11">
-        <v>2203077</v>
+        <v>2747977</v>
       </c>
       <c r="AB13" s="11">
-        <v>2747977</v>
+        <v>2603431</v>
       </c>
       <c r="AC13" s="11">
-        <v>2603431</v>
+        <v>2693222</v>
       </c>
       <c r="AD13" s="11">
-        <v>2693222</v>
+        <v>2674037</v>
       </c>
       <c r="AE13" s="11">
-        <v>2674037</v>
+        <v>2705137</v>
       </c>
       <c r="AF13" s="11">
-        <v>2705137</v>
+        <v>2808741</v>
       </c>
       <c r="AG13" s="11">
-        <v>2808741</v>
+        <v>2819587</v>
       </c>
       <c r="AH13" s="11">
-        <v>2819587</v>
+        <v>1640722</v>
       </c>
       <c r="AI13" s="11">
-        <v>1640722</v>
+        <v>2926884</v>
       </c>
       <c r="AJ13" s="11">
-        <v>2926884</v>
+        <v>2861475</v>
       </c>
       <c r="AK13" s="11">
-        <v>2861475</v>
+        <v>2914527</v>
       </c>
       <c r="AL13" s="11">
-        <v>2914527</v>
+        <v>2070652</v>
       </c>
       <c r="AM13" s="11">
-        <v>2070652</v>
+        <v>2535626</v>
       </c>
       <c r="AN13" s="11">
-        <v>2535626</v>
+        <v>2697190</v>
       </c>
       <c r="AO13" s="11">
-        <v>2697190</v>
+        <v>2677214</v>
       </c>
       <c r="AP13" s="11">
-        <v>2677214</v>
+        <v>2619521</v>
       </c>
       <c r="AQ13" s="11">
-        <v>2619521</v>
+        <v>2630484</v>
       </c>
       <c r="AR13" s="11">
-        <v>2630484</v>
+        <v>2603164</v>
       </c>
       <c r="AS13" s="11">
-        <v>2603164</v>
+        <v>2193307</v>
       </c>
       <c r="AT13" s="11">
-        <v>2193307</v>
+        <v>1418543</v>
       </c>
       <c r="AU13" s="11">
-        <v>1418543</v>
+        <v>2608877</v>
       </c>
       <c r="AV13" s="11">
-        <v>2608877</v>
+        <v>2692676</v>
       </c>
       <c r="AW13" s="11">
-        <v>2692676</v>
+        <v>2711857</v>
       </c>
       <c r="AX13" s="11">
-        <v>2711857</v>
+        <v>1787937</v>
       </c>
       <c r="AY13" s="11">
-        <v>1787937</v>
+        <v>2438795</v>
       </c>
       <c r="AZ13" s="11">
-        <v>2438795</v>
+        <v>2443112</v>
       </c>
       <c r="BA13" s="11">
-        <v>2443112</v>
+        <v>2370132</v>
       </c>
       <c r="BB13" s="11">
-        <v>2370132</v>
+        <v>2339290</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1940,98 +1975,98 @@
       <c r="X14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y14" s="13" t="s">
-        <v>58</v>
+      <c r="Y14" s="13">
+        <v>3859112</v>
       </c>
       <c r="Z14" s="13">
-        <v>3859112</v>
+        <v>4620506</v>
       </c>
       <c r="AA14" s="13">
-        <v>4620506</v>
+        <v>4740937</v>
       </c>
       <c r="AB14" s="13">
-        <v>4740937</v>
+        <v>4610138</v>
       </c>
       <c r="AC14" s="13">
-        <v>4610138</v>
+        <v>4602770</v>
       </c>
       <c r="AD14" s="13">
-        <v>4602770</v>
+        <v>4636081</v>
       </c>
       <c r="AE14" s="13">
-        <v>4636081</v>
+        <v>4677931</v>
       </c>
       <c r="AF14" s="13">
-        <v>4677931</v>
+        <v>4882636</v>
       </c>
       <c r="AG14" s="13">
-        <v>4882636</v>
+        <v>4841085</v>
       </c>
       <c r="AH14" s="13">
-        <v>4841085</v>
+        <v>2737030</v>
       </c>
       <c r="AI14" s="13">
-        <v>2737030</v>
+        <v>5009156</v>
       </c>
       <c r="AJ14" s="13">
-        <v>5009156</v>
+        <v>4698709</v>
       </c>
       <c r="AK14" s="13">
-        <v>4698709</v>
+        <v>5223075</v>
       </c>
       <c r="AL14" s="13">
-        <v>5223075</v>
+        <v>3217180</v>
       </c>
       <c r="AM14" s="13">
-        <v>3217180</v>
+        <v>4725551</v>
       </c>
       <c r="AN14" s="13">
-        <v>4725551</v>
+        <v>4874454</v>
       </c>
       <c r="AO14" s="13">
-        <v>4874454</v>
+        <v>5084516</v>
       </c>
       <c r="AP14" s="13">
-        <v>5084516</v>
+        <v>5073476</v>
       </c>
       <c r="AQ14" s="13">
-        <v>5073476</v>
+        <v>5051990</v>
       </c>
       <c r="AR14" s="13">
-        <v>5051990</v>
+        <v>4787135</v>
       </c>
       <c r="AS14" s="13">
-        <v>4787135</v>
+        <v>4209099</v>
       </c>
       <c r="AT14" s="13">
-        <v>4209099</v>
+        <v>3453025</v>
       </c>
       <c r="AU14" s="13">
-        <v>3453025</v>
+        <v>5322608</v>
       </c>
       <c r="AV14" s="13">
-        <v>5322608</v>
+        <v>5478651</v>
       </c>
       <c r="AW14" s="13">
-        <v>5478651</v>
+        <v>5288140</v>
       </c>
       <c r="AX14" s="13">
-        <v>5288140</v>
+        <v>3913055</v>
       </c>
       <c r="AY14" s="13">
-        <v>3913055</v>
+        <v>5691649</v>
       </c>
       <c r="AZ14" s="13">
-        <v>5691649</v>
+        <v>3828881</v>
       </c>
       <c r="BA14" s="13">
-        <v>3828881</v>
+        <v>4957770</v>
       </c>
       <c r="BB14" s="13">
-        <v>4957770</v>
+        <v>5196679</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>62</v>
       </c>
@@ -2098,97 +2133,97 @@
         <v>0</v>
       </c>
       <c r="Y15" s="15">
-        <v>0</v>
+        <v>6394911</v>
       </c>
       <c r="Z15" s="15">
-        <v>6394911</v>
+        <v>7302812</v>
       </c>
       <c r="AA15" s="15">
-        <v>7302812</v>
+        <v>7966351</v>
       </c>
       <c r="AB15" s="15">
-        <v>7966351</v>
+        <v>7636851</v>
       </c>
       <c r="AC15" s="15">
-        <v>7636851</v>
+        <v>7719655</v>
       </c>
       <c r="AD15" s="15">
-        <v>7719655</v>
+        <v>7734953</v>
       </c>
       <c r="AE15" s="15">
-        <v>7734953</v>
+        <v>7815020</v>
       </c>
       <c r="AF15" s="15">
-        <v>7815020</v>
+        <v>8176750</v>
       </c>
       <c r="AG15" s="15">
-        <v>8176750</v>
+        <v>8157671</v>
       </c>
       <c r="AH15" s="15">
-        <v>8157671</v>
+        <v>4659618</v>
       </c>
       <c r="AI15" s="15">
-        <v>4659618</v>
+        <v>8389436</v>
       </c>
       <c r="AJ15" s="15">
-        <v>8389436</v>
+        <v>8020015</v>
       </c>
       <c r="AK15" s="15">
-        <v>8020015</v>
+        <v>8573574</v>
       </c>
       <c r="AL15" s="15">
-        <v>8573574</v>
+        <v>5609475</v>
       </c>
       <c r="AM15" s="15">
-        <v>5609475</v>
+        <v>7648250</v>
       </c>
       <c r="AN15" s="15">
-        <v>7648250</v>
+        <v>7970002</v>
       </c>
       <c r="AO15" s="15">
-        <v>7970002</v>
+        <v>8156543</v>
       </c>
       <c r="AP15" s="15">
-        <v>8156543</v>
+        <v>8097404</v>
       </c>
       <c r="AQ15" s="15">
-        <v>8097404</v>
+        <v>8103716</v>
       </c>
       <c r="AR15" s="15">
-        <v>8103716</v>
+        <v>7730125</v>
       </c>
       <c r="AS15" s="15">
-        <v>7730125</v>
+        <v>6741535</v>
       </c>
       <c r="AT15" s="15">
-        <v>6741535</v>
+        <v>5019555</v>
       </c>
       <c r="AU15" s="15">
-        <v>5019555</v>
+        <v>8166813</v>
       </c>
       <c r="AV15" s="15">
-        <v>8166813</v>
+        <v>8477835</v>
       </c>
       <c r="AW15" s="15">
-        <v>8477835</v>
+        <v>8324326</v>
       </c>
       <c r="AX15" s="15">
-        <v>8324326</v>
+        <v>5952006</v>
       </c>
       <c r="AY15" s="15">
-        <v>5952006</v>
+        <v>8502362</v>
       </c>
       <c r="AZ15" s="15">
-        <v>8502362</v>
+        <v>6660342</v>
       </c>
       <c r="BA15" s="15">
-        <v>6660342</v>
+        <v>7653964</v>
       </c>
       <c r="BB15" s="15">
-        <v>7653964</v>
+        <v>7888114</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>63</v>
       </c>
@@ -2245,7 +2280,7 @@
       <c r="BA16" s="9"/>
       <c r="BB16" s="9"/>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>56</v>
       </c>
@@ -2313,8 +2348,8 @@
       <c r="X17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y17" s="11" t="s">
-        <v>58</v>
+      <c r="Y17" s="11">
+        <v>0</v>
       </c>
       <c r="Z17" s="11">
         <v>0</v>
@@ -2343,8 +2378,8 @@
       <c r="AH17" s="11">
         <v>0</v>
       </c>
-      <c r="AI17" s="11">
-        <v>0</v>
+      <c r="AI17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ17" s="11" t="s">
         <v>58</v>
@@ -2373,11 +2408,11 @@
       <c r="AR17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT17" s="11">
-        <v>0</v>
+      <c r="AS17" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU17" s="11" t="s">
         <v>58</v>
@@ -2404,7 +2439,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>59</v>
       </c>
@@ -2472,8 +2507,8 @@
       <c r="X18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y18" s="13" t="s">
-        <v>58</v>
+      <c r="Y18" s="13">
+        <v>0</v>
       </c>
       <c r="Z18" s="13">
         <v>0</v>
@@ -2502,8 +2537,8 @@
       <c r="AH18" s="13">
         <v>0</v>
       </c>
-      <c r="AI18" s="13">
-        <v>0</v>
+      <c r="AI18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ18" s="13" t="s">
         <v>58</v>
@@ -2532,11 +2567,11 @@
       <c r="AR18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT18" s="13">
-        <v>0</v>
+      <c r="AS18" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU18" s="13" t="s">
         <v>58</v>
@@ -2547,8 +2582,8 @@
       <c r="AW18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX18" s="13" t="s">
-        <v>58</v>
+      <c r="AX18" s="13">
+        <v>0</v>
       </c>
       <c r="AY18" s="13">
         <v>0</v>
@@ -2563,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>60</v>
       </c>
@@ -2631,8 +2666,8 @@
       <c r="X19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y19" s="11" t="s">
-        <v>58</v>
+      <c r="Y19" s="11">
+        <v>0</v>
       </c>
       <c r="Z19" s="11">
         <v>0</v>
@@ -2661,8 +2696,8 @@
       <c r="AH19" s="11">
         <v>0</v>
       </c>
-      <c r="AI19" s="11">
-        <v>0</v>
+      <c r="AI19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ19" s="11" t="s">
         <v>58</v>
@@ -2691,11 +2726,11 @@
       <c r="AR19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT19" s="11">
-        <v>0</v>
+      <c r="AS19" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU19" s="11" t="s">
         <v>58</v>
@@ -2703,8 +2738,8 @@
       <c r="AV19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW19" s="11" t="s">
-        <v>58</v>
+      <c r="AW19" s="11">
+        <v>0</v>
       </c>
       <c r="AX19" s="11">
         <v>0</v>
@@ -2722,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>61</v>
       </c>
@@ -2790,8 +2825,8 @@
       <c r="X20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y20" s="13" t="s">
-        <v>58</v>
+      <c r="Y20" s="13">
+        <v>0</v>
       </c>
       <c r="Z20" s="13">
         <v>0</v>
@@ -2820,8 +2855,8 @@
       <c r="AH20" s="13">
         <v>0</v>
       </c>
-      <c r="AI20" s="13">
-        <v>0</v>
+      <c r="AI20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ20" s="13" t="s">
         <v>58</v>
@@ -2850,11 +2885,11 @@
       <c r="AR20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT20" s="13">
-        <v>0</v>
+      <c r="AS20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU20" s="13" t="s">
         <v>58</v>
@@ -2862,8 +2897,8 @@
       <c r="AV20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW20" s="13" t="s">
-        <v>58</v>
+      <c r="AW20" s="13">
+        <v>0</v>
       </c>
       <c r="AX20" s="13">
         <v>0</v>
@@ -2881,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>64</v>
       </c>
@@ -3038,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>65</v>
       </c>
@@ -3095,7 +3130,7 @@
       <c r="BA22" s="17"/>
       <c r="BB22" s="17"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>66</v>
       </c>
@@ -3161,8 +3196,8 @@
       <c r="X23" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y23" s="15" t="s">
-        <v>58</v>
+      <c r="Y23" s="15">
+        <v>0</v>
       </c>
       <c r="Z23" s="15">
         <v>0</v>
@@ -3252,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
         <v>67</v>
       </c>
@@ -3319,97 +3354,97 @@
         <v>0</v>
       </c>
       <c r="Y24" s="19">
-        <v>0</v>
+        <v>6394911</v>
       </c>
       <c r="Z24" s="19">
-        <v>6394911</v>
+        <v>7302812</v>
       </c>
       <c r="AA24" s="19">
-        <v>7302812</v>
+        <v>7966351</v>
       </c>
       <c r="AB24" s="19">
-        <v>7966351</v>
+        <v>7636851</v>
       </c>
       <c r="AC24" s="19">
-        <v>7636851</v>
+        <v>7719655</v>
       </c>
       <c r="AD24" s="19">
-        <v>7719655</v>
+        <v>7734953</v>
       </c>
       <c r="AE24" s="19">
-        <v>7734953</v>
+        <v>7815020</v>
       </c>
       <c r="AF24" s="19">
-        <v>7815020</v>
+        <v>8176750</v>
       </c>
       <c r="AG24" s="19">
-        <v>8176750</v>
+        <v>8157671</v>
       </c>
       <c r="AH24" s="19">
-        <v>8157671</v>
+        <v>4659618</v>
       </c>
       <c r="AI24" s="19">
-        <v>4659618</v>
+        <v>8389436</v>
       </c>
       <c r="AJ24" s="19">
-        <v>8389436</v>
+        <v>8020015</v>
       </c>
       <c r="AK24" s="19">
-        <v>8020015</v>
+        <v>8573574</v>
       </c>
       <c r="AL24" s="19">
-        <v>8573574</v>
+        <v>5609475</v>
       </c>
       <c r="AM24" s="19">
-        <v>5609475</v>
+        <v>7648250</v>
       </c>
       <c r="AN24" s="19">
-        <v>7648250</v>
+        <v>7970002</v>
       </c>
       <c r="AO24" s="19">
-        <v>7970002</v>
+        <v>8156543</v>
       </c>
       <c r="AP24" s="19">
-        <v>8156543</v>
+        <v>8097404</v>
       </c>
       <c r="AQ24" s="19">
-        <v>8097404</v>
+        <v>8103716</v>
       </c>
       <c r="AR24" s="19">
-        <v>8103716</v>
+        <v>7730125</v>
       </c>
       <c r="AS24" s="19">
-        <v>7730125</v>
+        <v>6741535</v>
       </c>
       <c r="AT24" s="19">
-        <v>6741535</v>
+        <v>5019555</v>
       </c>
       <c r="AU24" s="19">
-        <v>5019555</v>
+        <v>8166813</v>
       </c>
       <c r="AV24" s="19">
-        <v>8166813</v>
+        <v>8477835</v>
       </c>
       <c r="AW24" s="19">
-        <v>8477835</v>
+        <v>8324326</v>
       </c>
       <c r="AX24" s="19">
-        <v>8324326</v>
+        <v>5952006</v>
       </c>
       <c r="AY24" s="19">
-        <v>5952006</v>
+        <v>8502362</v>
       </c>
       <c r="AZ24" s="19">
-        <v>8502362</v>
+        <v>6660342</v>
       </c>
       <c r="BA24" s="19">
-        <v>6660342</v>
+        <v>7653964</v>
       </c>
       <c r="BB24" s="19">
-        <v>7653964</v>
+        <v>7888114</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3464,7 +3499,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3519,7 +3554,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3574,7 +3609,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>68</v>
       </c>
@@ -3731,7 +3766,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3786,7 +3821,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B30" s="8" t="s">
         <v>69</v>
       </c>
@@ -3843,7 +3878,7 @@
       <c r="BA30" s="9"/>
       <c r="BB30" s="9"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B31" s="10" t="s">
         <v>56</v>
       </c>
@@ -3911,98 +3946,98 @@
       <c r="X31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y31" s="11" t="s">
-        <v>58</v>
+      <c r="Y31" s="11">
+        <v>159727</v>
       </c>
       <c r="Z31" s="11">
-        <v>159727</v>
+        <v>126414</v>
       </c>
       <c r="AA31" s="11">
-        <v>126414</v>
+        <v>152880</v>
       </c>
       <c r="AB31" s="11">
-        <v>152880</v>
+        <v>139081</v>
       </c>
       <c r="AC31" s="11">
-        <v>139081</v>
+        <v>110289</v>
       </c>
       <c r="AD31" s="11">
-        <v>110289</v>
+        <v>109578</v>
       </c>
       <c r="AE31" s="11">
-        <v>109578</v>
+        <v>143875</v>
       </c>
       <c r="AF31" s="11">
-        <v>143875</v>
+        <v>155910</v>
       </c>
       <c r="AG31" s="11">
-        <v>155910</v>
+        <v>89342</v>
       </c>
       <c r="AH31" s="11">
-        <v>89342</v>
+        <v>45179</v>
       </c>
       <c r="AI31" s="11">
-        <v>45179</v>
+        <v>177411</v>
       </c>
       <c r="AJ31" s="11">
-        <v>177411</v>
+        <v>125612</v>
       </c>
       <c r="AK31" s="11">
-        <v>125612</v>
+        <v>114782</v>
       </c>
       <c r="AL31" s="11">
-        <v>114782</v>
+        <v>106385</v>
       </c>
       <c r="AM31" s="11">
-        <v>106385</v>
+        <v>202331</v>
       </c>
       <c r="AN31" s="11">
-        <v>202331</v>
+        <v>173454</v>
       </c>
       <c r="AO31" s="11">
-        <v>173454</v>
+        <v>141951</v>
       </c>
       <c r="AP31" s="11">
-        <v>141951</v>
+        <v>137075</v>
       </c>
       <c r="AQ31" s="11">
-        <v>137075</v>
+        <v>191385</v>
       </c>
       <c r="AR31" s="11">
-        <v>191385</v>
+        <v>26528</v>
       </c>
       <c r="AS31" s="11">
-        <v>26528</v>
+        <v>124386</v>
       </c>
       <c r="AT31" s="11">
-        <v>124386</v>
+        <v>85573</v>
       </c>
       <c r="AU31" s="11">
-        <v>85573</v>
+        <v>104351</v>
       </c>
       <c r="AV31" s="11">
-        <v>104351</v>
+        <v>94203</v>
       </c>
       <c r="AW31" s="11">
-        <v>94203</v>
+        <v>122720</v>
       </c>
       <c r="AX31" s="11">
-        <v>122720</v>
+        <v>100303</v>
       </c>
       <c r="AY31" s="11">
-        <v>100303</v>
+        <v>118598</v>
       </c>
       <c r="AZ31" s="11">
-        <v>118598</v>
+        <v>125405</v>
       </c>
       <c r="BA31" s="11">
-        <v>125405</v>
+        <v>117258</v>
       </c>
       <c r="BB31" s="11">
-        <v>117258</v>
+        <v>123608</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B32" s="12" t="s">
         <v>59</v>
       </c>
@@ -4070,98 +4105,98 @@
       <c r="X32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y32" s="13" t="s">
-        <v>58</v>
+      <c r="Y32" s="13">
+        <v>246235</v>
       </c>
       <c r="Z32" s="13">
-        <v>246235</v>
+        <v>261542</v>
       </c>
       <c r="AA32" s="13">
-        <v>261542</v>
+        <v>377687</v>
       </c>
       <c r="AB32" s="13">
-        <v>377687</v>
+        <v>318951</v>
       </c>
       <c r="AC32" s="13">
-        <v>318951</v>
+        <v>255039</v>
       </c>
       <c r="AD32" s="13">
-        <v>255039</v>
+        <v>220668</v>
       </c>
       <c r="AE32" s="13">
-        <v>220668</v>
+        <v>281497</v>
       </c>
       <c r="AF32" s="13">
-        <v>281497</v>
+        <v>211170</v>
       </c>
       <c r="AG32" s="13">
-        <v>211170</v>
+        <v>239869</v>
       </c>
       <c r="AH32" s="13">
-        <v>239869</v>
+        <v>128288</v>
       </c>
       <c r="AI32" s="13">
-        <v>128288</v>
+        <v>433623</v>
       </c>
       <c r="AJ32" s="13">
-        <v>433623</v>
+        <v>289631</v>
       </c>
       <c r="AK32" s="13">
-        <v>289631</v>
+        <v>277229</v>
       </c>
       <c r="AL32" s="13">
-        <v>277229</v>
+        <v>165599</v>
       </c>
       <c r="AM32" s="13">
-        <v>165599</v>
+        <v>331429</v>
       </c>
       <c r="AN32" s="13">
-        <v>331429</v>
+        <v>256297</v>
       </c>
       <c r="AO32" s="13">
-        <v>256297</v>
+        <v>194357</v>
       </c>
       <c r="AP32" s="13">
-        <v>194357</v>
+        <v>192000</v>
       </c>
       <c r="AQ32" s="13">
-        <v>192000</v>
+        <v>246349</v>
       </c>
       <c r="AR32" s="13">
-        <v>246349</v>
+        <v>130408</v>
       </c>
       <c r="AS32" s="13">
-        <v>130408</v>
+        <v>276103</v>
       </c>
       <c r="AT32" s="13">
-        <v>276103</v>
+        <v>143941</v>
       </c>
       <c r="AU32" s="13">
-        <v>143941</v>
+        <v>193100</v>
       </c>
       <c r="AV32" s="13">
-        <v>193100</v>
+        <v>292684</v>
       </c>
       <c r="AW32" s="13">
-        <v>292684</v>
+        <v>274282</v>
       </c>
       <c r="AX32" s="13">
-        <v>274282</v>
+        <v>184921</v>
       </c>
       <c r="AY32" s="13">
-        <v>184921</v>
+        <v>278384</v>
       </c>
       <c r="AZ32" s="13">
-        <v>278384</v>
+        <v>270816</v>
       </c>
       <c r="BA32" s="13">
-        <v>270816</v>
+        <v>277385</v>
       </c>
       <c r="BB32" s="13">
-        <v>277385</v>
+        <v>133927</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>60</v>
       </c>
@@ -4229,98 +4264,98 @@
       <c r="X33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y33" s="11" t="s">
-        <v>58</v>
+      <c r="Y33" s="11">
+        <v>2581762</v>
       </c>
       <c r="Z33" s="11">
-        <v>2581762</v>
+        <v>1580913</v>
       </c>
       <c r="AA33" s="11">
-        <v>1580913</v>
+        <v>2664249</v>
       </c>
       <c r="AB33" s="11">
-        <v>2664249</v>
+        <v>2543703</v>
       </c>
       <c r="AC33" s="11">
-        <v>2543703</v>
+        <v>2461361</v>
       </c>
       <c r="AD33" s="11">
-        <v>2461361</v>
+        <v>1776079</v>
       </c>
       <c r="AE33" s="11">
-        <v>1776079</v>
+        <v>2117786</v>
       </c>
       <c r="AF33" s="11">
-        <v>2117786</v>
+        <v>2440395</v>
       </c>
       <c r="AG33" s="11">
-        <v>2440395</v>
+        <v>2156300</v>
       </c>
       <c r="AH33" s="11">
-        <v>2156300</v>
+        <v>1371262</v>
       </c>
       <c r="AI33" s="11">
-        <v>1371262</v>
+        <v>2883052</v>
       </c>
       <c r="AJ33" s="11">
-        <v>2883052</v>
+        <v>3595563</v>
       </c>
       <c r="AK33" s="11">
-        <v>3595563</v>
+        <v>2296443</v>
       </c>
       <c r="AL33" s="11">
-        <v>2296443</v>
+        <v>2828429</v>
       </c>
       <c r="AM33" s="11">
-        <v>2828429</v>
+        <v>3562063</v>
       </c>
       <c r="AN33" s="11">
-        <v>3562063</v>
+        <v>2489079</v>
       </c>
       <c r="AO33" s="11">
-        <v>2489079</v>
+        <v>2548569</v>
       </c>
       <c r="AP33" s="11">
-        <v>2548569</v>
+        <v>1665944</v>
       </c>
       <c r="AQ33" s="11">
-        <v>1665944</v>
+        <v>2017416</v>
       </c>
       <c r="AR33" s="11">
-        <v>2017416</v>
+        <v>1662413</v>
       </c>
       <c r="AS33" s="11">
-        <v>1662413</v>
+        <v>2601693</v>
       </c>
       <c r="AT33" s="11">
-        <v>2601693</v>
+        <v>1111511</v>
       </c>
       <c r="AU33" s="11">
-        <v>1111511</v>
+        <v>4183959</v>
       </c>
       <c r="AV33" s="11">
-        <v>4183959</v>
+        <v>2604751</v>
       </c>
       <c r="AW33" s="11">
-        <v>2604751</v>
+        <v>3077439</v>
       </c>
       <c r="AX33" s="11">
-        <v>3077439</v>
+        <v>2275404</v>
       </c>
       <c r="AY33" s="11">
-        <v>2275404</v>
+        <v>2589083</v>
       </c>
       <c r="AZ33" s="11">
-        <v>2589083</v>
+        <v>2187400</v>
       </c>
       <c r="BA33" s="11">
-        <v>2187400</v>
+        <v>2777459</v>
       </c>
       <c r="BB33" s="11">
-        <v>2777459</v>
+        <v>1872685</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>61</v>
       </c>
@@ -4388,98 +4423,98 @@
       <c r="X34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y34" s="13" t="s">
-        <v>58</v>
+      <c r="Y34" s="13">
+        <v>4736869</v>
       </c>
       <c r="Z34" s="13">
-        <v>4736869</v>
+        <v>3536365</v>
       </c>
       <c r="AA34" s="13">
-        <v>3536365</v>
+        <v>5281256</v>
       </c>
       <c r="AB34" s="13">
-        <v>5281256</v>
+        <v>4843745</v>
       </c>
       <c r="AC34" s="13">
-        <v>4843745</v>
+        <v>4515487</v>
       </c>
       <c r="AD34" s="13">
-        <v>4515487</v>
+        <v>3802653</v>
       </c>
       <c r="AE34" s="13">
-        <v>3802653</v>
+        <v>4813840</v>
       </c>
       <c r="AF34" s="13">
-        <v>4813840</v>
+        <v>4477138</v>
       </c>
       <c r="AG34" s="13">
-        <v>4477138</v>
+        <v>4450246</v>
       </c>
       <c r="AH34" s="13">
-        <v>4450246</v>
+        <v>2767829</v>
       </c>
       <c r="AI34" s="13">
-        <v>2767829</v>
+        <v>4804993</v>
       </c>
       <c r="AJ34" s="13">
-        <v>4804993</v>
+        <v>4978792</v>
       </c>
       <c r="AK34" s="13">
-        <v>4978792</v>
+        <v>5632641</v>
       </c>
       <c r="AL34" s="13">
-        <v>5632641</v>
+        <v>3590625</v>
       </c>
       <c r="AM34" s="13">
-        <v>3590625</v>
+        <v>5022958</v>
       </c>
       <c r="AN34" s="13">
-        <v>5022958</v>
+        <v>4364005</v>
       </c>
       <c r="AO34" s="13">
-        <v>4364005</v>
+        <v>4755076</v>
       </c>
       <c r="AP34" s="13">
-        <v>4755076</v>
+        <v>5774215</v>
       </c>
       <c r="AQ34" s="13">
-        <v>5774215</v>
+        <v>4311551</v>
       </c>
       <c r="AR34" s="13">
-        <v>4311551</v>
+        <v>5209264</v>
       </c>
       <c r="AS34" s="13">
-        <v>5209264</v>
+        <v>4201316</v>
       </c>
       <c r="AT34" s="13">
-        <v>4201316</v>
+        <v>2729923</v>
       </c>
       <c r="AU34" s="13">
-        <v>2729923</v>
+        <v>4860901</v>
       </c>
       <c r="AV34" s="13">
-        <v>4860901</v>
+        <v>5522645</v>
       </c>
       <c r="AW34" s="13">
-        <v>5522645</v>
+        <v>5418613</v>
       </c>
       <c r="AX34" s="13">
-        <v>5418613</v>
+        <v>4595344</v>
       </c>
       <c r="AY34" s="13">
-        <v>4595344</v>
+        <v>5285449</v>
       </c>
       <c r="AZ34" s="13">
-        <v>5285449</v>
+        <v>3728474</v>
       </c>
       <c r="BA34" s="13">
-        <v>3728474</v>
+        <v>4962053</v>
       </c>
       <c r="BB34" s="13">
-        <v>4962053</v>
+        <v>5392903</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B35" s="14" t="s">
         <v>70</v>
       </c>
@@ -4546,97 +4581,97 @@
         <v>0</v>
       </c>
       <c r="Y35" s="15">
-        <v>0</v>
+        <v>7724593</v>
       </c>
       <c r="Z35" s="15">
-        <v>7724593</v>
+        <v>5505234</v>
       </c>
       <c r="AA35" s="15">
-        <v>5505234</v>
+        <v>8476072</v>
       </c>
       <c r="AB35" s="15">
-        <v>8476072</v>
+        <v>7845480</v>
       </c>
       <c r="AC35" s="15">
-        <v>7845480</v>
+        <v>7342176</v>
       </c>
       <c r="AD35" s="15">
-        <v>7342176</v>
+        <v>5908978</v>
       </c>
       <c r="AE35" s="15">
-        <v>5908978</v>
+        <v>7356998</v>
       </c>
       <c r="AF35" s="15">
-        <v>7356998</v>
+        <v>7284613</v>
       </c>
       <c r="AG35" s="15">
-        <v>7284613</v>
+        <v>6935757</v>
       </c>
       <c r="AH35" s="15">
-        <v>6935757</v>
+        <v>4312558</v>
       </c>
       <c r="AI35" s="15">
-        <v>4312558</v>
+        <v>8299079</v>
       </c>
       <c r="AJ35" s="15">
-        <v>8299079</v>
+        <v>8989598</v>
       </c>
       <c r="AK35" s="15">
-        <v>8989598</v>
+        <v>8321095</v>
       </c>
       <c r="AL35" s="15">
-        <v>8321095</v>
+        <v>6691038</v>
       </c>
       <c r="AM35" s="15">
-        <v>6691038</v>
+        <v>9118781</v>
       </c>
       <c r="AN35" s="15">
-        <v>9118781</v>
+        <v>7282835</v>
       </c>
       <c r="AO35" s="15">
-        <v>7282835</v>
+        <v>7639953</v>
       </c>
       <c r="AP35" s="15">
-        <v>7639953</v>
+        <v>7769234</v>
       </c>
       <c r="AQ35" s="15">
-        <v>7769234</v>
+        <v>6766701</v>
       </c>
       <c r="AR35" s="15">
-        <v>6766701</v>
+        <v>7028613</v>
       </c>
       <c r="AS35" s="15">
-        <v>7028613</v>
+        <v>7203498</v>
       </c>
       <c r="AT35" s="15">
-        <v>7203498</v>
+        <v>4070948</v>
       </c>
       <c r="AU35" s="15">
-        <v>4070948</v>
+        <v>9342311</v>
       </c>
       <c r="AV35" s="15">
-        <v>9342311</v>
+        <v>8514283</v>
       </c>
       <c r="AW35" s="15">
-        <v>8514283</v>
+        <v>8893054</v>
       </c>
       <c r="AX35" s="15">
-        <v>8893054</v>
+        <v>7155972</v>
       </c>
       <c r="AY35" s="15">
-        <v>7155972</v>
+        <v>8271514</v>
       </c>
       <c r="AZ35" s="15">
-        <v>8271514</v>
+        <v>6312095</v>
       </c>
       <c r="BA35" s="15">
-        <v>6312095</v>
+        <v>8134155</v>
       </c>
       <c r="BB35" s="15">
-        <v>8134155</v>
+        <v>7523123</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B36" s="8" t="s">
         <v>71</v>
       </c>
@@ -4693,7 +4728,7 @@
       <c r="BA36" s="9"/>
       <c r="BB36" s="9"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B37" s="10" t="s">
         <v>56</v>
       </c>
@@ -4761,8 +4796,8 @@
       <c r="X37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y37" s="11" t="s">
-        <v>58</v>
+      <c r="Y37" s="11">
+        <v>0</v>
       </c>
       <c r="Z37" s="11">
         <v>0</v>
@@ -4791,8 +4826,8 @@
       <c r="AH37" s="11">
         <v>0</v>
       </c>
-      <c r="AI37" s="11">
-        <v>0</v>
+      <c r="AI37" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ37" s="11" t="s">
         <v>58</v>
@@ -4821,11 +4856,11 @@
       <c r="AR37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT37" s="11">
-        <v>0</v>
+      <c r="AS37" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT37" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU37" s="11" t="s">
         <v>58</v>
@@ -4852,7 +4887,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>59</v>
       </c>
@@ -4920,8 +4955,8 @@
       <c r="X38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y38" s="13" t="s">
-        <v>58</v>
+      <c r="Y38" s="13">
+        <v>0</v>
       </c>
       <c r="Z38" s="13">
         <v>0</v>
@@ -4950,8 +4985,8 @@
       <c r="AH38" s="13">
         <v>0</v>
       </c>
-      <c r="AI38" s="13">
-        <v>0</v>
+      <c r="AI38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ38" s="13" t="s">
         <v>58</v>
@@ -4980,11 +5015,11 @@
       <c r="AR38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT38" s="13">
-        <v>0</v>
+      <c r="AS38" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU38" s="13" t="s">
         <v>58</v>
@@ -4995,23 +5030,23 @@
       <c r="AW38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX38" s="13" t="s">
-        <v>58</v>
+      <c r="AX38" s="13">
+        <v>0</v>
       </c>
       <c r="AY38" s="13">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AZ38" s="13">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="BA38" s="13">
-        <v>0</v>
+        <v>1373</v>
       </c>
       <c r="BB38" s="13">
-        <v>1373</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>60</v>
       </c>
@@ -5079,8 +5114,8 @@
       <c r="X39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y39" s="11" t="s">
-        <v>58</v>
+      <c r="Y39" s="11">
+        <v>0</v>
       </c>
       <c r="Z39" s="11">
         <v>0</v>
@@ -5109,8 +5144,8 @@
       <c r="AH39" s="11">
         <v>0</v>
       </c>
-      <c r="AI39" s="11">
-        <v>0</v>
+      <c r="AI39" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AJ39" s="11" t="s">
         <v>58</v>
@@ -5139,11 +5174,11 @@
       <c r="AR39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT39" s="11">
-        <v>0</v>
+      <c r="AS39" s="11">
+        <v>0</v>
+      </c>
+      <c r="AT39" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU39" s="11" t="s">
         <v>58</v>
@@ -5151,26 +5186,26 @@
       <c r="AV39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW39" s="11" t="s">
-        <v>58</v>
+      <c r="AW39" s="11">
+        <v>0</v>
       </c>
       <c r="AX39" s="11">
-        <v>0</v>
+        <v>44763</v>
       </c>
       <c r="AY39" s="11">
-        <v>44763</v>
+        <v>61915</v>
       </c>
       <c r="AZ39" s="11">
-        <v>61915</v>
+        <v>41145</v>
       </c>
       <c r="BA39" s="11">
-        <v>41145</v>
+        <v>98322</v>
       </c>
       <c r="BB39" s="11">
-        <v>98322</v>
+        <v>43001</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>61</v>
       </c>
@@ -5238,8 +5273,8 @@
       <c r="X40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y40" s="13" t="s">
-        <v>58</v>
+      <c r="Y40" s="13">
+        <v>0</v>
       </c>
       <c r="Z40" s="13">
         <v>0</v>
@@ -5268,8 +5303,8 @@
       <c r="AH40" s="13">
         <v>0</v>
       </c>
-      <c r="AI40" s="13">
-        <v>0</v>
+      <c r="AI40" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AJ40" s="13" t="s">
         <v>58</v>
@@ -5298,11 +5333,11 @@
       <c r="AR40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT40" s="13">
-        <v>0</v>
+      <c r="AS40" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT40" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU40" s="13" t="s">
         <v>58</v>
@@ -5310,26 +5345,26 @@
       <c r="AV40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW40" s="13" t="s">
-        <v>58</v>
+      <c r="AW40" s="13">
+        <v>0</v>
       </c>
       <c r="AX40" s="13">
-        <v>0</v>
+        <v>84442</v>
       </c>
       <c r="AY40" s="13">
-        <v>84442</v>
+        <v>84475</v>
       </c>
       <c r="AZ40" s="13">
-        <v>84475</v>
+        <v>108656</v>
       </c>
       <c r="BA40" s="13">
-        <v>108656</v>
+        <v>26691</v>
       </c>
       <c r="BB40" s="13">
-        <v>26691</v>
+        <v>15534</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B41" s="14" t="s">
         <v>72</v>
       </c>
@@ -5471,22 +5506,22 @@
         <v>0</v>
       </c>
       <c r="AX41" s="15">
-        <v>0</v>
+        <v>129205</v>
       </c>
       <c r="AY41" s="15">
-        <v>129205</v>
+        <v>146404</v>
       </c>
       <c r="AZ41" s="15">
-        <v>146404</v>
+        <v>149801</v>
       </c>
       <c r="BA41" s="15">
-        <v>149801</v>
+        <v>126386</v>
       </c>
       <c r="BB41" s="15">
-        <v>126386</v>
+        <v>58535</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B42" s="16" t="s">
         <v>65</v>
       </c>
@@ -5543,7 +5578,7 @@
       <c r="BA42" s="17"/>
       <c r="BB42" s="17"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>66</v>
       </c>
@@ -5609,8 +5644,8 @@
       <c r="X43" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y43" s="15" t="s">
-        <v>58</v>
+      <c r="Y43" s="15">
+        <v>0</v>
       </c>
       <c r="Z43" s="15">
         <v>0</v>
@@ -5700,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B44" s="16" t="s">
         <v>73</v>
       </c>
@@ -5757,7 +5792,7 @@
       <c r="BA44" s="17"/>
       <c r="BB44" s="17"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>74</v>
       </c>
@@ -5823,8 +5858,8 @@
       <c r="X45" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y45" s="15" t="s">
-        <v>58</v>
+      <c r="Y45" s="15">
+        <v>0</v>
       </c>
       <c r="Z45" s="15">
         <v>0</v>
@@ -5914,7 +5949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B46" s="18" t="s">
         <v>67</v>
       </c>
@@ -5981,97 +6016,97 @@
         <v>0</v>
       </c>
       <c r="Y46" s="19">
-        <v>0</v>
+        <v>7724593</v>
       </c>
       <c r="Z46" s="19">
-        <v>7724593</v>
+        <v>5505234</v>
       </c>
       <c r="AA46" s="19">
-        <v>5505234</v>
+        <v>8476072</v>
       </c>
       <c r="AB46" s="19">
-        <v>8476072</v>
+        <v>7845480</v>
       </c>
       <c r="AC46" s="19">
-        <v>7845480</v>
+        <v>7342176</v>
       </c>
       <c r="AD46" s="19">
-        <v>7342176</v>
+        <v>5908978</v>
       </c>
       <c r="AE46" s="19">
-        <v>5908978</v>
+        <v>7356998</v>
       </c>
       <c r="AF46" s="19">
-        <v>7356998</v>
+        <v>7284613</v>
       </c>
       <c r="AG46" s="19">
-        <v>7284613</v>
+        <v>6935757</v>
       </c>
       <c r="AH46" s="19">
-        <v>6935757</v>
+        <v>4312558</v>
       </c>
       <c r="AI46" s="19">
-        <v>4312558</v>
+        <v>8299079</v>
       </c>
       <c r="AJ46" s="19">
-        <v>8299079</v>
+        <v>8989598</v>
       </c>
       <c r="AK46" s="19">
-        <v>8989598</v>
+        <v>8321095</v>
       </c>
       <c r="AL46" s="19">
-        <v>8321095</v>
+        <v>6691038</v>
       </c>
       <c r="AM46" s="19">
-        <v>6691038</v>
+        <v>9118781</v>
       </c>
       <c r="AN46" s="19">
-        <v>9118781</v>
+        <v>7282835</v>
       </c>
       <c r="AO46" s="19">
-        <v>7282835</v>
+        <v>7639953</v>
       </c>
       <c r="AP46" s="19">
-        <v>7639953</v>
+        <v>7769234</v>
       </c>
       <c r="AQ46" s="19">
-        <v>7769234</v>
+        <v>6766701</v>
       </c>
       <c r="AR46" s="19">
-        <v>6766701</v>
+        <v>7028613</v>
       </c>
       <c r="AS46" s="19">
-        <v>7028613</v>
+        <v>7203498</v>
       </c>
       <c r="AT46" s="19">
-        <v>7203498</v>
+        <v>4070948</v>
       </c>
       <c r="AU46" s="19">
-        <v>4070948</v>
+        <v>9342311</v>
       </c>
       <c r="AV46" s="19">
-        <v>9342311</v>
+        <v>8514283</v>
       </c>
       <c r="AW46" s="19">
-        <v>8514283</v>
+        <v>8893054</v>
       </c>
       <c r="AX46" s="19">
-        <v>8893054</v>
+        <v>7285177</v>
       </c>
       <c r="AY46" s="19">
-        <v>7285177</v>
+        <v>8417918</v>
       </c>
       <c r="AZ46" s="19">
-        <v>8417918</v>
+        <v>6461896</v>
       </c>
       <c r="BA46" s="19">
-        <v>6461896</v>
+        <v>8260541</v>
       </c>
       <c r="BB46" s="19">
-        <v>8260541</v>
+        <v>7581658</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6126,7 +6161,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6181,7 +6216,7 @@
       <c r="BA48" s="1"/>
       <c r="BB48" s="1"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6236,7 +6271,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
         <v>75</v>
       </c>
@@ -6393,7 +6428,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6448,7 +6483,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B52" s="8" t="s">
         <v>76</v>
       </c>
@@ -6505,7 +6540,7 @@
       <c r="BA52" s="9"/>
       <c r="BB52" s="9"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B53" s="10" t="s">
         <v>56</v>
       </c>
@@ -6573,98 +6608,98 @@
       <c r="X53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y53" s="11" t="s">
-        <v>58</v>
+      <c r="Y53" s="11">
+        <v>48989</v>
       </c>
       <c r="Z53" s="11">
-        <v>48989</v>
+        <v>39792</v>
       </c>
       <c r="AA53" s="11">
-        <v>39792</v>
+        <v>48283</v>
       </c>
       <c r="AB53" s="11">
-        <v>48283</v>
+        <v>42098</v>
       </c>
       <c r="AC53" s="11">
-        <v>42098</v>
+        <v>32645</v>
       </c>
       <c r="AD53" s="11">
-        <v>32645</v>
+        <v>32796</v>
       </c>
       <c r="AE53" s="11">
-        <v>32796</v>
+        <v>41797</v>
       </c>
       <c r="AF53" s="11">
-        <v>41797</v>
+        <v>45881</v>
       </c>
       <c r="AG53" s="11">
-        <v>45881</v>
+        <v>26872</v>
       </c>
       <c r="AH53" s="11">
-        <v>26872</v>
+        <v>13580</v>
       </c>
       <c r="AI53" s="11">
-        <v>13580</v>
+        <v>52189</v>
       </c>
       <c r="AJ53" s="11">
-        <v>52189</v>
+        <v>36484</v>
       </c>
       <c r="AK53" s="11">
-        <v>36484</v>
+        <v>33489</v>
       </c>
       <c r="AL53" s="11">
-        <v>33489</v>
+        <v>31362</v>
       </c>
       <c r="AM53" s="11">
-        <v>31362</v>
+        <v>58120</v>
       </c>
       <c r="AN53" s="11">
-        <v>58120</v>
+        <v>50176</v>
       </c>
       <c r="AO53" s="11">
-        <v>50176</v>
+        <v>41973</v>
       </c>
       <c r="AP53" s="11">
-        <v>41973</v>
+        <v>40011</v>
       </c>
       <c r="AQ53" s="11">
-        <v>40011</v>
+        <v>55342</v>
       </c>
       <c r="AR53" s="11">
-        <v>55342</v>
+        <v>10241</v>
       </c>
       <c r="AS53" s="11">
-        <v>10241</v>
+        <v>43552</v>
       </c>
       <c r="AT53" s="11">
-        <v>43552</v>
+        <v>30027</v>
       </c>
       <c r="AU53" s="11">
-        <v>30027</v>
+        <v>50115</v>
       </c>
       <c r="AV53" s="11">
-        <v>50115</v>
+        <v>37664</v>
       </c>
       <c r="AW53" s="11">
-        <v>37664</v>
+        <v>56301</v>
       </c>
       <c r="AX53" s="11">
-        <v>56301</v>
+        <v>47272</v>
       </c>
       <c r="AY53" s="11">
-        <v>47272</v>
+        <v>56827</v>
       </c>
       <c r="AZ53" s="11">
-        <v>56827</v>
+        <v>68225</v>
       </c>
       <c r="BA53" s="11">
-        <v>68225</v>
+        <v>72064</v>
       </c>
       <c r="BB53" s="11">
-        <v>72064</v>
+        <v>71750</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B54" s="12" t="s">
         <v>59</v>
       </c>
@@ -6732,98 +6767,98 @@
       <c r="X54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y54" s="13" t="s">
-        <v>58</v>
+      <c r="Y54" s="13">
+        <v>123933</v>
       </c>
       <c r="Z54" s="13">
-        <v>123933</v>
+        <v>143947</v>
       </c>
       <c r="AA54" s="13">
-        <v>143947</v>
+        <v>218355</v>
       </c>
       <c r="AB54" s="13">
-        <v>218355</v>
+        <v>183944</v>
       </c>
       <c r="AC54" s="13">
-        <v>183944</v>
+        <v>146812</v>
       </c>
       <c r="AD54" s="13">
-        <v>146812</v>
+        <v>128691</v>
       </c>
       <c r="AE54" s="13">
-        <v>128691</v>
+        <v>160343</v>
       </c>
       <c r="AF54" s="13">
-        <v>160343</v>
+        <v>122939</v>
       </c>
       <c r="AG54" s="13">
-        <v>122939</v>
+        <v>138367</v>
       </c>
       <c r="AH54" s="13">
-        <v>138367</v>
+        <v>73709</v>
       </c>
       <c r="AI54" s="13">
-        <v>73709</v>
+        <v>251030</v>
       </c>
       <c r="AJ54" s="13">
-        <v>251030</v>
+        <v>168392</v>
       </c>
       <c r="AK54" s="13">
-        <v>168392</v>
+        <v>157165</v>
       </c>
       <c r="AL54" s="13">
-        <v>157165</v>
+        <v>95238</v>
       </c>
       <c r="AM54" s="13">
-        <v>95238</v>
+        <v>187439</v>
       </c>
       <c r="AN54" s="13">
-        <v>187439</v>
+        <v>148135</v>
       </c>
       <c r="AO54" s="13">
-        <v>148135</v>
+        <v>113068</v>
       </c>
       <c r="AP54" s="13">
-        <v>113068</v>
+        <v>108936</v>
       </c>
       <c r="AQ54" s="13">
-        <v>108936</v>
+        <v>143156</v>
       </c>
       <c r="AR54" s="13">
-        <v>143156</v>
+        <v>96506</v>
       </c>
       <c r="AS54" s="13">
-        <v>96506</v>
+        <v>204093</v>
       </c>
       <c r="AT54" s="13">
-        <v>204093</v>
+        <v>106605</v>
       </c>
       <c r="AU54" s="13">
-        <v>106605</v>
+        <v>145313</v>
       </c>
       <c r="AV54" s="13">
-        <v>145313</v>
+        <v>209357</v>
       </c>
       <c r="AW54" s="13">
-        <v>209357</v>
+        <v>201846</v>
       </c>
       <c r="AX54" s="13">
-        <v>201846</v>
+        <v>158735</v>
       </c>
       <c r="AY54" s="13">
-        <v>158735</v>
+        <v>247121</v>
       </c>
       <c r="AZ54" s="13">
-        <v>247121</v>
+        <v>291847</v>
       </c>
       <c r="BA54" s="13">
-        <v>291847</v>
+        <v>308922</v>
       </c>
       <c r="BB54" s="13">
-        <v>308922</v>
+        <v>146941</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>60</v>
       </c>
@@ -6891,98 +6926,98 @@
       <c r="X55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y55" s="11" t="s">
-        <v>58</v>
+      <c r="Y55" s="11">
+        <v>849123</v>
       </c>
       <c r="Z55" s="11">
-        <v>849123</v>
+        <v>595911</v>
       </c>
       <c r="AA55" s="11">
-        <v>595911</v>
+        <v>1108313</v>
       </c>
       <c r="AB55" s="11">
-        <v>1108313</v>
+        <v>1031586</v>
       </c>
       <c r="AC55" s="11">
-        <v>1031586</v>
+        <v>1005646</v>
       </c>
       <c r="AD55" s="11">
-        <v>1005646</v>
+        <v>746742</v>
       </c>
       <c r="AE55" s="11">
-        <v>746742</v>
+        <v>1069436</v>
       </c>
       <c r="AF55" s="11">
-        <v>1069436</v>
+        <v>1281241</v>
       </c>
       <c r="AG55" s="11">
-        <v>1281241</v>
+        <v>1387108</v>
       </c>
       <c r="AH55" s="11">
-        <v>1387108</v>
+        <v>743677</v>
       </c>
       <c r="AI55" s="11">
-        <v>743677</v>
+        <v>1588025</v>
       </c>
       <c r="AJ55" s="11">
-        <v>1588025</v>
+        <v>1975465</v>
       </c>
       <c r="AK55" s="11">
-        <v>1975465</v>
+        <v>1264333</v>
       </c>
       <c r="AL55" s="11">
-        <v>1264333</v>
+        <v>1549929</v>
       </c>
       <c r="AM55" s="11">
-        <v>1549929</v>
+        <v>1953240</v>
       </c>
       <c r="AN55" s="11">
-        <v>1953240</v>
+        <v>1343690</v>
       </c>
       <c r="AO55" s="11">
-        <v>1343690</v>
+        <v>1385257</v>
       </c>
       <c r="AP55" s="11">
-        <v>1385257</v>
+        <v>1040898</v>
       </c>
       <c r="AQ55" s="11">
-        <v>1040898</v>
+        <v>1243622</v>
       </c>
       <c r="AR55" s="11">
-        <v>1243622</v>
+        <v>993773</v>
       </c>
       <c r="AS55" s="11">
-        <v>993773</v>
+        <v>1686317</v>
       </c>
       <c r="AT55" s="11">
-        <v>1686317</v>
+        <v>664396</v>
       </c>
       <c r="AU55" s="11">
-        <v>664396</v>
+        <v>2596866</v>
       </c>
       <c r="AV55" s="11">
-        <v>2596866</v>
+        <v>1782819</v>
       </c>
       <c r="AW55" s="11">
-        <v>1782819</v>
+        <v>2220167</v>
       </c>
       <c r="AX55" s="11">
-        <v>2220167</v>
+        <v>1659379</v>
       </c>
       <c r="AY55" s="11">
-        <v>1659379</v>
+        <v>1954715</v>
       </c>
       <c r="AZ55" s="11">
-        <v>1954715</v>
+        <v>1733639</v>
       </c>
       <c r="BA55" s="11">
-        <v>1733639</v>
+        <v>2272539</v>
       </c>
       <c r="BB55" s="11">
-        <v>2272539</v>
+        <v>1553625</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>61</v>
       </c>
@@ -7050,98 +7085,98 @@
       <c r="X56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y56" s="13" t="s">
-        <v>58</v>
+      <c r="Y56" s="13">
+        <v>1378861</v>
       </c>
       <c r="Z56" s="13">
-        <v>1378861</v>
+        <v>1226566</v>
       </c>
       <c r="AA56" s="13">
-        <v>1226566</v>
+        <v>2174719</v>
       </c>
       <c r="AB56" s="13">
-        <v>2174719</v>
+        <v>1858515</v>
       </c>
       <c r="AC56" s="13">
-        <v>1858515</v>
+        <v>1800961</v>
       </c>
       <c r="AD56" s="13">
-        <v>1800961</v>
+        <v>1859323</v>
       </c>
       <c r="AE56" s="13">
-        <v>1859323</v>
+        <v>2559714</v>
       </c>
       <c r="AF56" s="13">
-        <v>2559714</v>
+        <v>2583842</v>
       </c>
       <c r="AG56" s="13">
-        <v>2583842</v>
+        <v>2482218</v>
       </c>
       <c r="AH56" s="13">
-        <v>2482218</v>
+        <v>1489683</v>
       </c>
       <c r="AI56" s="13">
-        <v>1489683</v>
+        <v>2537265</v>
       </c>
       <c r="AJ56" s="13">
-        <v>2537265</v>
+        <v>2608152</v>
       </c>
       <c r="AK56" s="13">
-        <v>2608152</v>
+        <v>3056985</v>
       </c>
       <c r="AL56" s="13">
-        <v>3056985</v>
+        <v>1925926</v>
       </c>
       <c r="AM56" s="13">
-        <v>1925926</v>
+        <v>2743058</v>
       </c>
       <c r="AN56" s="13">
-        <v>2743058</v>
+        <v>2346792</v>
       </c>
       <c r="AO56" s="13">
-        <v>2346792</v>
+        <v>2598725</v>
       </c>
       <c r="AP56" s="13">
-        <v>2598725</v>
+        <v>3331106</v>
       </c>
       <c r="AQ56" s="13">
-        <v>3331106</v>
+        <v>2562188</v>
       </c>
       <c r="AR56" s="13">
-        <v>2562188</v>
+        <v>3031193</v>
       </c>
       <c r="AS56" s="13">
-        <v>3031193</v>
+        <v>2552731</v>
       </c>
       <c r="AT56" s="13">
-        <v>2552731</v>
+        <v>1680153</v>
       </c>
       <c r="AU56" s="13">
-        <v>1680153</v>
+        <v>3038928</v>
       </c>
       <c r="AV56" s="13">
-        <v>3038928</v>
+        <v>3861560</v>
       </c>
       <c r="AW56" s="13">
-        <v>3861560</v>
+        <v>4242534</v>
       </c>
       <c r="AX56" s="13">
-        <v>4242534</v>
+        <v>3731897</v>
       </c>
       <c r="AY56" s="13">
-        <v>3731897</v>
+        <v>3848333</v>
       </c>
       <c r="AZ56" s="13">
-        <v>3848333</v>
+        <v>2959424</v>
       </c>
       <c r="BA56" s="13">
-        <v>2959424</v>
+        <v>4023052</v>
       </c>
       <c r="BB56" s="13">
-        <v>4023052</v>
+        <v>4357508</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B57" s="14" t="s">
         <v>70</v>
       </c>
@@ -7208,97 +7243,97 @@
         <v>0</v>
       </c>
       <c r="Y57" s="15">
-        <v>0</v>
+        <v>2400906</v>
       </c>
       <c r="Z57" s="15">
-        <v>2400906</v>
+        <v>2006216</v>
       </c>
       <c r="AA57" s="15">
-        <v>2006216</v>
+        <v>3549670</v>
       </c>
       <c r="AB57" s="15">
-        <v>3549670</v>
+        <v>3116143</v>
       </c>
       <c r="AC57" s="15">
-        <v>3116143</v>
+        <v>2986064</v>
       </c>
       <c r="AD57" s="15">
-        <v>2986064</v>
+        <v>2767552</v>
       </c>
       <c r="AE57" s="15">
-        <v>2767552</v>
+        <v>3831290</v>
       </c>
       <c r="AF57" s="15">
-        <v>3831290</v>
+        <v>4033903</v>
       </c>
       <c r="AG57" s="15">
-        <v>4033903</v>
+        <v>4034565</v>
       </c>
       <c r="AH57" s="15">
-        <v>4034565</v>
+        <v>2320649</v>
       </c>
       <c r="AI57" s="15">
-        <v>2320649</v>
+        <v>4428509</v>
       </c>
       <c r="AJ57" s="15">
-        <v>4428509</v>
+        <v>4788493</v>
       </c>
       <c r="AK57" s="15">
-        <v>4788493</v>
+        <v>4511972</v>
       </c>
       <c r="AL57" s="15">
-        <v>4511972</v>
+        <v>3602455</v>
       </c>
       <c r="AM57" s="15">
-        <v>3602455</v>
+        <v>4941857</v>
       </c>
       <c r="AN57" s="15">
-        <v>4941857</v>
+        <v>3888793</v>
       </c>
       <c r="AO57" s="15">
-        <v>3888793</v>
+        <v>4139023</v>
       </c>
       <c r="AP57" s="15">
-        <v>4139023</v>
+        <v>4520951</v>
       </c>
       <c r="AQ57" s="15">
-        <v>4520951</v>
+        <v>4004308</v>
       </c>
       <c r="AR57" s="15">
-        <v>4004308</v>
+        <v>4131713</v>
       </c>
       <c r="AS57" s="15">
-        <v>4131713</v>
+        <v>4486693</v>
       </c>
       <c r="AT57" s="15">
-        <v>4486693</v>
+        <v>2481181</v>
       </c>
       <c r="AU57" s="15">
-        <v>2481181</v>
+        <v>5831222</v>
       </c>
       <c r="AV57" s="15">
-        <v>5831222</v>
+        <v>5891400</v>
       </c>
       <c r="AW57" s="15">
-        <v>5891400</v>
+        <v>6720848</v>
       </c>
       <c r="AX57" s="15">
-        <v>6720848</v>
+        <v>5597283</v>
       </c>
       <c r="AY57" s="15">
-        <v>5597283</v>
+        <v>6106996</v>
       </c>
       <c r="AZ57" s="15">
-        <v>6106996</v>
+        <v>5053135</v>
       </c>
       <c r="BA57" s="15">
-        <v>5053135</v>
+        <v>6676577</v>
       </c>
       <c r="BB57" s="15">
-        <v>6676577</v>
+        <v>6129824</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B58" s="8" t="s">
         <v>78</v>
       </c>
@@ -7355,7 +7390,7 @@
       <c r="BA58" s="9"/>
       <c r="BB58" s="9"/>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B59" s="10" t="s">
         <v>56</v>
       </c>
@@ -7423,8 +7458,8 @@
       <c r="X59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y59" s="11" t="s">
-        <v>58</v>
+      <c r="Y59" s="11">
+        <v>0</v>
       </c>
       <c r="Z59" s="11">
         <v>0</v>
@@ -7486,8 +7521,8 @@
       <c r="AS59" s="11">
         <v>0</v>
       </c>
-      <c r="AT59" s="11">
-        <v>0</v>
+      <c r="AT59" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU59" s="11" t="s">
         <v>58</v>
@@ -7514,7 +7549,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B60" s="12" t="s">
         <v>59</v>
       </c>
@@ -7582,8 +7617,8 @@
       <c r="X60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y60" s="13" t="s">
-        <v>58</v>
+      <c r="Y60" s="13">
+        <v>0</v>
       </c>
       <c r="Z60" s="13">
         <v>0</v>
@@ -7645,8 +7680,8 @@
       <c r="AS60" s="13">
         <v>0</v>
       </c>
-      <c r="AT60" s="13">
-        <v>0</v>
+      <c r="AT60" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU60" s="13" t="s">
         <v>58</v>
@@ -7657,23 +7692,23 @@
       <c r="AW60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX60" s="13" t="s">
-        <v>58</v>
+      <c r="AX60" s="13">
+        <v>0</v>
       </c>
       <c r="AY60" s="13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AZ60" s="13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BA60" s="13">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="BB60" s="13">
-        <v>1001</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>60</v>
       </c>
@@ -7741,8 +7776,8 @@
       <c r="X61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y61" s="11" t="s">
-        <v>58</v>
+      <c r="Y61" s="11">
+        <v>0</v>
       </c>
       <c r="Z61" s="11">
         <v>0</v>
@@ -7804,8 +7839,8 @@
       <c r="AS61" s="11">
         <v>0</v>
       </c>
-      <c r="AT61" s="11">
-        <v>0</v>
+      <c r="AT61" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU61" s="11" t="s">
         <v>58</v>
@@ -7813,26 +7848,26 @@
       <c r="AV61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW61" s="11" t="s">
-        <v>58</v>
+      <c r="AW61" s="11">
+        <v>0</v>
       </c>
       <c r="AX61" s="11">
-        <v>0</v>
+        <v>30627</v>
       </c>
       <c r="AY61" s="11">
-        <v>30627</v>
+        <v>46152</v>
       </c>
       <c r="AZ61" s="11">
-        <v>46152</v>
+        <v>30937</v>
       </c>
       <c r="BA61" s="11">
-        <v>30937</v>
+        <v>75739</v>
       </c>
       <c r="BB61" s="11">
-        <v>75739</v>
+        <v>34400</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>61</v>
       </c>
@@ -7900,8 +7935,8 @@
       <c r="X62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y62" s="13" t="s">
-        <v>58</v>
+      <c r="Y62" s="13">
+        <v>0</v>
       </c>
       <c r="Z62" s="13">
         <v>0</v>
@@ -7963,8 +7998,8 @@
       <c r="AS62" s="13">
         <v>0</v>
       </c>
-      <c r="AT62" s="13">
-        <v>0</v>
+      <c r="AT62" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU62" s="13" t="s">
         <v>58</v>
@@ -7972,26 +8007,26 @@
       <c r="AV62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW62" s="13" t="s">
-        <v>58</v>
+      <c r="AW62" s="13">
+        <v>0</v>
       </c>
       <c r="AX62" s="13">
-        <v>0</v>
+        <v>58842</v>
       </c>
       <c r="AY62" s="13">
-        <v>58842</v>
+        <v>61311</v>
       </c>
       <c r="AZ62" s="13">
-        <v>61311</v>
+        <v>79539</v>
       </c>
       <c r="BA62" s="13">
-        <v>79539</v>
+        <v>21930</v>
       </c>
       <c r="BB62" s="13">
-        <v>21930</v>
+        <v>12482</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B63" s="14" t="s">
         <v>72</v>
       </c>
@@ -8133,22 +8168,22 @@
         <v>0</v>
       </c>
       <c r="AX63" s="15">
-        <v>0</v>
+        <v>89469</v>
       </c>
       <c r="AY63" s="15">
-        <v>89469</v>
+        <v>107478</v>
       </c>
       <c r="AZ63" s="15">
-        <v>107478</v>
+        <v>110476</v>
       </c>
       <c r="BA63" s="15">
-        <v>110476</v>
+        <v>98670</v>
       </c>
       <c r="BB63" s="15">
-        <v>98670</v>
+        <v>46882</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B64" s="16" t="s">
         <v>79</v>
       </c>
@@ -8205,7 +8240,7 @@
       <c r="BA64" s="17"/>
       <c r="BB64" s="17"/>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B65" s="14" t="s">
         <v>66</v>
       </c>
@@ -8273,8 +8308,8 @@
       <c r="X65" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y65" s="15" t="s">
-        <v>58</v>
+      <c r="Y65" s="15">
+        <v>0</v>
       </c>
       <c r="Z65" s="15">
         <v>0</v>
@@ -8364,7 +8399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B66" s="16" t="s">
         <v>80</v>
       </c>
@@ -8421,7 +8456,7 @@
       <c r="BA66" s="17"/>
       <c r="BB66" s="17"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B67" s="14" t="s">
         <v>74</v>
       </c>
@@ -8489,8 +8524,8 @@
       <c r="X67" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y67" s="15" t="s">
-        <v>58</v>
+      <c r="Y67" s="15">
+        <v>0</v>
       </c>
       <c r="Z67" s="15">
         <v>0</v>
@@ -8580,7 +8615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
         <v>81</v>
       </c>
@@ -8637,7 +8672,7 @@
       <c r="BA68" s="9"/>
       <c r="BB68" s="9"/>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B69" s="10" t="s">
         <v>82</v>
       </c>
@@ -8705,8 +8740,8 @@
       <c r="X69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y69" s="11" t="s">
-        <v>58</v>
+      <c r="Y69" s="11">
+        <v>0</v>
       </c>
       <c r="Z69" s="11">
         <v>0</v>
@@ -8796,7 +8831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B70" s="18" t="s">
         <v>67</v>
       </c>
@@ -8863,97 +8898,97 @@
         <v>0</v>
       </c>
       <c r="Y70" s="19">
-        <v>0</v>
+        <v>2400906</v>
       </c>
       <c r="Z70" s="19">
-        <v>2400906</v>
+        <v>2006216</v>
       </c>
       <c r="AA70" s="19">
-        <v>2006216</v>
+        <v>3549670</v>
       </c>
       <c r="AB70" s="19">
-        <v>3549670</v>
+        <v>3116143</v>
       </c>
       <c r="AC70" s="19">
-        <v>3116143</v>
+        <v>2986064</v>
       </c>
       <c r="AD70" s="19">
-        <v>2986064</v>
+        <v>2767552</v>
       </c>
       <c r="AE70" s="19">
-        <v>2767552</v>
+        <v>3831290</v>
       </c>
       <c r="AF70" s="19">
-        <v>3831290</v>
+        <v>4033903</v>
       </c>
       <c r="AG70" s="19">
-        <v>4033903</v>
+        <v>4034565</v>
       </c>
       <c r="AH70" s="19">
-        <v>4034565</v>
+        <v>2320649</v>
       </c>
       <c r="AI70" s="19">
-        <v>2320649</v>
+        <v>4428509</v>
       </c>
       <c r="AJ70" s="19">
-        <v>4428509</v>
+        <v>4788493</v>
       </c>
       <c r="AK70" s="19">
-        <v>4788493</v>
+        <v>4511972</v>
       </c>
       <c r="AL70" s="19">
-        <v>4511972</v>
+        <v>3602455</v>
       </c>
       <c r="AM70" s="19">
-        <v>3602455</v>
+        <v>4941857</v>
       </c>
       <c r="AN70" s="19">
-        <v>4941857</v>
+        <v>3888793</v>
       </c>
       <c r="AO70" s="19">
-        <v>3888793</v>
+        <v>4139023</v>
       </c>
       <c r="AP70" s="19">
-        <v>4139023</v>
+        <v>4520951</v>
       </c>
       <c r="AQ70" s="19">
-        <v>4520951</v>
+        <v>4004308</v>
       </c>
       <c r="AR70" s="19">
-        <v>4004308</v>
+        <v>4131713</v>
       </c>
       <c r="AS70" s="19">
-        <v>4131713</v>
+        <v>4486693</v>
       </c>
       <c r="AT70" s="19">
-        <v>4486693</v>
+        <v>2481181</v>
       </c>
       <c r="AU70" s="19">
-        <v>2481181</v>
+        <v>5831222</v>
       </c>
       <c r="AV70" s="19">
-        <v>5831222</v>
+        <v>5891400</v>
       </c>
       <c r="AW70" s="19">
-        <v>5891400</v>
+        <v>6720848</v>
       </c>
       <c r="AX70" s="19">
-        <v>6720848</v>
+        <v>5686752</v>
       </c>
       <c r="AY70" s="19">
-        <v>5686752</v>
+        <v>6214474</v>
       </c>
       <c r="AZ70" s="19">
-        <v>6214474</v>
+        <v>5163611</v>
       </c>
       <c r="BA70" s="19">
-        <v>5163611</v>
+        <v>6775247</v>
       </c>
       <c r="BB70" s="19">
-        <v>6775247</v>
+        <v>6176706</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -9008,7 +9043,7 @@
       <c r="BA71" s="1"/>
       <c r="BB71" s="1"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -9063,7 +9098,7 @@
       <c r="BA72" s="1"/>
       <c r="BB72" s="1"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -9118,7 +9153,7 @@
       <c r="BA73" s="1"/>
       <c r="BB73" s="1"/>
     </row>
-    <row r="74" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B74" s="7" t="s">
         <v>83</v>
       </c>
@@ -9275,7 +9310,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -9330,7 +9365,7 @@
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B76" s="8" t="s">
         <v>84</v>
       </c>
@@ -9387,7 +9422,7 @@
       <c r="BA76" s="9"/>
       <c r="BB76" s="9"/>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B77" s="10" t="s">
         <v>56</v>
       </c>
@@ -9455,98 +9490,98 @@
       <c r="X77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y77" s="11" t="s">
-        <v>58</v>
+      <c r="Y77" s="11">
+        <v>306705</v>
       </c>
       <c r="Z77" s="11">
-        <v>306705</v>
+        <v>314775</v>
       </c>
       <c r="AA77" s="11">
-        <v>314775</v>
+        <v>315823</v>
       </c>
       <c r="AB77" s="11">
-        <v>315823</v>
+        <v>302687</v>
       </c>
       <c r="AC77" s="11">
-        <v>302687</v>
+        <v>295995</v>
       </c>
       <c r="AD77" s="11">
-        <v>295995</v>
+        <v>299294</v>
       </c>
       <c r="AE77" s="11">
-        <v>299294</v>
+        <v>290509</v>
       </c>
       <c r="AF77" s="11">
-        <v>290509</v>
+        <v>294279</v>
       </c>
       <c r="AG77" s="11">
-        <v>294279</v>
+        <v>300777</v>
       </c>
       <c r="AH77" s="11">
-        <v>300777</v>
+        <v>300582</v>
       </c>
       <c r="AI77" s="11">
-        <v>300582</v>
+        <v>294170</v>
       </c>
       <c r="AJ77" s="11">
-        <v>294170</v>
+        <v>290450</v>
       </c>
       <c r="AK77" s="11">
-        <v>290450</v>
+        <v>291762</v>
       </c>
       <c r="AL77" s="11">
-        <v>291762</v>
+        <v>294797</v>
       </c>
       <c r="AM77" s="11">
-        <v>294797</v>
+        <v>287252</v>
       </c>
       <c r="AN77" s="11">
-        <v>287252</v>
+        <v>289276</v>
       </c>
       <c r="AO77" s="11">
-        <v>289276</v>
+        <v>295687</v>
       </c>
       <c r="AP77" s="11">
-        <v>295687</v>
+        <v>291891</v>
       </c>
       <c r="AQ77" s="11">
-        <v>291891</v>
+        <v>289166</v>
       </c>
       <c r="AR77" s="11">
-        <v>289166</v>
+        <v>386045</v>
       </c>
       <c r="AS77" s="11">
-        <v>386045</v>
+        <v>350136</v>
       </c>
       <c r="AT77" s="11">
-        <v>350136</v>
+        <v>350893</v>
       </c>
       <c r="AU77" s="11">
-        <v>350893</v>
+        <v>480254</v>
       </c>
       <c r="AV77" s="11">
-        <v>480254</v>
+        <v>399817</v>
       </c>
       <c r="AW77" s="11">
-        <v>399817</v>
+        <v>458776</v>
       </c>
       <c r="AX77" s="11">
-        <v>458776</v>
+        <v>471292</v>
       </c>
       <c r="AY77" s="11">
-        <v>471292</v>
+        <v>479156</v>
       </c>
       <c r="AZ77" s="11">
-        <v>479156</v>
+        <v>544037</v>
       </c>
       <c r="BA77" s="11">
-        <v>544037</v>
+        <v>614576</v>
       </c>
       <c r="BB77" s="11">
-        <v>614576</v>
+        <v>580464</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B78" s="12" t="s">
         <v>59</v>
       </c>
@@ -9614,98 +9649,98 @@
       <c r="X78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y78" s="13" t="s">
-        <v>58</v>
+      <c r="Y78" s="13">
+        <v>503312</v>
       </c>
       <c r="Z78" s="13">
-        <v>503312</v>
+        <v>550378</v>
       </c>
       <c r="AA78" s="13">
-        <v>550378</v>
+        <v>578137</v>
       </c>
       <c r="AB78" s="13">
-        <v>578137</v>
+        <v>576716</v>
       </c>
       <c r="AC78" s="13">
-        <v>576716</v>
+        <v>575645</v>
       </c>
       <c r="AD78" s="13">
-        <v>575645</v>
+        <v>583188</v>
       </c>
       <c r="AE78" s="13">
-        <v>583188</v>
+        <v>569608</v>
       </c>
       <c r="AF78" s="13">
-        <v>569608</v>
+        <v>582180</v>
       </c>
       <c r="AG78" s="13">
-        <v>582180</v>
+        <v>576844</v>
       </c>
       <c r="AH78" s="13">
-        <v>576844</v>
+        <v>574559</v>
       </c>
       <c r="AI78" s="13">
-        <v>574559</v>
+        <v>578913</v>
       </c>
       <c r="AJ78" s="13">
-        <v>578913</v>
+        <v>581402</v>
       </c>
       <c r="AK78" s="13">
-        <v>581402</v>
+        <v>566914</v>
       </c>
       <c r="AL78" s="13">
-        <v>566914</v>
+        <v>575112</v>
       </c>
       <c r="AM78" s="13">
-        <v>575112</v>
+        <v>565548</v>
       </c>
       <c r="AN78" s="13">
-        <v>565548</v>
+        <v>577982</v>
       </c>
       <c r="AO78" s="13">
-        <v>577982</v>
+        <v>581754</v>
       </c>
       <c r="AP78" s="13">
-        <v>581754</v>
+        <v>567375</v>
       </c>
       <c r="AQ78" s="13">
-        <v>567375</v>
+        <v>581111</v>
       </c>
       <c r="AR78" s="13">
-        <v>581111</v>
+        <v>740031</v>
       </c>
       <c r="AS78" s="13">
-        <v>740031</v>
+        <v>739192</v>
       </c>
       <c r="AT78" s="13">
-        <v>739192</v>
+        <v>740616</v>
       </c>
       <c r="AU78" s="13">
-        <v>740616</v>
+        <v>752527</v>
       </c>
       <c r="AV78" s="13">
-        <v>752527</v>
+        <v>715300</v>
       </c>
       <c r="AW78" s="13">
-        <v>715300</v>
+        <v>735907</v>
       </c>
       <c r="AX78" s="13">
-        <v>735907</v>
+        <v>858394</v>
       </c>
       <c r="AY78" s="13">
-        <v>858394</v>
+        <v>887698</v>
       </c>
       <c r="AZ78" s="13">
-        <v>887698</v>
+        <v>1077658</v>
       </c>
       <c r="BA78" s="13">
-        <v>1077658</v>
+        <v>1113694</v>
       </c>
       <c r="BB78" s="13">
-        <v>1113694</v>
+        <v>1097172</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>60</v>
       </c>
@@ -9773,98 +9808,98 @@
       <c r="X79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y79" s="11" t="s">
-        <v>58</v>
+      <c r="Y79" s="11">
+        <v>328893</v>
       </c>
       <c r="Z79" s="11">
-        <v>328893</v>
+        <v>376941</v>
       </c>
       <c r="AA79" s="11">
-        <v>376941</v>
+        <v>415995</v>
       </c>
       <c r="AB79" s="11">
-        <v>415995</v>
+        <v>405545</v>
       </c>
       <c r="AC79" s="11">
-        <v>405545</v>
+        <v>408573</v>
       </c>
       <c r="AD79" s="11">
-        <v>408573</v>
+        <v>420444</v>
       </c>
       <c r="AE79" s="11">
-        <v>420444</v>
+        <v>504978</v>
       </c>
       <c r="AF79" s="11">
-        <v>504978</v>
+        <v>525014</v>
       </c>
       <c r="AG79" s="11">
-        <v>525014</v>
+        <v>643282</v>
       </c>
       <c r="AH79" s="11">
-        <v>643282</v>
+        <v>542330</v>
       </c>
       <c r="AI79" s="11">
-        <v>542330</v>
+        <v>550814</v>
       </c>
       <c r="AJ79" s="11">
-        <v>550814</v>
+        <v>549417</v>
       </c>
       <c r="AK79" s="11">
-        <v>549417</v>
+        <v>550561</v>
       </c>
       <c r="AL79" s="11">
-        <v>550561</v>
+        <v>547982</v>
       </c>
       <c r="AM79" s="11">
-        <v>547982</v>
+        <v>548345</v>
       </c>
       <c r="AN79" s="11">
-        <v>548345</v>
+        <v>539834</v>
       </c>
       <c r="AO79" s="11">
-        <v>539834</v>
+        <v>543543</v>
       </c>
       <c r="AP79" s="11">
-        <v>543543</v>
+        <v>624810</v>
       </c>
       <c r="AQ79" s="11">
-        <v>624810</v>
+        <v>616443</v>
       </c>
       <c r="AR79" s="11">
-        <v>616443</v>
+        <v>597789</v>
       </c>
       <c r="AS79" s="11">
-        <v>597789</v>
+        <v>648161</v>
       </c>
       <c r="AT79" s="11">
-        <v>648161</v>
+        <v>597741</v>
       </c>
       <c r="AU79" s="11">
-        <v>597741</v>
+        <v>620672</v>
       </c>
       <c r="AV79" s="11">
-        <v>620672</v>
+        <v>684449</v>
       </c>
       <c r="AW79" s="11">
-        <v>684449</v>
+        <v>721433</v>
       </c>
       <c r="AX79" s="11">
-        <v>721433</v>
+        <v>729268</v>
       </c>
       <c r="AY79" s="11">
-        <v>729268</v>
+        <v>754984</v>
       </c>
       <c r="AZ79" s="11">
-        <v>754984</v>
+        <v>792557</v>
       </c>
       <c r="BA79" s="11">
-        <v>792557</v>
+        <v>818208</v>
       </c>
       <c r="BB79" s="11">
-        <v>818208</v>
+        <v>829624</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B80" s="12" t="s">
         <v>61</v>
       </c>
@@ -9932,98 +9967,98 @@
       <c r="X80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y80" s="13" t="s">
-        <v>58</v>
+      <c r="Y80" s="13">
+        <v>291091</v>
       </c>
       <c r="Z80" s="13">
-        <v>291091</v>
+        <v>346844</v>
       </c>
       <c r="AA80" s="13">
-        <v>346844</v>
+        <v>411781</v>
       </c>
       <c r="AB80" s="13">
-        <v>411781</v>
+        <v>383694</v>
       </c>
       <c r="AC80" s="13">
-        <v>383694</v>
+        <v>398841</v>
       </c>
       <c r="AD80" s="13">
-        <v>398841</v>
+        <v>488954</v>
       </c>
       <c r="AE80" s="13">
-        <v>488954</v>
+        <v>531741</v>
       </c>
       <c r="AF80" s="13">
-        <v>531741</v>
+        <v>577119</v>
       </c>
       <c r="AG80" s="13">
-        <v>577119</v>
+        <v>557771</v>
       </c>
       <c r="AH80" s="13">
-        <v>557771</v>
+        <v>538214</v>
       </c>
       <c r="AI80" s="13">
-        <v>538214</v>
+        <v>528048</v>
       </c>
       <c r="AJ80" s="13">
-        <v>528048</v>
+        <v>523852</v>
       </c>
       <c r="AK80" s="13">
-        <v>523852</v>
+        <v>542727</v>
       </c>
       <c r="AL80" s="13">
-        <v>542727</v>
+        <v>536376</v>
       </c>
       <c r="AM80" s="13">
-        <v>536376</v>
+        <v>546104</v>
       </c>
       <c r="AN80" s="13">
-        <v>546104</v>
+        <v>537761</v>
       </c>
       <c r="AO80" s="13">
-        <v>537761</v>
+        <v>546516</v>
       </c>
       <c r="AP80" s="13">
-        <v>546516</v>
+        <v>576893</v>
       </c>
       <c r="AQ80" s="13">
-        <v>576893</v>
+        <v>594261</v>
       </c>
       <c r="AR80" s="13">
-        <v>594261</v>
+        <v>581885</v>
       </c>
       <c r="AS80" s="13">
-        <v>581885</v>
+        <v>607603</v>
       </c>
       <c r="AT80" s="13">
-        <v>607603</v>
+        <v>615458</v>
       </c>
       <c r="AU80" s="13">
-        <v>615458</v>
+        <v>625178</v>
       </c>
       <c r="AV80" s="13">
-        <v>625178</v>
+        <v>699223</v>
       </c>
       <c r="AW80" s="13">
-        <v>699223</v>
+        <v>744587</v>
       </c>
       <c r="AX80" s="13">
-        <v>744587</v>
+        <v>812284</v>
       </c>
       <c r="AY80" s="13">
-        <v>812284</v>
+        <v>728100</v>
       </c>
       <c r="AZ80" s="13">
-        <v>728100</v>
+        <v>793736</v>
       </c>
       <c r="BA80" s="13">
-        <v>793736</v>
+        <v>810764</v>
       </c>
       <c r="BB80" s="13">
-        <v>810764</v>
+        <v>808008</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>86</v>
       </c>
@@ -10080,7 +10115,7 @@
       <c r="BA81" s="9"/>
       <c r="BB81" s="9"/>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>59</v>
       </c>
@@ -10226,20 +10261,20 @@
       <c r="AX82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AY82" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AZ82" s="11">
+      <c r="AY82" s="11">
         <v>1071429</v>
       </c>
-      <c r="BA82" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB82" s="11">
+      <c r="AZ82" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA82" s="11">
         <v>729060</v>
       </c>
+      <c r="BB82" s="11" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B83" s="12" t="s">
         <v>60</v>
       </c>
@@ -10382,23 +10417,23 @@
       <c r="AW83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AX83" s="13" t="s">
-        <v>58</v>
+      <c r="AX83" s="13">
+        <v>684203</v>
       </c>
       <c r="AY83" s="13">
-        <v>684203</v>
+        <v>745409</v>
       </c>
       <c r="AZ83" s="13">
-        <v>745409</v>
+        <v>751902</v>
       </c>
       <c r="BA83" s="13">
-        <v>751902</v>
+        <v>770316</v>
       </c>
       <c r="BB83" s="13">
-        <v>770316</v>
+        <v>799981</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
       <c r="B84" s="10" t="s">
         <v>61</v>
       </c>
@@ -10541,20 +10576,20 @@
       <c r="AW84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AX84" s="11" t="s">
-        <v>58</v>
+      <c r="AX84" s="11">
+        <v>696833</v>
       </c>
       <c r="AY84" s="11">
-        <v>696833</v>
+        <v>725789</v>
       </c>
       <c r="AZ84" s="11">
-        <v>725789</v>
+        <v>732026</v>
       </c>
       <c r="BA84" s="11">
-        <v>732026</v>
+        <v>821625</v>
       </c>
       <c r="BB84" s="11">
-        <v>821625</v>
+        <v>803528</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/lastic/pekerman/product/monthly_seprated.xlsx
+++ b/database/industries/lastic/pekerman/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\pekerman\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\pekerman\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C852A8C-C89C-40B0-82B4-202BBDD1619C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA6BFD0-426E-468B-89EE-B6AB93EB3EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="87">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>پکرمان-گروه‌ صنعتی‌ بارز</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -763,12 +763,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -823,7 +823,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -880,7 +880,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -937,7 +937,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -992,7 +992,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1049,7 +1049,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1106,7 +1106,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1161,7 +1161,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1373,7 +1373,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1430,7 +1430,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1492,104 +1492,104 @@
       <c r="V11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>58</v>
+      <c r="W11" s="11">
+        <v>133862</v>
+      </c>
+      <c r="X11" s="11">
+        <v>192349</v>
       </c>
       <c r="Y11" s="11">
-        <v>133862</v>
+        <v>160459</v>
       </c>
       <c r="Z11" s="11">
-        <v>192349</v>
+        <v>147792</v>
       </c>
       <c r="AA11" s="11">
-        <v>160459</v>
+        <v>124953</v>
       </c>
       <c r="AB11" s="11">
-        <v>147792</v>
+        <v>123835</v>
       </c>
       <c r="AC11" s="11">
-        <v>124953</v>
+        <v>129275</v>
       </c>
       <c r="AD11" s="11">
-        <v>123835</v>
+        <v>163599</v>
       </c>
       <c r="AE11" s="11">
-        <v>129275</v>
+        <v>196055</v>
       </c>
       <c r="AF11" s="11">
-        <v>163599</v>
+        <v>111434</v>
       </c>
       <c r="AG11" s="11">
-        <v>196055</v>
+        <v>152945</v>
       </c>
       <c r="AH11" s="11">
-        <v>111434</v>
+        <v>155975</v>
       </c>
       <c r="AI11" s="11">
-        <v>152945</v>
+        <v>142096</v>
       </c>
       <c r="AJ11" s="11">
-        <v>155975</v>
+        <v>120974</v>
       </c>
       <c r="AK11" s="11">
-        <v>142096</v>
+        <v>131422</v>
       </c>
       <c r="AL11" s="11">
-        <v>120974</v>
+        <v>135395</v>
       </c>
       <c r="AM11" s="11">
-        <v>131422</v>
+        <v>132289</v>
       </c>
       <c r="AN11" s="11">
-        <v>135395</v>
+        <v>137703</v>
       </c>
       <c r="AO11" s="11">
-        <v>132289</v>
+        <v>150376</v>
       </c>
       <c r="AP11" s="11">
-        <v>137703</v>
+        <v>98751</v>
       </c>
       <c r="AQ11" s="11">
-        <v>150376</v>
+        <v>83857</v>
       </c>
       <c r="AR11" s="11">
-        <v>98751</v>
+        <v>55707</v>
       </c>
       <c r="AS11" s="11">
-        <v>83857</v>
+        <v>63774</v>
       </c>
       <c r="AT11" s="11">
-        <v>55707</v>
+        <v>96015</v>
       </c>
       <c r="AU11" s="11">
-        <v>63774</v>
+        <v>104375</v>
       </c>
       <c r="AV11" s="11">
-        <v>96015</v>
+        <v>97588</v>
       </c>
       <c r="AW11" s="11">
-        <v>104375</v>
+        <v>106321</v>
       </c>
       <c r="AX11" s="11">
-        <v>97588</v>
+        <v>107491</v>
       </c>
       <c r="AY11" s="11">
-        <v>106321</v>
+        <v>135177</v>
       </c>
       <c r="AZ11" s="11">
-        <v>107491</v>
+        <v>136180</v>
       </c>
       <c r="BA11" s="11">
-        <v>135177</v>
+        <v>128226</v>
       </c>
       <c r="BB11" s="11">
-        <v>136180</v>
+        <v>145562</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1651,104 +1651,104 @@
       <c r="V12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>58</v>
+      <c r="W12" s="13">
+        <v>244820</v>
+      </c>
+      <c r="X12" s="13">
+        <v>286880</v>
       </c>
       <c r="Y12" s="13">
-        <v>244820</v>
+        <v>316978</v>
       </c>
       <c r="Z12" s="13">
-        <v>286880</v>
+        <v>275490</v>
       </c>
       <c r="AA12" s="13">
-        <v>316978</v>
+        <v>298710</v>
       </c>
       <c r="AB12" s="13">
-        <v>275490</v>
+        <v>301000</v>
       </c>
       <c r="AC12" s="13">
-        <v>298710</v>
+        <v>302677</v>
       </c>
       <c r="AD12" s="13">
-        <v>301000</v>
+        <v>321774</v>
       </c>
       <c r="AE12" s="13">
-        <v>302677</v>
+        <v>300944</v>
       </c>
       <c r="AF12" s="13">
-        <v>321774</v>
+        <v>170432</v>
       </c>
       <c r="AG12" s="13">
-        <v>300944</v>
+        <v>300451</v>
       </c>
       <c r="AH12" s="13">
-        <v>170432</v>
+        <v>303856</v>
       </c>
       <c r="AI12" s="13">
-        <v>300451</v>
+        <v>293876</v>
       </c>
       <c r="AJ12" s="13">
-        <v>303856</v>
+        <v>200669</v>
       </c>
       <c r="AK12" s="13">
-        <v>293876</v>
+        <v>255651</v>
       </c>
       <c r="AL12" s="13">
-        <v>200669</v>
+        <v>262963</v>
       </c>
       <c r="AM12" s="13">
-        <v>255651</v>
+        <v>262524</v>
       </c>
       <c r="AN12" s="13">
-        <v>262963</v>
+        <v>266704</v>
       </c>
       <c r="AO12" s="13">
-        <v>262524</v>
+        <v>270866</v>
       </c>
       <c r="AP12" s="13">
-        <v>266704</v>
+        <v>241075</v>
       </c>
       <c r="AQ12" s="13">
-        <v>270866</v>
+        <v>255272</v>
       </c>
       <c r="AR12" s="13">
-        <v>241075</v>
+        <v>92280</v>
       </c>
       <c r="AS12" s="13">
-        <v>255272</v>
+        <v>171554</v>
       </c>
       <c r="AT12" s="13">
-        <v>92280</v>
+        <v>210493</v>
       </c>
       <c r="AU12" s="13">
-        <v>171554</v>
+        <v>219954</v>
       </c>
       <c r="AV12" s="13">
-        <v>210493</v>
+        <v>153426</v>
       </c>
       <c r="AW12" s="13">
-        <v>219954</v>
+        <v>265597</v>
       </c>
       <c r="AX12" s="13">
-        <v>153426</v>
+        <v>280858</v>
       </c>
       <c r="AY12" s="13">
-        <v>265597</v>
+        <v>190885</v>
       </c>
       <c r="AZ12" s="13">
-        <v>280858</v>
+        <v>215965</v>
       </c>
       <c r="BA12" s="13">
-        <v>190885</v>
+        <v>215410</v>
       </c>
       <c r="BB12" s="13">
-        <v>215965</v>
+        <v>160565</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1810,104 +1810,104 @@
       <c r="V13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>58</v>
+      <c r="W13" s="11">
+        <v>2157117</v>
+      </c>
+      <c r="X13" s="11">
+        <v>2203077</v>
       </c>
       <c r="Y13" s="11">
-        <v>2157117</v>
+        <v>2747977</v>
       </c>
       <c r="Z13" s="11">
-        <v>2203077</v>
+        <v>2603431</v>
       </c>
       <c r="AA13" s="11">
-        <v>2747977</v>
+        <v>2693222</v>
       </c>
       <c r="AB13" s="11">
-        <v>2603431</v>
+        <v>2674037</v>
       </c>
       <c r="AC13" s="11">
-        <v>2693222</v>
+        <v>2705137</v>
       </c>
       <c r="AD13" s="11">
-        <v>2674037</v>
+        <v>2808741</v>
       </c>
       <c r="AE13" s="11">
-        <v>2705137</v>
+        <v>2819587</v>
       </c>
       <c r="AF13" s="11">
-        <v>2808741</v>
+        <v>1640722</v>
       </c>
       <c r="AG13" s="11">
-        <v>2819587</v>
+        <v>2926884</v>
       </c>
       <c r="AH13" s="11">
-        <v>1640722</v>
+        <v>2861475</v>
       </c>
       <c r="AI13" s="11">
-        <v>2926884</v>
+        <v>2914527</v>
       </c>
       <c r="AJ13" s="11">
-        <v>2861475</v>
+        <v>2070652</v>
       </c>
       <c r="AK13" s="11">
-        <v>2914527</v>
+        <v>2535626</v>
       </c>
       <c r="AL13" s="11">
-        <v>2070652</v>
+        <v>2697190</v>
       </c>
       <c r="AM13" s="11">
-        <v>2535626</v>
+        <v>2677214</v>
       </c>
       <c r="AN13" s="11">
-        <v>2697190</v>
+        <v>2619521</v>
       </c>
       <c r="AO13" s="11">
-        <v>2677214</v>
+        <v>2630484</v>
       </c>
       <c r="AP13" s="11">
-        <v>2619521</v>
+        <v>2603164</v>
       </c>
       <c r="AQ13" s="11">
-        <v>2630484</v>
+        <v>2193307</v>
       </c>
       <c r="AR13" s="11">
-        <v>2603164</v>
+        <v>1418543</v>
       </c>
       <c r="AS13" s="11">
-        <v>2193307</v>
+        <v>2608877</v>
       </c>
       <c r="AT13" s="11">
-        <v>1418543</v>
+        <v>2692676</v>
       </c>
       <c r="AU13" s="11">
-        <v>2608877</v>
+        <v>2711857</v>
       </c>
       <c r="AV13" s="11">
-        <v>2692676</v>
+        <v>1787937</v>
       </c>
       <c r="AW13" s="11">
-        <v>2711857</v>
+        <v>2438795</v>
       </c>
       <c r="AX13" s="11">
-        <v>1787937</v>
+        <v>2443112</v>
       </c>
       <c r="AY13" s="11">
-        <v>2438795</v>
+        <v>2370132</v>
       </c>
       <c r="AZ13" s="11">
-        <v>2443112</v>
+        <v>2339290</v>
       </c>
       <c r="BA13" s="11">
-        <v>2370132</v>
+        <v>2247388</v>
       </c>
       <c r="BB13" s="11">
-        <v>2339290</v>
+        <v>2264972</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1969,104 +1969,104 @@
       <c r="V14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X14" s="13" t="s">
-        <v>58</v>
+      <c r="W14" s="13">
+        <v>3859112</v>
+      </c>
+      <c r="X14" s="13">
+        <v>4620506</v>
       </c>
       <c r="Y14" s="13">
-        <v>3859112</v>
+        <v>4740937</v>
       </c>
       <c r="Z14" s="13">
-        <v>4620506</v>
+        <v>4610138</v>
       </c>
       <c r="AA14" s="13">
-        <v>4740937</v>
+        <v>4602770</v>
       </c>
       <c r="AB14" s="13">
-        <v>4610138</v>
+        <v>4636081</v>
       </c>
       <c r="AC14" s="13">
-        <v>4602770</v>
+        <v>4677931</v>
       </c>
       <c r="AD14" s="13">
-        <v>4636081</v>
+        <v>4882636</v>
       </c>
       <c r="AE14" s="13">
-        <v>4677931</v>
+        <v>4841085</v>
       </c>
       <c r="AF14" s="13">
-        <v>4882636</v>
+        <v>2737030</v>
       </c>
       <c r="AG14" s="13">
-        <v>4841085</v>
+        <v>5009156</v>
       </c>
       <c r="AH14" s="13">
-        <v>2737030</v>
+        <v>4698709</v>
       </c>
       <c r="AI14" s="13">
-        <v>5009156</v>
+        <v>5223075</v>
       </c>
       <c r="AJ14" s="13">
-        <v>4698709</v>
+        <v>3217180</v>
       </c>
       <c r="AK14" s="13">
-        <v>5223075</v>
+        <v>4725551</v>
       </c>
       <c r="AL14" s="13">
-        <v>3217180</v>
+        <v>4874454</v>
       </c>
       <c r="AM14" s="13">
-        <v>4725551</v>
+        <v>5084516</v>
       </c>
       <c r="AN14" s="13">
-        <v>4874454</v>
+        <v>5073476</v>
       </c>
       <c r="AO14" s="13">
-        <v>5084516</v>
+        <v>5051990</v>
       </c>
       <c r="AP14" s="13">
-        <v>5073476</v>
+        <v>4787135</v>
       </c>
       <c r="AQ14" s="13">
-        <v>5051990</v>
+        <v>4209099</v>
       </c>
       <c r="AR14" s="13">
-        <v>4787135</v>
+        <v>3453025</v>
       </c>
       <c r="AS14" s="13">
-        <v>4209099</v>
+        <v>5322608</v>
       </c>
       <c r="AT14" s="13">
-        <v>3453025</v>
+        <v>5478651</v>
       </c>
       <c r="AU14" s="13">
-        <v>5322608</v>
+        <v>5288140</v>
       </c>
       <c r="AV14" s="13">
-        <v>5478651</v>
+        <v>3913055</v>
       </c>
       <c r="AW14" s="13">
-        <v>5288140</v>
+        <v>5691649</v>
       </c>
       <c r="AX14" s="13">
-        <v>3913055</v>
+        <v>3828881</v>
       </c>
       <c r="AY14" s="13">
-        <v>5691649</v>
+        <v>4957770</v>
       </c>
       <c r="AZ14" s="13">
-        <v>3828881</v>
+        <v>5196679</v>
       </c>
       <c r="BA14" s="13">
-        <v>4957770</v>
+        <v>5380132</v>
       </c>
       <c r="BB14" s="13">
-        <v>5196679</v>
+        <v>5503327</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
         <v>62</v>
       </c>
@@ -2127,103 +2127,103 @@
         <v>0</v>
       </c>
       <c r="W15" s="15">
-        <v>0</v>
+        <v>6394911</v>
       </c>
       <c r="X15" s="15">
-        <v>0</v>
+        <v>7302812</v>
       </c>
       <c r="Y15" s="15">
-        <v>6394911</v>
+        <v>7966351</v>
       </c>
       <c r="Z15" s="15">
-        <v>7302812</v>
+        <v>7636851</v>
       </c>
       <c r="AA15" s="15">
-        <v>7966351</v>
+        <v>7719655</v>
       </c>
       <c r="AB15" s="15">
-        <v>7636851</v>
+        <v>7734953</v>
       </c>
       <c r="AC15" s="15">
-        <v>7719655</v>
+        <v>7815020</v>
       </c>
       <c r="AD15" s="15">
-        <v>7734953</v>
+        <v>8176750</v>
       </c>
       <c r="AE15" s="15">
-        <v>7815020</v>
+        <v>8157671</v>
       </c>
       <c r="AF15" s="15">
-        <v>8176750</v>
+        <v>4659618</v>
       </c>
       <c r="AG15" s="15">
-        <v>8157671</v>
+        <v>8389436</v>
       </c>
       <c r="AH15" s="15">
-        <v>4659618</v>
+        <v>8020015</v>
       </c>
       <c r="AI15" s="15">
-        <v>8389436</v>
+        <v>8573574</v>
       </c>
       <c r="AJ15" s="15">
-        <v>8020015</v>
+        <v>5609475</v>
       </c>
       <c r="AK15" s="15">
-        <v>8573574</v>
+        <v>7648250</v>
       </c>
       <c r="AL15" s="15">
-        <v>5609475</v>
+        <v>7970002</v>
       </c>
       <c r="AM15" s="15">
-        <v>7648250</v>
+        <v>8156543</v>
       </c>
       <c r="AN15" s="15">
-        <v>7970002</v>
+        <v>8097404</v>
       </c>
       <c r="AO15" s="15">
-        <v>8156543</v>
+        <v>8103716</v>
       </c>
       <c r="AP15" s="15">
-        <v>8097404</v>
+        <v>7730125</v>
       </c>
       <c r="AQ15" s="15">
-        <v>8103716</v>
+        <v>6741535</v>
       </c>
       <c r="AR15" s="15">
-        <v>7730125</v>
+        <v>5019555</v>
       </c>
       <c r="AS15" s="15">
-        <v>6741535</v>
+        <v>8166813</v>
       </c>
       <c r="AT15" s="15">
-        <v>5019555</v>
+        <v>8477835</v>
       </c>
       <c r="AU15" s="15">
-        <v>8166813</v>
+        <v>8324326</v>
       </c>
       <c r="AV15" s="15">
-        <v>8477835</v>
+        <v>5952006</v>
       </c>
       <c r="AW15" s="15">
-        <v>8324326</v>
+        <v>8502362</v>
       </c>
       <c r="AX15" s="15">
-        <v>5952006</v>
+        <v>6660342</v>
       </c>
       <c r="AY15" s="15">
-        <v>8502362</v>
+        <v>7653964</v>
       </c>
       <c r="AZ15" s="15">
-        <v>6660342</v>
+        <v>7888114</v>
       </c>
       <c r="BA15" s="15">
-        <v>7653964</v>
+        <v>7971156</v>
       </c>
       <c r="BB15" s="15">
-        <v>7888114</v>
+        <v>8074426</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
         <v>63</v>
       </c>
@@ -2280,7 +2280,7 @@
       <c r="BA16" s="9"/>
       <c r="BB16" s="9"/>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>56</v>
       </c>
@@ -2342,11 +2342,11 @@
       <c r="V17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X17" s="11" t="s">
-        <v>58</v>
+      <c r="W17" s="11">
+        <v>0</v>
+      </c>
+      <c r="X17" s="11">
+        <v>0</v>
       </c>
       <c r="Y17" s="11">
         <v>0</v>
@@ -2372,11 +2372,11 @@
       <c r="AF17" s="11">
         <v>0</v>
       </c>
-      <c r="AG17" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="11">
-        <v>0</v>
+      <c r="AG17" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI17" s="11" t="s">
         <v>58</v>
@@ -2402,14 +2402,14 @@
       <c r="AP17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ17" s="11" t="s">
-        <v>58</v>
+      <c r="AQ17" s="11">
+        <v>0</v>
       </c>
       <c r="AR17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS17" s="11">
-        <v>0</v>
+      <c r="AS17" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT17" s="11" t="s">
         <v>58</v>
@@ -2439,7 +2439,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>59</v>
       </c>
@@ -2501,11 +2501,11 @@
       <c r="V18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X18" s="13" t="s">
-        <v>58</v>
+      <c r="W18" s="13">
+        <v>0</v>
+      </c>
+      <c r="X18" s="13">
+        <v>0</v>
       </c>
       <c r="Y18" s="13">
         <v>0</v>
@@ -2531,11 +2531,11 @@
       <c r="AF18" s="13">
         <v>0</v>
       </c>
-      <c r="AG18" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="13">
-        <v>0</v>
+      <c r="AG18" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI18" s="13" t="s">
         <v>58</v>
@@ -2561,14 +2561,14 @@
       <c r="AP18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ18" s="13" t="s">
-        <v>58</v>
+      <c r="AQ18" s="13">
+        <v>0</v>
       </c>
       <c r="AR18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS18" s="13">
-        <v>0</v>
+      <c r="AS18" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT18" s="13" t="s">
         <v>58</v>
@@ -2579,8 +2579,8 @@
       <c r="AV18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW18" s="13" t="s">
-        <v>58</v>
+      <c r="AW18" s="13">
+        <v>0</v>
       </c>
       <c r="AX18" s="13">
         <v>0</v>
@@ -2598,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>60</v>
       </c>
@@ -2660,11 +2660,11 @@
       <c r="V19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X19" s="11" t="s">
-        <v>58</v>
+      <c r="W19" s="11">
+        <v>0</v>
+      </c>
+      <c r="X19" s="11">
+        <v>0</v>
       </c>
       <c r="Y19" s="11">
         <v>0</v>
@@ -2690,11 +2690,11 @@
       <c r="AF19" s="11">
         <v>0</v>
       </c>
-      <c r="AG19" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="11">
-        <v>0</v>
+      <c r="AG19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI19" s="11" t="s">
         <v>58</v>
@@ -2720,14 +2720,14 @@
       <c r="AP19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ19" s="11" t="s">
-        <v>58</v>
+      <c r="AQ19" s="11">
+        <v>0</v>
       </c>
       <c r="AR19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS19" s="11">
-        <v>0</v>
+      <c r="AS19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT19" s="11" t="s">
         <v>58</v>
@@ -2735,8 +2735,8 @@
       <c r="AU19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV19" s="11" t="s">
-        <v>58</v>
+      <c r="AV19" s="11">
+        <v>0</v>
       </c>
       <c r="AW19" s="11">
         <v>0</v>
@@ -2757,7 +2757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>61</v>
       </c>
@@ -2819,11 +2819,11 @@
       <c r="V20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X20" s="13" t="s">
-        <v>58</v>
+      <c r="W20" s="13">
+        <v>0</v>
+      </c>
+      <c r="X20" s="13">
+        <v>0</v>
       </c>
       <c r="Y20" s="13">
         <v>0</v>
@@ -2849,11 +2849,11 @@
       <c r="AF20" s="13">
         <v>0</v>
       </c>
-      <c r="AG20" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="13">
-        <v>0</v>
+      <c r="AG20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI20" s="13" t="s">
         <v>58</v>
@@ -2879,14 +2879,14 @@
       <c r="AP20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ20" s="13" t="s">
-        <v>58</v>
+      <c r="AQ20" s="13">
+        <v>0</v>
       </c>
       <c r="AR20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS20" s="13">
-        <v>0</v>
+      <c r="AS20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT20" s="13" t="s">
         <v>58</v>
@@ -2894,8 +2894,8 @@
       <c r="AU20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV20" s="13" t="s">
-        <v>58</v>
+      <c r="AV20" s="13">
+        <v>0</v>
       </c>
       <c r="AW20" s="13">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
         <v>64</v>
       </c>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
         <v>65</v>
       </c>
@@ -3130,7 +3130,7 @@
       <c r="BA22" s="17"/>
       <c r="BB22" s="17"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
         <v>66</v>
       </c>
@@ -3190,11 +3190,11 @@
       <c r="V23" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W23" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X23" s="15" t="s">
-        <v>58</v>
+      <c r="W23" s="15">
+        <v>0</v>
+      </c>
+      <c r="X23" s="15">
+        <v>0</v>
       </c>
       <c r="Y23" s="15">
         <v>0</v>
@@ -3287,7 +3287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
         <v>67</v>
       </c>
@@ -3348,103 +3348,103 @@
         <v>0</v>
       </c>
       <c r="W24" s="19">
-        <v>0</v>
+        <v>6394911</v>
       </c>
       <c r="X24" s="19">
-        <v>0</v>
+        <v>7302812</v>
       </c>
       <c r="Y24" s="19">
-        <v>6394911</v>
+        <v>7966351</v>
       </c>
       <c r="Z24" s="19">
-        <v>7302812</v>
+        <v>7636851</v>
       </c>
       <c r="AA24" s="19">
-        <v>7966351</v>
+        <v>7719655</v>
       </c>
       <c r="AB24" s="19">
-        <v>7636851</v>
+        <v>7734953</v>
       </c>
       <c r="AC24" s="19">
-        <v>7719655</v>
+        <v>7815020</v>
       </c>
       <c r="AD24" s="19">
-        <v>7734953</v>
+        <v>8176750</v>
       </c>
       <c r="AE24" s="19">
-        <v>7815020</v>
+        <v>8157671</v>
       </c>
       <c r="AF24" s="19">
-        <v>8176750</v>
+        <v>4659618</v>
       </c>
       <c r="AG24" s="19">
-        <v>8157671</v>
+        <v>8389436</v>
       </c>
       <c r="AH24" s="19">
-        <v>4659618</v>
+        <v>8020015</v>
       </c>
       <c r="AI24" s="19">
-        <v>8389436</v>
+        <v>8573574</v>
       </c>
       <c r="AJ24" s="19">
-        <v>8020015</v>
+        <v>5609475</v>
       </c>
       <c r="AK24" s="19">
-        <v>8573574</v>
+        <v>7648250</v>
       </c>
       <c r="AL24" s="19">
-        <v>5609475</v>
+        <v>7970002</v>
       </c>
       <c r="AM24" s="19">
-        <v>7648250</v>
+        <v>8156543</v>
       </c>
       <c r="AN24" s="19">
-        <v>7970002</v>
+        <v>8097404</v>
       </c>
       <c r="AO24" s="19">
-        <v>8156543</v>
+        <v>8103716</v>
       </c>
       <c r="AP24" s="19">
-        <v>8097404</v>
+        <v>7730125</v>
       </c>
       <c r="AQ24" s="19">
-        <v>8103716</v>
+        <v>6741535</v>
       </c>
       <c r="AR24" s="19">
-        <v>7730125</v>
+        <v>5019555</v>
       </c>
       <c r="AS24" s="19">
-        <v>6741535</v>
+        <v>8166813</v>
       </c>
       <c r="AT24" s="19">
-        <v>5019555</v>
+        <v>8477835</v>
       </c>
       <c r="AU24" s="19">
-        <v>8166813</v>
+        <v>8324326</v>
       </c>
       <c r="AV24" s="19">
-        <v>8477835</v>
+        <v>5952006</v>
       </c>
       <c r="AW24" s="19">
-        <v>8324326</v>
+        <v>8502362</v>
       </c>
       <c r="AX24" s="19">
-        <v>5952006</v>
+        <v>6660342</v>
       </c>
       <c r="AY24" s="19">
-        <v>8502362</v>
+        <v>7653964</v>
       </c>
       <c r="AZ24" s="19">
-        <v>6660342</v>
+        <v>7888114</v>
       </c>
       <c r="BA24" s="19">
-        <v>7653964</v>
+        <v>7971156</v>
       </c>
       <c r="BB24" s="19">
-        <v>7888114</v>
+        <v>8074426</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -3499,7 +3499,7 @@
       <c r="BA25" s="1"/>
       <c r="BB25" s="1"/>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3554,7 +3554,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -3609,7 +3609,7 @@
       <c r="BA27" s="1"/>
       <c r="BB27" s="1"/>
     </row>
-    <row r="28" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>68</v>
       </c>
@@ -3766,7 +3766,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -3821,7 +3821,7 @@
       <c r="BA29" s="1"/>
       <c r="BB29" s="1"/>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="8" t="s">
         <v>69</v>
       </c>
@@ -3878,7 +3878,7 @@
       <c r="BA30" s="9"/>
       <c r="BB30" s="9"/>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>56</v>
       </c>
@@ -3940,104 +3940,104 @@
       <c r="V31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X31" s="11" t="s">
-        <v>58</v>
+      <c r="W31" s="11">
+        <v>159727</v>
+      </c>
+      <c r="X31" s="11">
+        <v>126414</v>
       </c>
       <c r="Y31" s="11">
-        <v>159727</v>
+        <v>152880</v>
       </c>
       <c r="Z31" s="11">
-        <v>126414</v>
+        <v>139081</v>
       </c>
       <c r="AA31" s="11">
-        <v>152880</v>
+        <v>110289</v>
       </c>
       <c r="AB31" s="11">
-        <v>139081</v>
+        <v>109578</v>
       </c>
       <c r="AC31" s="11">
-        <v>110289</v>
+        <v>143875</v>
       </c>
       <c r="AD31" s="11">
-        <v>109578</v>
+        <v>155910</v>
       </c>
       <c r="AE31" s="11">
-        <v>143875</v>
+        <v>89342</v>
       </c>
       <c r="AF31" s="11">
-        <v>155910</v>
+        <v>45179</v>
       </c>
       <c r="AG31" s="11">
-        <v>89342</v>
+        <v>177411</v>
       </c>
       <c r="AH31" s="11">
-        <v>45179</v>
+        <v>125612</v>
       </c>
       <c r="AI31" s="11">
-        <v>177411</v>
+        <v>114782</v>
       </c>
       <c r="AJ31" s="11">
-        <v>125612</v>
+        <v>106385</v>
       </c>
       <c r="AK31" s="11">
-        <v>114782</v>
+        <v>202331</v>
       </c>
       <c r="AL31" s="11">
-        <v>106385</v>
+        <v>173454</v>
       </c>
       <c r="AM31" s="11">
-        <v>202331</v>
+        <v>141951</v>
       </c>
       <c r="AN31" s="11">
-        <v>173454</v>
+        <v>137075</v>
       </c>
       <c r="AO31" s="11">
-        <v>141951</v>
+        <v>191385</v>
       </c>
       <c r="AP31" s="11">
-        <v>137075</v>
+        <v>26528</v>
       </c>
       <c r="AQ31" s="11">
-        <v>191385</v>
+        <v>124386</v>
       </c>
       <c r="AR31" s="11">
-        <v>26528</v>
+        <v>85573</v>
       </c>
       <c r="AS31" s="11">
-        <v>124386</v>
+        <v>104351</v>
       </c>
       <c r="AT31" s="11">
-        <v>85573</v>
+        <v>94203</v>
       </c>
       <c r="AU31" s="11">
-        <v>104351</v>
+        <v>122720</v>
       </c>
       <c r="AV31" s="11">
-        <v>94203</v>
+        <v>100303</v>
       </c>
       <c r="AW31" s="11">
-        <v>122720</v>
+        <v>118598</v>
       </c>
       <c r="AX31" s="11">
-        <v>100303</v>
+        <v>125405</v>
       </c>
       <c r="AY31" s="11">
-        <v>118598</v>
+        <v>117258</v>
       </c>
       <c r="AZ31" s="11">
-        <v>125405</v>
+        <v>123608</v>
       </c>
       <c r="BA31" s="11">
-        <v>117258</v>
+        <v>146927</v>
       </c>
       <c r="BB31" s="11">
-        <v>123608</v>
+        <v>79097</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>59</v>
       </c>
@@ -4099,104 +4099,104 @@
       <c r="V32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X32" s="13" t="s">
-        <v>58</v>
+      <c r="W32" s="13">
+        <v>246235</v>
+      </c>
+      <c r="X32" s="13">
+        <v>261542</v>
       </c>
       <c r="Y32" s="13">
-        <v>246235</v>
+        <v>377687</v>
       </c>
       <c r="Z32" s="13">
-        <v>261542</v>
+        <v>318951</v>
       </c>
       <c r="AA32" s="13">
-        <v>377687</v>
+        <v>255039</v>
       </c>
       <c r="AB32" s="13">
-        <v>318951</v>
+        <v>220668</v>
       </c>
       <c r="AC32" s="13">
-        <v>255039</v>
+        <v>281497</v>
       </c>
       <c r="AD32" s="13">
-        <v>220668</v>
+        <v>211170</v>
       </c>
       <c r="AE32" s="13">
-        <v>281497</v>
+        <v>239869</v>
       </c>
       <c r="AF32" s="13">
-        <v>211170</v>
+        <v>128288</v>
       </c>
       <c r="AG32" s="13">
-        <v>239869</v>
+        <v>433623</v>
       </c>
       <c r="AH32" s="13">
-        <v>128288</v>
+        <v>289631</v>
       </c>
       <c r="AI32" s="13">
-        <v>433623</v>
+        <v>277229</v>
       </c>
       <c r="AJ32" s="13">
-        <v>289631</v>
+        <v>165599</v>
       </c>
       <c r="AK32" s="13">
-        <v>277229</v>
+        <v>331429</v>
       </c>
       <c r="AL32" s="13">
-        <v>165599</v>
+        <v>256297</v>
       </c>
       <c r="AM32" s="13">
-        <v>331429</v>
+        <v>194357</v>
       </c>
       <c r="AN32" s="13">
-        <v>256297</v>
+        <v>192000</v>
       </c>
       <c r="AO32" s="13">
-        <v>194357</v>
+        <v>246349</v>
       </c>
       <c r="AP32" s="13">
-        <v>192000</v>
+        <v>130408</v>
       </c>
       <c r="AQ32" s="13">
-        <v>246349</v>
+        <v>276103</v>
       </c>
       <c r="AR32" s="13">
-        <v>130408</v>
+        <v>143941</v>
       </c>
       <c r="AS32" s="13">
-        <v>276103</v>
+        <v>193100</v>
       </c>
       <c r="AT32" s="13">
-        <v>143941</v>
+        <v>292684</v>
       </c>
       <c r="AU32" s="13">
-        <v>193100</v>
+        <v>274282</v>
       </c>
       <c r="AV32" s="13">
-        <v>292684</v>
+        <v>184921</v>
       </c>
       <c r="AW32" s="13">
-        <v>274282</v>
+        <v>278384</v>
       </c>
       <c r="AX32" s="13">
-        <v>184921</v>
+        <v>270816</v>
       </c>
       <c r="AY32" s="13">
-        <v>278384</v>
+        <v>277385</v>
       </c>
       <c r="AZ32" s="13">
-        <v>270816</v>
+        <v>133927</v>
       </c>
       <c r="BA32" s="13">
-        <v>277385</v>
+        <v>259407</v>
       </c>
       <c r="BB32" s="13">
-        <v>133927</v>
+        <v>161827</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
         <v>60</v>
       </c>
@@ -4258,104 +4258,104 @@
       <c r="V33" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W33" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X33" s="11" t="s">
-        <v>58</v>
+      <c r="W33" s="11">
+        <v>2581762</v>
+      </c>
+      <c r="X33" s="11">
+        <v>1580913</v>
       </c>
       <c r="Y33" s="11">
-        <v>2581762</v>
+        <v>2664249</v>
       </c>
       <c r="Z33" s="11">
-        <v>1580913</v>
+        <v>2543703</v>
       </c>
       <c r="AA33" s="11">
-        <v>2664249</v>
+        <v>2461361</v>
       </c>
       <c r="AB33" s="11">
-        <v>2543703</v>
+        <v>1776079</v>
       </c>
       <c r="AC33" s="11">
-        <v>2461361</v>
+        <v>2117786</v>
       </c>
       <c r="AD33" s="11">
-        <v>1776079</v>
+        <v>2440395</v>
       </c>
       <c r="AE33" s="11">
-        <v>2117786</v>
+        <v>2156300</v>
       </c>
       <c r="AF33" s="11">
-        <v>2440395</v>
+        <v>1371262</v>
       </c>
       <c r="AG33" s="11">
-        <v>2156300</v>
+        <v>2883052</v>
       </c>
       <c r="AH33" s="11">
-        <v>1371262</v>
+        <v>3595563</v>
       </c>
       <c r="AI33" s="11">
-        <v>2883052</v>
+        <v>2296443</v>
       </c>
       <c r="AJ33" s="11">
-        <v>3595563</v>
+        <v>2828429</v>
       </c>
       <c r="AK33" s="11">
-        <v>2296443</v>
+        <v>3562063</v>
       </c>
       <c r="AL33" s="11">
-        <v>2828429</v>
+        <v>2489079</v>
       </c>
       <c r="AM33" s="11">
-        <v>3562063</v>
+        <v>2548569</v>
       </c>
       <c r="AN33" s="11">
-        <v>2489079</v>
+        <v>1665944</v>
       </c>
       <c r="AO33" s="11">
-        <v>2548569</v>
+        <v>2017416</v>
       </c>
       <c r="AP33" s="11">
-        <v>1665944</v>
+        <v>1662413</v>
       </c>
       <c r="AQ33" s="11">
-        <v>2017416</v>
+        <v>2601693</v>
       </c>
       <c r="AR33" s="11">
-        <v>1662413</v>
+        <v>1111511</v>
       </c>
       <c r="AS33" s="11">
-        <v>2601693</v>
+        <v>4183959</v>
       </c>
       <c r="AT33" s="11">
-        <v>1111511</v>
+        <v>2604751</v>
       </c>
       <c r="AU33" s="11">
-        <v>4183959</v>
+        <v>3077439</v>
       </c>
       <c r="AV33" s="11">
-        <v>2604751</v>
+        <v>2275404</v>
       </c>
       <c r="AW33" s="11">
-        <v>3077439</v>
+        <v>2589083</v>
       </c>
       <c r="AX33" s="11">
-        <v>2275404</v>
+        <v>2187400</v>
       </c>
       <c r="AY33" s="11">
-        <v>2589083</v>
+        <v>2777459</v>
       </c>
       <c r="AZ33" s="11">
-        <v>2187400</v>
+        <v>1872685</v>
       </c>
       <c r="BA33" s="11">
-        <v>2777459</v>
+        <v>2222313</v>
       </c>
       <c r="BB33" s="11">
-        <v>1872685</v>
+        <v>2051278</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
         <v>61</v>
       </c>
@@ -4417,104 +4417,104 @@
       <c r="V34" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W34" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X34" s="13" t="s">
-        <v>58</v>
+      <c r="W34" s="13">
+        <v>4736869</v>
+      </c>
+      <c r="X34" s="13">
+        <v>3536365</v>
       </c>
       <c r="Y34" s="13">
-        <v>4736869</v>
+        <v>5281256</v>
       </c>
       <c r="Z34" s="13">
-        <v>3536365</v>
+        <v>4843745</v>
       </c>
       <c r="AA34" s="13">
-        <v>5281256</v>
+        <v>4515487</v>
       </c>
       <c r="AB34" s="13">
-        <v>4843745</v>
+        <v>3802653</v>
       </c>
       <c r="AC34" s="13">
-        <v>4515487</v>
+        <v>4813840</v>
       </c>
       <c r="AD34" s="13">
-        <v>3802653</v>
+        <v>4477138</v>
       </c>
       <c r="AE34" s="13">
-        <v>4813840</v>
+        <v>4450246</v>
       </c>
       <c r="AF34" s="13">
-        <v>4477138</v>
+        <v>2767829</v>
       </c>
       <c r="AG34" s="13">
-        <v>4450246</v>
+        <v>4804993</v>
       </c>
       <c r="AH34" s="13">
-        <v>2767829</v>
+        <v>4978792</v>
       </c>
       <c r="AI34" s="13">
-        <v>4804993</v>
+        <v>5632641</v>
       </c>
       <c r="AJ34" s="13">
-        <v>4978792</v>
+        <v>3590625</v>
       </c>
       <c r="AK34" s="13">
-        <v>5632641</v>
+        <v>5022958</v>
       </c>
       <c r="AL34" s="13">
-        <v>3590625</v>
+        <v>4364005</v>
       </c>
       <c r="AM34" s="13">
-        <v>5022958</v>
+        <v>4755076</v>
       </c>
       <c r="AN34" s="13">
-        <v>4364005</v>
+        <v>5774215</v>
       </c>
       <c r="AO34" s="13">
-        <v>4755076</v>
+        <v>4311551</v>
       </c>
       <c r="AP34" s="13">
-        <v>5774215</v>
+        <v>5209264</v>
       </c>
       <c r="AQ34" s="13">
-        <v>4311551</v>
+        <v>4201316</v>
       </c>
       <c r="AR34" s="13">
-        <v>5209264</v>
+        <v>2729923</v>
       </c>
       <c r="AS34" s="13">
-        <v>4201316</v>
+        <v>4860901</v>
       </c>
       <c r="AT34" s="13">
-        <v>2729923</v>
+        <v>5522645</v>
       </c>
       <c r="AU34" s="13">
-        <v>4860901</v>
+        <v>5418613</v>
       </c>
       <c r="AV34" s="13">
-        <v>5522645</v>
+        <v>4582596</v>
       </c>
       <c r="AW34" s="13">
-        <v>5418613</v>
+        <v>5285449</v>
       </c>
       <c r="AX34" s="13">
-        <v>4595344</v>
+        <v>3728474</v>
       </c>
       <c r="AY34" s="13">
-        <v>5285449</v>
+        <v>4962053</v>
       </c>
       <c r="AZ34" s="13">
-        <v>3728474</v>
+        <v>5392903</v>
       </c>
       <c r="BA34" s="13">
-        <v>4962053</v>
+        <v>4623059</v>
       </c>
       <c r="BB34" s="13">
-        <v>5392903</v>
+        <v>5459773</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
         <v>70</v>
       </c>
@@ -4575,103 +4575,103 @@
         <v>0</v>
       </c>
       <c r="W35" s="15">
-        <v>0</v>
+        <v>7724593</v>
       </c>
       <c r="X35" s="15">
-        <v>0</v>
+        <v>5505234</v>
       </c>
       <c r="Y35" s="15">
-        <v>7724593</v>
+        <v>8476072</v>
       </c>
       <c r="Z35" s="15">
-        <v>5505234</v>
+        <v>7845480</v>
       </c>
       <c r="AA35" s="15">
-        <v>8476072</v>
+        <v>7342176</v>
       </c>
       <c r="AB35" s="15">
-        <v>7845480</v>
+        <v>5908978</v>
       </c>
       <c r="AC35" s="15">
-        <v>7342176</v>
+        <v>7356998</v>
       </c>
       <c r="AD35" s="15">
-        <v>5908978</v>
+        <v>7284613</v>
       </c>
       <c r="AE35" s="15">
-        <v>7356998</v>
+        <v>6935757</v>
       </c>
       <c r="AF35" s="15">
-        <v>7284613</v>
+        <v>4312558</v>
       </c>
       <c r="AG35" s="15">
-        <v>6935757</v>
+        <v>8299079</v>
       </c>
       <c r="AH35" s="15">
-        <v>4312558</v>
+        <v>8989598</v>
       </c>
       <c r="AI35" s="15">
-        <v>8299079</v>
+        <v>8321095</v>
       </c>
       <c r="AJ35" s="15">
-        <v>8989598</v>
+        <v>6691038</v>
       </c>
       <c r="AK35" s="15">
-        <v>8321095</v>
+        <v>9118781</v>
       </c>
       <c r="AL35" s="15">
-        <v>6691038</v>
+        <v>7282835</v>
       </c>
       <c r="AM35" s="15">
-        <v>9118781</v>
+        <v>7639953</v>
       </c>
       <c r="AN35" s="15">
-        <v>7282835</v>
+        <v>7769234</v>
       </c>
       <c r="AO35" s="15">
-        <v>7639953</v>
+        <v>6766701</v>
       </c>
       <c r="AP35" s="15">
-        <v>7769234</v>
+        <v>7028613</v>
       </c>
       <c r="AQ35" s="15">
-        <v>6766701</v>
+        <v>7203498</v>
       </c>
       <c r="AR35" s="15">
-        <v>7028613</v>
+        <v>4070948</v>
       </c>
       <c r="AS35" s="15">
-        <v>7203498</v>
+        <v>9342311</v>
       </c>
       <c r="AT35" s="15">
-        <v>4070948</v>
+        <v>8514283</v>
       </c>
       <c r="AU35" s="15">
-        <v>9342311</v>
+        <v>8893054</v>
       </c>
       <c r="AV35" s="15">
-        <v>8514283</v>
+        <v>7143224</v>
       </c>
       <c r="AW35" s="15">
-        <v>8893054</v>
+        <v>8271514</v>
       </c>
       <c r="AX35" s="15">
-        <v>7155972</v>
+        <v>6312095</v>
       </c>
       <c r="AY35" s="15">
-        <v>8271514</v>
+        <v>8134155</v>
       </c>
       <c r="AZ35" s="15">
-        <v>6312095</v>
+        <v>7523123</v>
       </c>
       <c r="BA35" s="15">
-        <v>8134155</v>
+        <v>7251706</v>
       </c>
       <c r="BB35" s="15">
-        <v>7523123</v>
+        <v>7751975</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="8" t="s">
         <v>71</v>
       </c>
@@ -4728,7 +4728,7 @@
       <c r="BA36" s="9"/>
       <c r="BB36" s="9"/>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="10" t="s">
         <v>56</v>
       </c>
@@ -4790,11 +4790,11 @@
       <c r="V37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W37" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X37" s="11" t="s">
-        <v>58</v>
+      <c r="W37" s="11">
+        <v>0</v>
+      </c>
+      <c r="X37" s="11">
+        <v>0</v>
       </c>
       <c r="Y37" s="11">
         <v>0</v>
@@ -4820,11 +4820,11 @@
       <c r="AF37" s="11">
         <v>0</v>
       </c>
-      <c r="AG37" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH37" s="11">
-        <v>0</v>
+      <c r="AG37" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH37" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI37" s="11" t="s">
         <v>58</v>
@@ -4850,14 +4850,14 @@
       <c r="AP37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ37" s="11" t="s">
-        <v>58</v>
+      <c r="AQ37" s="11">
+        <v>0</v>
       </c>
       <c r="AR37" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS37" s="11">
-        <v>0</v>
+      <c r="AS37" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT37" s="11" t="s">
         <v>58</v>
@@ -4887,7 +4887,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
         <v>59</v>
       </c>
@@ -4949,11 +4949,11 @@
       <c r="V38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W38" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X38" s="13" t="s">
-        <v>58</v>
+      <c r="W38" s="13">
+        <v>0</v>
+      </c>
+      <c r="X38" s="13">
+        <v>0</v>
       </c>
       <c r="Y38" s="13">
         <v>0</v>
@@ -4979,11 +4979,11 @@
       <c r="AF38" s="13">
         <v>0</v>
       </c>
-      <c r="AG38" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH38" s="13">
-        <v>0</v>
+      <c r="AG38" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI38" s="13" t="s">
         <v>58</v>
@@ -5009,14 +5009,14 @@
       <c r="AP38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ38" s="13" t="s">
-        <v>58</v>
+      <c r="AQ38" s="13">
+        <v>0</v>
       </c>
       <c r="AR38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS38" s="13">
-        <v>0</v>
+      <c r="AS38" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT38" s="13" t="s">
         <v>58</v>
@@ -5027,26 +5027,26 @@
       <c r="AV38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW38" s="13" t="s">
-        <v>58</v>
+      <c r="AW38" s="13">
+        <v>14</v>
       </c>
       <c r="AX38" s="13">
         <v>0</v>
       </c>
       <c r="AY38" s="13">
-        <v>14</v>
+        <v>1373</v>
       </c>
       <c r="AZ38" s="13">
         <v>0</v>
       </c>
       <c r="BA38" s="13">
-        <v>1373</v>
+        <v>0</v>
       </c>
       <c r="BB38" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
         <v>60</v>
       </c>
@@ -5108,11 +5108,11 @@
       <c r="V39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W39" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X39" s="11" t="s">
-        <v>58</v>
+      <c r="W39" s="11">
+        <v>0</v>
+      </c>
+      <c r="X39" s="11">
+        <v>0</v>
       </c>
       <c r="Y39" s="11">
         <v>0</v>
@@ -5138,11 +5138,11 @@
       <c r="AF39" s="11">
         <v>0</v>
       </c>
-      <c r="AG39" s="11">
-        <v>0</v>
-      </c>
-      <c r="AH39" s="11">
-        <v>0</v>
+      <c r="AG39" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH39" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI39" s="11" t="s">
         <v>58</v>
@@ -5168,14 +5168,14 @@
       <c r="AP39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ39" s="11" t="s">
-        <v>58</v>
+      <c r="AQ39" s="11">
+        <v>0</v>
       </c>
       <c r="AR39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS39" s="11">
-        <v>0</v>
+      <c r="AS39" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT39" s="11" t="s">
         <v>58</v>
@@ -5183,29 +5183,29 @@
       <c r="AU39" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV39" s="11" t="s">
-        <v>58</v>
+      <c r="AV39" s="11">
+        <v>44763</v>
       </c>
       <c r="AW39" s="11">
-        <v>0</v>
+        <v>61915</v>
       </c>
       <c r="AX39" s="11">
-        <v>44763</v>
+        <v>41145</v>
       </c>
       <c r="AY39" s="11">
-        <v>61915</v>
+        <v>98322</v>
       </c>
       <c r="AZ39" s="11">
-        <v>41145</v>
+        <v>43001</v>
       </c>
       <c r="BA39" s="11">
-        <v>98322</v>
+        <v>0</v>
       </c>
       <c r="BB39" s="11">
-        <v>43001</v>
+        <v>24741</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
         <v>61</v>
       </c>
@@ -5267,11 +5267,11 @@
       <c r="V40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W40" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X40" s="13" t="s">
-        <v>58</v>
+      <c r="W40" s="13">
+        <v>0</v>
+      </c>
+      <c r="X40" s="13">
+        <v>0</v>
       </c>
       <c r="Y40" s="13">
         <v>0</v>
@@ -5297,11 +5297,11 @@
       <c r="AF40" s="13">
         <v>0</v>
       </c>
-      <c r="AG40" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH40" s="13">
-        <v>0</v>
+      <c r="AG40" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH40" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI40" s="13" t="s">
         <v>58</v>
@@ -5327,14 +5327,14 @@
       <c r="AP40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ40" s="13" t="s">
-        <v>58</v>
+      <c r="AQ40" s="13">
+        <v>0</v>
       </c>
       <c r="AR40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS40" s="13">
-        <v>0</v>
+      <c r="AS40" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT40" s="13" t="s">
         <v>58</v>
@@ -5342,29 +5342,29 @@
       <c r="AU40" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV40" s="13" t="s">
-        <v>58</v>
+      <c r="AV40" s="13">
+        <v>84442</v>
       </c>
       <c r="AW40" s="13">
-        <v>0</v>
+        <v>84475</v>
       </c>
       <c r="AX40" s="13">
-        <v>84442</v>
+        <v>108656</v>
       </c>
       <c r="AY40" s="13">
-        <v>84475</v>
+        <v>26691</v>
       </c>
       <c r="AZ40" s="13">
-        <v>108656</v>
+        <v>15534</v>
       </c>
       <c r="BA40" s="13">
-        <v>26691</v>
+        <v>0</v>
       </c>
       <c r="BB40" s="13">
-        <v>15534</v>
+        <v>10598</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="14" t="s">
         <v>72</v>
       </c>
@@ -5500,28 +5500,28 @@
         <v>0</v>
       </c>
       <c r="AV41" s="15">
-        <v>0</v>
+        <v>129205</v>
       </c>
       <c r="AW41" s="15">
-        <v>0</v>
+        <v>146404</v>
       </c>
       <c r="AX41" s="15">
-        <v>129205</v>
+        <v>149801</v>
       </c>
       <c r="AY41" s="15">
-        <v>146404</v>
+        <v>126386</v>
       </c>
       <c r="AZ41" s="15">
-        <v>149801</v>
+        <v>58535</v>
       </c>
       <c r="BA41" s="15">
-        <v>126386</v>
+        <v>0</v>
       </c>
       <c r="BB41" s="15">
-        <v>58535</v>
+        <v>35339</v>
       </c>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="16" t="s">
         <v>65</v>
       </c>
@@ -5578,7 +5578,7 @@
       <c r="BA42" s="17"/>
       <c r="BB42" s="17"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
         <v>66</v>
       </c>
@@ -5638,11 +5638,11 @@
       <c r="V43" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W43" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X43" s="15" t="s">
-        <v>58</v>
+      <c r="W43" s="15">
+        <v>0</v>
+      </c>
+      <c r="X43" s="15">
+        <v>0</v>
       </c>
       <c r="Y43" s="15">
         <v>0</v>
@@ -5735,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
         <v>73</v>
       </c>
@@ -5792,7 +5792,7 @@
       <c r="BA44" s="17"/>
       <c r="BB44" s="17"/>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
         <v>74</v>
       </c>
@@ -5852,11 +5852,11 @@
       <c r="V45" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W45" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X45" s="15" t="s">
-        <v>58</v>
+      <c r="W45" s="15">
+        <v>0</v>
+      </c>
+      <c r="X45" s="15">
+        <v>0</v>
       </c>
       <c r="Y45" s="15">
         <v>0</v>
@@ -5949,7 +5949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
         <v>67</v>
       </c>
@@ -6010,103 +6010,103 @@
         <v>0</v>
       </c>
       <c r="W46" s="19">
-        <v>0</v>
+        <v>7724593</v>
       </c>
       <c r="X46" s="19">
-        <v>0</v>
+        <v>5505234</v>
       </c>
       <c r="Y46" s="19">
-        <v>7724593</v>
+        <v>8476072</v>
       </c>
       <c r="Z46" s="19">
-        <v>5505234</v>
+        <v>7845480</v>
       </c>
       <c r="AA46" s="19">
-        <v>8476072</v>
+        <v>7342176</v>
       </c>
       <c r="AB46" s="19">
-        <v>7845480</v>
+        <v>5908978</v>
       </c>
       <c r="AC46" s="19">
-        <v>7342176</v>
+        <v>7356998</v>
       </c>
       <c r="AD46" s="19">
-        <v>5908978</v>
+        <v>7284613</v>
       </c>
       <c r="AE46" s="19">
-        <v>7356998</v>
+        <v>6935757</v>
       </c>
       <c r="AF46" s="19">
-        <v>7284613</v>
+        <v>4312558</v>
       </c>
       <c r="AG46" s="19">
-        <v>6935757</v>
+        <v>8299079</v>
       </c>
       <c r="AH46" s="19">
-        <v>4312558</v>
+        <v>8989598</v>
       </c>
       <c r="AI46" s="19">
-        <v>8299079</v>
+        <v>8321095</v>
       </c>
       <c r="AJ46" s="19">
-        <v>8989598</v>
+        <v>6691038</v>
       </c>
       <c r="AK46" s="19">
-        <v>8321095</v>
+        <v>9118781</v>
       </c>
       <c r="AL46" s="19">
-        <v>6691038</v>
+        <v>7282835</v>
       </c>
       <c r="AM46" s="19">
-        <v>9118781</v>
+        <v>7639953</v>
       </c>
       <c r="AN46" s="19">
-        <v>7282835</v>
+        <v>7769234</v>
       </c>
       <c r="AO46" s="19">
-        <v>7639953</v>
+        <v>6766701</v>
       </c>
       <c r="AP46" s="19">
-        <v>7769234</v>
+        <v>7028613</v>
       </c>
       <c r="AQ46" s="19">
-        <v>6766701</v>
+        <v>7203498</v>
       </c>
       <c r="AR46" s="19">
-        <v>7028613</v>
+        <v>4070948</v>
       </c>
       <c r="AS46" s="19">
-        <v>7203498</v>
+        <v>9342311</v>
       </c>
       <c r="AT46" s="19">
-        <v>4070948</v>
+        <v>8514283</v>
       </c>
       <c r="AU46" s="19">
-        <v>9342311</v>
+        <v>8893054</v>
       </c>
       <c r="AV46" s="19">
-        <v>8514283</v>
+        <v>7272429</v>
       </c>
       <c r="AW46" s="19">
-        <v>8893054</v>
+        <v>8417918</v>
       </c>
       <c r="AX46" s="19">
-        <v>7285177</v>
+        <v>6461896</v>
       </c>
       <c r="AY46" s="19">
-        <v>8417918</v>
+        <v>8260541</v>
       </c>
       <c r="AZ46" s="19">
-        <v>6461896</v>
+        <v>7581658</v>
       </c>
       <c r="BA46" s="19">
-        <v>8260541</v>
+        <v>7251706</v>
       </c>
       <c r="BB46" s="19">
-        <v>7581658</v>
+        <v>7787314</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -6161,7 +6161,7 @@
       <c r="BA47" s="1"/>
       <c r="BB47" s="1"/>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -6216,7 +6216,7 @@
       <c r="BA48" s="1"/>
       <c r="BB48" s="1"/>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -6271,7 +6271,7 @@
       <c r="BA49" s="1"/>
       <c r="BB49" s="1"/>
     </row>
-    <row r="50" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B50" s="7" t="s">
         <v>75</v>
       </c>
@@ -6428,7 +6428,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -6483,7 +6483,7 @@
       <c r="BA51" s="1"/>
       <c r="BB51" s="1"/>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>76</v>
       </c>
@@ -6540,7 +6540,7 @@
       <c r="BA52" s="9"/>
       <c r="BB52" s="9"/>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>56</v>
       </c>
@@ -6602,104 +6602,104 @@
       <c r="V53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X53" s="11" t="s">
-        <v>58</v>
+      <c r="W53" s="11">
+        <v>48989</v>
+      </c>
+      <c r="X53" s="11">
+        <v>39792</v>
       </c>
       <c r="Y53" s="11">
-        <v>48989</v>
+        <v>48283</v>
       </c>
       <c r="Z53" s="11">
-        <v>39792</v>
+        <v>42098</v>
       </c>
       <c r="AA53" s="11">
-        <v>48283</v>
+        <v>32645</v>
       </c>
       <c r="AB53" s="11">
-        <v>42098</v>
+        <v>32796</v>
       </c>
       <c r="AC53" s="11">
-        <v>32645</v>
+        <v>41797</v>
       </c>
       <c r="AD53" s="11">
-        <v>32796</v>
+        <v>45881</v>
       </c>
       <c r="AE53" s="11">
-        <v>41797</v>
+        <v>26872</v>
       </c>
       <c r="AF53" s="11">
-        <v>45881</v>
+        <v>13580</v>
       </c>
       <c r="AG53" s="11">
-        <v>26872</v>
+        <v>52189</v>
       </c>
       <c r="AH53" s="11">
-        <v>13580</v>
+        <v>36484</v>
       </c>
       <c r="AI53" s="11">
-        <v>52189</v>
+        <v>33489</v>
       </c>
       <c r="AJ53" s="11">
-        <v>36484</v>
+        <v>31362</v>
       </c>
       <c r="AK53" s="11">
-        <v>33489</v>
+        <v>58120</v>
       </c>
       <c r="AL53" s="11">
-        <v>31362</v>
+        <v>50176</v>
       </c>
       <c r="AM53" s="11">
-        <v>58120</v>
+        <v>41973</v>
       </c>
       <c r="AN53" s="11">
-        <v>50176</v>
+        <v>40011</v>
       </c>
       <c r="AO53" s="11">
-        <v>41973</v>
+        <v>55342</v>
       </c>
       <c r="AP53" s="11">
-        <v>40011</v>
+        <v>10241</v>
       </c>
       <c r="AQ53" s="11">
-        <v>55342</v>
+        <v>43552</v>
       </c>
       <c r="AR53" s="11">
-        <v>10241</v>
+        <v>30027</v>
       </c>
       <c r="AS53" s="11">
-        <v>43552</v>
+        <v>50115</v>
       </c>
       <c r="AT53" s="11">
-        <v>30027</v>
+        <v>37664</v>
       </c>
       <c r="AU53" s="11">
-        <v>50115</v>
+        <v>56301</v>
       </c>
       <c r="AV53" s="11">
-        <v>37664</v>
+        <v>47272</v>
       </c>
       <c r="AW53" s="11">
-        <v>56301</v>
+        <v>56827</v>
       </c>
       <c r="AX53" s="11">
-        <v>47272</v>
+        <v>68225</v>
       </c>
       <c r="AY53" s="11">
-        <v>56827</v>
+        <v>72064</v>
       </c>
       <c r="AZ53" s="11">
-        <v>68225</v>
+        <v>71750</v>
       </c>
       <c r="BA53" s="11">
-        <v>72064</v>
+        <v>84003</v>
       </c>
       <c r="BB53" s="11">
-        <v>71750</v>
+        <v>45790</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>59</v>
       </c>
@@ -6761,104 +6761,104 @@
       <c r="V54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X54" s="13" t="s">
-        <v>58</v>
+      <c r="W54" s="13">
+        <v>123933</v>
+      </c>
+      <c r="X54" s="13">
+        <v>143947</v>
       </c>
       <c r="Y54" s="13">
-        <v>123933</v>
+        <v>218355</v>
       </c>
       <c r="Z54" s="13">
-        <v>143947</v>
+        <v>183944</v>
       </c>
       <c r="AA54" s="13">
-        <v>218355</v>
+        <v>146812</v>
       </c>
       <c r="AB54" s="13">
-        <v>183944</v>
+        <v>128691</v>
       </c>
       <c r="AC54" s="13">
-        <v>146812</v>
+        <v>160343</v>
       </c>
       <c r="AD54" s="13">
-        <v>128691</v>
+        <v>122939</v>
       </c>
       <c r="AE54" s="13">
-        <v>160343</v>
+        <v>138367</v>
       </c>
       <c r="AF54" s="13">
-        <v>122939</v>
+        <v>73709</v>
       </c>
       <c r="AG54" s="13">
-        <v>138367</v>
+        <v>251030</v>
       </c>
       <c r="AH54" s="13">
-        <v>73709</v>
+        <v>168392</v>
       </c>
       <c r="AI54" s="13">
-        <v>251030</v>
+        <v>157165</v>
       </c>
       <c r="AJ54" s="13">
-        <v>168392</v>
+        <v>95238</v>
       </c>
       <c r="AK54" s="13">
-        <v>157165</v>
+        <v>187439</v>
       </c>
       <c r="AL54" s="13">
-        <v>95238</v>
+        <v>148135</v>
       </c>
       <c r="AM54" s="13">
-        <v>187439</v>
+        <v>113068</v>
       </c>
       <c r="AN54" s="13">
-        <v>148135</v>
+        <v>108936</v>
       </c>
       <c r="AO54" s="13">
-        <v>113068</v>
+        <v>143156</v>
       </c>
       <c r="AP54" s="13">
-        <v>108936</v>
+        <v>96506</v>
       </c>
       <c r="AQ54" s="13">
-        <v>143156</v>
+        <v>204093</v>
       </c>
       <c r="AR54" s="13">
-        <v>96506</v>
+        <v>106605</v>
       </c>
       <c r="AS54" s="13">
-        <v>204093</v>
+        <v>145313</v>
       </c>
       <c r="AT54" s="13">
-        <v>106605</v>
+        <v>209357</v>
       </c>
       <c r="AU54" s="13">
-        <v>145313</v>
+        <v>201846</v>
       </c>
       <c r="AV54" s="13">
-        <v>209357</v>
+        <v>158735</v>
       </c>
       <c r="AW54" s="13">
-        <v>201846</v>
+        <v>247121</v>
       </c>
       <c r="AX54" s="13">
-        <v>158735</v>
+        <v>291847</v>
       </c>
       <c r="AY54" s="13">
-        <v>247121</v>
+        <v>308922</v>
       </c>
       <c r="AZ54" s="13">
-        <v>291847</v>
+        <v>146941</v>
       </c>
       <c r="BA54" s="13">
-        <v>308922</v>
+        <v>275175</v>
       </c>
       <c r="BB54" s="13">
-        <v>146941</v>
+        <v>173278</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>60</v>
       </c>
@@ -6920,104 +6920,104 @@
       <c r="V55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X55" s="11" t="s">
-        <v>58</v>
+      <c r="W55" s="11">
+        <v>849123</v>
+      </c>
+      <c r="X55" s="11">
+        <v>595911</v>
       </c>
       <c r="Y55" s="11">
-        <v>849123</v>
+        <v>1108313</v>
       </c>
       <c r="Z55" s="11">
-        <v>595911</v>
+        <v>1031586</v>
       </c>
       <c r="AA55" s="11">
-        <v>1108313</v>
+        <v>1005646</v>
       </c>
       <c r="AB55" s="11">
-        <v>1031586</v>
+        <v>746742</v>
       </c>
       <c r="AC55" s="11">
-        <v>1005646</v>
+        <v>1069436</v>
       </c>
       <c r="AD55" s="11">
-        <v>746742</v>
+        <v>1281241</v>
       </c>
       <c r="AE55" s="11">
-        <v>1069436</v>
+        <v>1387108</v>
       </c>
       <c r="AF55" s="11">
-        <v>1281241</v>
+        <v>743677</v>
       </c>
       <c r="AG55" s="11">
-        <v>1387108</v>
+        <v>1588025</v>
       </c>
       <c r="AH55" s="11">
-        <v>743677</v>
+        <v>1975465</v>
       </c>
       <c r="AI55" s="11">
-        <v>1588025</v>
+        <v>1264333</v>
       </c>
       <c r="AJ55" s="11">
-        <v>1975465</v>
+        <v>1549929</v>
       </c>
       <c r="AK55" s="11">
-        <v>1264333</v>
+        <v>1953240</v>
       </c>
       <c r="AL55" s="11">
-        <v>1549929</v>
+        <v>1343690</v>
       </c>
       <c r="AM55" s="11">
-        <v>1953240</v>
+        <v>1385257</v>
       </c>
       <c r="AN55" s="11">
-        <v>1343690</v>
+        <v>1040898</v>
       </c>
       <c r="AO55" s="11">
-        <v>1385257</v>
+        <v>1243622</v>
       </c>
       <c r="AP55" s="11">
-        <v>1040898</v>
+        <v>993773</v>
       </c>
       <c r="AQ55" s="11">
-        <v>1243622</v>
+        <v>1686317</v>
       </c>
       <c r="AR55" s="11">
-        <v>993773</v>
+        <v>664396</v>
       </c>
       <c r="AS55" s="11">
-        <v>1686317</v>
+        <v>2596866</v>
       </c>
       <c r="AT55" s="11">
-        <v>664396</v>
+        <v>1782819</v>
       </c>
       <c r="AU55" s="11">
-        <v>2596866</v>
+        <v>2220167</v>
       </c>
       <c r="AV55" s="11">
-        <v>1782819</v>
+        <v>1659379</v>
       </c>
       <c r="AW55" s="11">
-        <v>2220167</v>
+        <v>1954715</v>
       </c>
       <c r="AX55" s="11">
-        <v>1659379</v>
+        <v>1733639</v>
       </c>
       <c r="AY55" s="11">
-        <v>1954715</v>
+        <v>2272539</v>
       </c>
       <c r="AZ55" s="11">
-        <v>1733639</v>
+        <v>1553625</v>
       </c>
       <c r="BA55" s="11">
-        <v>2272539</v>
+        <v>1824448</v>
       </c>
       <c r="BB55" s="11">
-        <v>1553625</v>
+        <v>1691184</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>61</v>
       </c>
@@ -7079,104 +7079,104 @@
       <c r="V56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W56" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X56" s="13" t="s">
-        <v>58</v>
+      <c r="W56" s="13">
+        <v>1378861</v>
+      </c>
+      <c r="X56" s="13">
+        <v>1226566</v>
       </c>
       <c r="Y56" s="13">
-        <v>1378861</v>
+        <v>2174719</v>
       </c>
       <c r="Z56" s="13">
-        <v>1226566</v>
+        <v>1858515</v>
       </c>
       <c r="AA56" s="13">
-        <v>2174719</v>
+        <v>1800961</v>
       </c>
       <c r="AB56" s="13">
-        <v>1858515</v>
+        <v>1859323</v>
       </c>
       <c r="AC56" s="13">
-        <v>1800961</v>
+        <v>2559714</v>
       </c>
       <c r="AD56" s="13">
-        <v>1859323</v>
+        <v>2583842</v>
       </c>
       <c r="AE56" s="13">
-        <v>2559714</v>
+        <v>2482218</v>
       </c>
       <c r="AF56" s="13">
-        <v>2583842</v>
+        <v>1489683</v>
       </c>
       <c r="AG56" s="13">
-        <v>2482218</v>
+        <v>2537265</v>
       </c>
       <c r="AH56" s="13">
-        <v>1489683</v>
+        <v>2608152</v>
       </c>
       <c r="AI56" s="13">
-        <v>2537265</v>
+        <v>3056985</v>
       </c>
       <c r="AJ56" s="13">
-        <v>2608152</v>
+        <v>1925926</v>
       </c>
       <c r="AK56" s="13">
-        <v>3056985</v>
+        <v>2743058</v>
       </c>
       <c r="AL56" s="13">
-        <v>1925926</v>
+        <v>2346792</v>
       </c>
       <c r="AM56" s="13">
-        <v>2743058</v>
+        <v>2598725</v>
       </c>
       <c r="AN56" s="13">
-        <v>2346792</v>
+        <v>3331106</v>
       </c>
       <c r="AO56" s="13">
-        <v>2598725</v>
+        <v>2562188</v>
       </c>
       <c r="AP56" s="13">
-        <v>3331106</v>
+        <v>3031193</v>
       </c>
       <c r="AQ56" s="13">
-        <v>2562188</v>
+        <v>2552731</v>
       </c>
       <c r="AR56" s="13">
-        <v>3031193</v>
+        <v>1680153</v>
       </c>
       <c r="AS56" s="13">
-        <v>2552731</v>
+        <v>3038928</v>
       </c>
       <c r="AT56" s="13">
-        <v>1680153</v>
+        <v>3861560</v>
       </c>
       <c r="AU56" s="13">
-        <v>3038928</v>
+        <v>3948718</v>
       </c>
       <c r="AV56" s="13">
-        <v>3861560</v>
+        <v>3722268</v>
       </c>
       <c r="AW56" s="13">
-        <v>4242534</v>
+        <v>3848333</v>
       </c>
       <c r="AX56" s="13">
-        <v>3731897</v>
+        <v>2959424</v>
       </c>
       <c r="AY56" s="13">
-        <v>3848333</v>
+        <v>4023052</v>
       </c>
       <c r="AZ56" s="13">
-        <v>2959424</v>
+        <v>4357508</v>
       </c>
       <c r="BA56" s="13">
-        <v>4023052</v>
+        <v>3789396</v>
       </c>
       <c r="BB56" s="13">
-        <v>4357508</v>
+        <v>4622911</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
         <v>70</v>
       </c>
@@ -7237,103 +7237,103 @@
         <v>0</v>
       </c>
       <c r="W57" s="15">
-        <v>0</v>
+        <v>2400906</v>
       </c>
       <c r="X57" s="15">
-        <v>0</v>
+        <v>2006216</v>
       </c>
       <c r="Y57" s="15">
-        <v>2400906</v>
+        <v>3549670</v>
       </c>
       <c r="Z57" s="15">
-        <v>2006216</v>
+        <v>3116143</v>
       </c>
       <c r="AA57" s="15">
-        <v>3549670</v>
+        <v>2986064</v>
       </c>
       <c r="AB57" s="15">
-        <v>3116143</v>
+        <v>2767552</v>
       </c>
       <c r="AC57" s="15">
-        <v>2986064</v>
+        <v>3831290</v>
       </c>
       <c r="AD57" s="15">
-        <v>2767552</v>
+        <v>4033903</v>
       </c>
       <c r="AE57" s="15">
-        <v>3831290</v>
+        <v>4034565</v>
       </c>
       <c r="AF57" s="15">
-        <v>4033903</v>
+        <v>2320649</v>
       </c>
       <c r="AG57" s="15">
-        <v>4034565</v>
+        <v>4428509</v>
       </c>
       <c r="AH57" s="15">
-        <v>2320649</v>
+        <v>4788493</v>
       </c>
       <c r="AI57" s="15">
-        <v>4428509</v>
+        <v>4511972</v>
       </c>
       <c r="AJ57" s="15">
-        <v>4788493</v>
+        <v>3602455</v>
       </c>
       <c r="AK57" s="15">
-        <v>4511972</v>
+        <v>4941857</v>
       </c>
       <c r="AL57" s="15">
-        <v>3602455</v>
+        <v>3888793</v>
       </c>
       <c r="AM57" s="15">
-        <v>4941857</v>
+        <v>4139023</v>
       </c>
       <c r="AN57" s="15">
-        <v>3888793</v>
+        <v>4520951</v>
       </c>
       <c r="AO57" s="15">
-        <v>4139023</v>
+        <v>4004308</v>
       </c>
       <c r="AP57" s="15">
-        <v>4520951</v>
+        <v>4131713</v>
       </c>
       <c r="AQ57" s="15">
-        <v>4004308</v>
+        <v>4486693</v>
       </c>
       <c r="AR57" s="15">
-        <v>4131713</v>
+        <v>2481181</v>
       </c>
       <c r="AS57" s="15">
-        <v>4486693</v>
+        <v>5831222</v>
       </c>
       <c r="AT57" s="15">
-        <v>2481181</v>
+        <v>5891400</v>
       </c>
       <c r="AU57" s="15">
-        <v>5831222</v>
+        <v>6427032</v>
       </c>
       <c r="AV57" s="15">
-        <v>5891400</v>
+        <v>5587654</v>
       </c>
       <c r="AW57" s="15">
-        <v>6720848</v>
+        <v>6106996</v>
       </c>
       <c r="AX57" s="15">
-        <v>5597283</v>
+        <v>5053135</v>
       </c>
       <c r="AY57" s="15">
-        <v>6106996</v>
+        <v>6676577</v>
       </c>
       <c r="AZ57" s="15">
-        <v>5053135</v>
+        <v>6129824</v>
       </c>
       <c r="BA57" s="15">
-        <v>6676577</v>
+        <v>5973022</v>
       </c>
       <c r="BB57" s="15">
-        <v>6129824</v>
+        <v>6533163</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
         <v>78</v>
       </c>
@@ -7390,7 +7390,7 @@
       <c r="BA58" s="9"/>
       <c r="BB58" s="9"/>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>56</v>
       </c>
@@ -7452,11 +7452,11 @@
       <c r="V59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X59" s="11" t="s">
-        <v>58</v>
+      <c r="W59" s="11">
+        <v>0</v>
+      </c>
+      <c r="X59" s="11">
+        <v>0</v>
       </c>
       <c r="Y59" s="11">
         <v>0</v>
@@ -7515,11 +7515,11 @@
       <c r="AQ59" s="11">
         <v>0</v>
       </c>
-      <c r="AR59" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS59" s="11">
-        <v>0</v>
+      <c r="AR59" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS59" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT59" s="11" t="s">
         <v>58</v>
@@ -7549,7 +7549,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>59</v>
       </c>
@@ -7611,11 +7611,11 @@
       <c r="V60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W60" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X60" s="13" t="s">
-        <v>58</v>
+      <c r="W60" s="13">
+        <v>0</v>
+      </c>
+      <c r="X60" s="13">
+        <v>0</v>
       </c>
       <c r="Y60" s="13">
         <v>0</v>
@@ -7674,11 +7674,11 @@
       <c r="AQ60" s="13">
         <v>0</v>
       </c>
-      <c r="AR60" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS60" s="13">
-        <v>0</v>
+      <c r="AR60" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS60" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT60" s="13" t="s">
         <v>58</v>
@@ -7689,26 +7689,26 @@
       <c r="AV60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW60" s="13" t="s">
-        <v>58</v>
+      <c r="AW60" s="13">
+        <v>15</v>
       </c>
       <c r="AX60" s="13">
         <v>0</v>
       </c>
       <c r="AY60" s="13">
-        <v>15</v>
+        <v>1001</v>
       </c>
       <c r="AZ60" s="13">
         <v>0</v>
       </c>
       <c r="BA60" s="13">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="BB60" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>60</v>
       </c>
@@ -7770,11 +7770,11 @@
       <c r="V61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X61" s="11" t="s">
-        <v>58</v>
+      <c r="W61" s="11">
+        <v>0</v>
+      </c>
+      <c r="X61" s="11">
+        <v>0</v>
       </c>
       <c r="Y61" s="11">
         <v>0</v>
@@ -7833,11 +7833,11 @@
       <c r="AQ61" s="11">
         <v>0</v>
       </c>
-      <c r="AR61" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS61" s="11">
-        <v>0</v>
+      <c r="AR61" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS61" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT61" s="11" t="s">
         <v>58</v>
@@ -7845,29 +7845,29 @@
       <c r="AU61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV61" s="11" t="s">
-        <v>58</v>
+      <c r="AV61" s="11">
+        <v>30627</v>
       </c>
       <c r="AW61" s="11">
-        <v>0</v>
+        <v>46152</v>
       </c>
       <c r="AX61" s="11">
-        <v>30627</v>
+        <v>30937</v>
       </c>
       <c r="AY61" s="11">
-        <v>46152</v>
+        <v>75739</v>
       </c>
       <c r="AZ61" s="11">
-        <v>30937</v>
+        <v>34400</v>
       </c>
       <c r="BA61" s="11">
-        <v>75739</v>
+        <v>0</v>
       </c>
       <c r="BB61" s="11">
-        <v>34400</v>
+        <v>20261</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>61</v>
       </c>
@@ -7929,11 +7929,11 @@
       <c r="V62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W62" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X62" s="13" t="s">
-        <v>58</v>
+      <c r="W62" s="13">
+        <v>0</v>
+      </c>
+      <c r="X62" s="13">
+        <v>0</v>
       </c>
       <c r="Y62" s="13">
         <v>0</v>
@@ -7992,11 +7992,11 @@
       <c r="AQ62" s="13">
         <v>0</v>
       </c>
-      <c r="AR62" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS62" s="13">
-        <v>0</v>
+      <c r="AR62" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS62" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT62" s="13" t="s">
         <v>58</v>
@@ -8004,29 +8004,29 @@
       <c r="AU62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV62" s="13" t="s">
-        <v>58</v>
+      <c r="AV62" s="13">
+        <v>58842</v>
       </c>
       <c r="AW62" s="13">
-        <v>0</v>
+        <v>61311</v>
       </c>
       <c r="AX62" s="13">
-        <v>58842</v>
+        <v>79539</v>
       </c>
       <c r="AY62" s="13">
-        <v>61311</v>
+        <v>21930</v>
       </c>
       <c r="AZ62" s="13">
-        <v>79539</v>
+        <v>12482</v>
       </c>
       <c r="BA62" s="13">
-        <v>21930</v>
+        <v>0</v>
       </c>
       <c r="BB62" s="13">
-        <v>12482</v>
+        <v>8698</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="14" t="s">
         <v>72</v>
       </c>
@@ -8162,28 +8162,28 @@
         <v>0</v>
       </c>
       <c r="AV63" s="15">
-        <v>0</v>
+        <v>89469</v>
       </c>
       <c r="AW63" s="15">
-        <v>0</v>
+        <v>107478</v>
       </c>
       <c r="AX63" s="15">
-        <v>89469</v>
+        <v>110476</v>
       </c>
       <c r="AY63" s="15">
-        <v>107478</v>
+        <v>98670</v>
       </c>
       <c r="AZ63" s="15">
-        <v>110476</v>
+        <v>46882</v>
       </c>
       <c r="BA63" s="15">
-        <v>98670</v>
+        <v>0</v>
       </c>
       <c r="BB63" s="15">
-        <v>46882</v>
+        <v>28959</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="16" t="s">
         <v>79</v>
       </c>
@@ -8240,7 +8240,7 @@
       <c r="BA64" s="17"/>
       <c r="BB64" s="17"/>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
         <v>66</v>
       </c>
@@ -8302,11 +8302,11 @@
       <c r="V65" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W65" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X65" s="15" t="s">
-        <v>58</v>
+      <c r="W65" s="15">
+        <v>0</v>
+      </c>
+      <c r="X65" s="15">
+        <v>0</v>
       </c>
       <c r="Y65" s="15">
         <v>0</v>
@@ -8399,7 +8399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="16" t="s">
         <v>80</v>
       </c>
@@ -8456,7 +8456,7 @@
       <c r="BA66" s="17"/>
       <c r="BB66" s="17"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
         <v>74</v>
       </c>
@@ -8518,11 +8518,11 @@
       <c r="V67" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W67" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X67" s="15" t="s">
-        <v>58</v>
+      <c r="W67" s="15">
+        <v>0</v>
+      </c>
+      <c r="X67" s="15">
+        <v>0</v>
       </c>
       <c r="Y67" s="15">
         <v>0</v>
@@ -8615,7 +8615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="8" t="s">
         <v>81</v>
       </c>
@@ -8672,7 +8672,7 @@
       <c r="BA68" s="9"/>
       <c r="BB68" s="9"/>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="10" t="s">
         <v>82</v>
       </c>
@@ -8734,11 +8734,11 @@
       <c r="V69" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W69" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X69" s="11" t="s">
-        <v>58</v>
+      <c r="W69" s="11">
+        <v>0</v>
+      </c>
+      <c r="X69" s="11">
+        <v>0</v>
       </c>
       <c r="Y69" s="11">
         <v>0</v>
@@ -8831,7 +8831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="18" t="s">
         <v>67</v>
       </c>
@@ -8892,103 +8892,103 @@
         <v>0</v>
       </c>
       <c r="W70" s="19">
-        <v>0</v>
+        <v>2400906</v>
       </c>
       <c r="X70" s="19">
-        <v>0</v>
+        <v>2006216</v>
       </c>
       <c r="Y70" s="19">
-        <v>2400906</v>
+        <v>3549670</v>
       </c>
       <c r="Z70" s="19">
-        <v>2006216</v>
+        <v>3116143</v>
       </c>
       <c r="AA70" s="19">
-        <v>3549670</v>
+        <v>2986064</v>
       </c>
       <c r="AB70" s="19">
-        <v>3116143</v>
+        <v>2767552</v>
       </c>
       <c r="AC70" s="19">
-        <v>2986064</v>
+        <v>3831290</v>
       </c>
       <c r="AD70" s="19">
-        <v>2767552</v>
+        <v>4033903</v>
       </c>
       <c r="AE70" s="19">
-        <v>3831290</v>
+        <v>4034565</v>
       </c>
       <c r="AF70" s="19">
-        <v>4033903</v>
+        <v>2320649</v>
       </c>
       <c r="AG70" s="19">
-        <v>4034565</v>
+        <v>4428509</v>
       </c>
       <c r="AH70" s="19">
-        <v>2320649</v>
+        <v>4788493</v>
       </c>
       <c r="AI70" s="19">
-        <v>4428509</v>
+        <v>4511972</v>
       </c>
       <c r="AJ70" s="19">
-        <v>4788493</v>
+        <v>3602455</v>
       </c>
       <c r="AK70" s="19">
-        <v>4511972</v>
+        <v>4941857</v>
       </c>
       <c r="AL70" s="19">
-        <v>3602455</v>
+        <v>3888793</v>
       </c>
       <c r="AM70" s="19">
-        <v>4941857</v>
+        <v>4139023</v>
       </c>
       <c r="AN70" s="19">
-        <v>3888793</v>
+        <v>4520951</v>
       </c>
       <c r="AO70" s="19">
-        <v>4139023</v>
+        <v>4004308</v>
       </c>
       <c r="AP70" s="19">
-        <v>4520951</v>
+        <v>4131713</v>
       </c>
       <c r="AQ70" s="19">
-        <v>4004308</v>
+        <v>4486693</v>
       </c>
       <c r="AR70" s="19">
-        <v>4131713</v>
+        <v>2481181</v>
       </c>
       <c r="AS70" s="19">
-        <v>4486693</v>
+        <v>5831222</v>
       </c>
       <c r="AT70" s="19">
-        <v>2481181</v>
+        <v>5891400</v>
       </c>
       <c r="AU70" s="19">
-        <v>5831222</v>
+        <v>6427032</v>
       </c>
       <c r="AV70" s="19">
-        <v>5891400</v>
+        <v>5677123</v>
       </c>
       <c r="AW70" s="19">
-        <v>6720848</v>
+        <v>6214474</v>
       </c>
       <c r="AX70" s="19">
-        <v>5686752</v>
+        <v>5163611</v>
       </c>
       <c r="AY70" s="19">
-        <v>6214474</v>
+        <v>6775247</v>
       </c>
       <c r="AZ70" s="19">
-        <v>5163611</v>
+        <v>6176706</v>
       </c>
       <c r="BA70" s="19">
-        <v>6775247</v>
+        <v>5973022</v>
       </c>
       <c r="BB70" s="19">
-        <v>6176706</v>
+        <v>6562122</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -9043,7 +9043,7 @@
       <c r="BA71" s="1"/>
       <c r="BB71" s="1"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -9098,7 +9098,7 @@
       <c r="BA72" s="1"/>
       <c r="BB72" s="1"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -9153,7 +9153,7 @@
       <c r="BA73" s="1"/>
       <c r="BB73" s="1"/>
     </row>
-    <row r="74" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
         <v>83</v>
       </c>
@@ -9310,7 +9310,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -9365,7 +9365,7 @@
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
         <v>84</v>
       </c>
@@ -9422,7 +9422,7 @@
       <c r="BA76" s="9"/>
       <c r="BB76" s="9"/>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>56</v>
       </c>
@@ -9484,104 +9484,104 @@
       <c r="V77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X77" s="11" t="s">
-        <v>58</v>
+      <c r="W77" s="11">
+        <v>306705</v>
+      </c>
+      <c r="X77" s="11">
+        <v>314775</v>
       </c>
       <c r="Y77" s="11">
-        <v>306705</v>
+        <v>315823</v>
       </c>
       <c r="Z77" s="11">
-        <v>314775</v>
+        <v>302687</v>
       </c>
       <c r="AA77" s="11">
-        <v>315823</v>
+        <v>295995</v>
       </c>
       <c r="AB77" s="11">
-        <v>302687</v>
+        <v>299294</v>
       </c>
       <c r="AC77" s="11">
-        <v>295995</v>
+        <v>290509</v>
       </c>
       <c r="AD77" s="11">
-        <v>299294</v>
+        <v>294279</v>
       </c>
       <c r="AE77" s="11">
-        <v>290509</v>
+        <v>300777</v>
       </c>
       <c r="AF77" s="11">
-        <v>294279</v>
+        <v>300582</v>
       </c>
       <c r="AG77" s="11">
-        <v>300777</v>
+        <v>294170</v>
       </c>
       <c r="AH77" s="11">
-        <v>300582</v>
+        <v>290450</v>
       </c>
       <c r="AI77" s="11">
-        <v>294170</v>
+        <v>291762</v>
       </c>
       <c r="AJ77" s="11">
-        <v>290450</v>
+        <v>294797</v>
       </c>
       <c r="AK77" s="11">
-        <v>291762</v>
+        <v>287252</v>
       </c>
       <c r="AL77" s="11">
-        <v>294797</v>
+        <v>289276</v>
       </c>
       <c r="AM77" s="11">
-        <v>287252</v>
+        <v>295687</v>
       </c>
       <c r="AN77" s="11">
-        <v>289276</v>
+        <v>291891</v>
       </c>
       <c r="AO77" s="11">
-        <v>295687</v>
+        <v>289166</v>
       </c>
       <c r="AP77" s="11">
-        <v>291891</v>
+        <v>386045</v>
       </c>
       <c r="AQ77" s="11">
-        <v>289166</v>
+        <v>350136</v>
       </c>
       <c r="AR77" s="11">
-        <v>386045</v>
+        <v>350893</v>
       </c>
       <c r="AS77" s="11">
-        <v>350136</v>
+        <v>480254</v>
       </c>
       <c r="AT77" s="11">
-        <v>350893</v>
+        <v>399817</v>
       </c>
       <c r="AU77" s="11">
-        <v>480254</v>
+        <v>458776</v>
       </c>
       <c r="AV77" s="11">
-        <v>399817</v>
+        <v>471292</v>
       </c>
       <c r="AW77" s="11">
-        <v>458776</v>
+        <v>479156</v>
       </c>
       <c r="AX77" s="11">
-        <v>471292</v>
+        <v>544037</v>
       </c>
       <c r="AY77" s="11">
-        <v>479156</v>
+        <v>614576</v>
       </c>
       <c r="AZ77" s="11">
-        <v>544037</v>
+        <v>580464</v>
       </c>
       <c r="BA77" s="11">
-        <v>614576</v>
+        <v>571733</v>
       </c>
       <c r="BB77" s="11">
-        <v>580464</v>
+        <v>578909</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>59</v>
       </c>
@@ -9643,104 +9643,104 @@
       <c r="V78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W78" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X78" s="13" t="s">
-        <v>58</v>
+      <c r="W78" s="13">
+        <v>503312</v>
+      </c>
+      <c r="X78" s="13">
+        <v>550378</v>
       </c>
       <c r="Y78" s="13">
-        <v>503312</v>
+        <v>578137</v>
       </c>
       <c r="Z78" s="13">
-        <v>550378</v>
+        <v>576716</v>
       </c>
       <c r="AA78" s="13">
-        <v>578137</v>
+        <v>575645</v>
       </c>
       <c r="AB78" s="13">
-        <v>576716</v>
+        <v>583188</v>
       </c>
       <c r="AC78" s="13">
-        <v>575645</v>
+        <v>569608</v>
       </c>
       <c r="AD78" s="13">
-        <v>583188</v>
+        <v>582180</v>
       </c>
       <c r="AE78" s="13">
-        <v>569608</v>
+        <v>576844</v>
       </c>
       <c r="AF78" s="13">
-        <v>582180</v>
+        <v>574559</v>
       </c>
       <c r="AG78" s="13">
-        <v>576844</v>
+        <v>578913</v>
       </c>
       <c r="AH78" s="13">
-        <v>574559</v>
+        <v>581402</v>
       </c>
       <c r="AI78" s="13">
-        <v>578913</v>
+        <v>566914</v>
       </c>
       <c r="AJ78" s="13">
-        <v>581402</v>
+        <v>575112</v>
       </c>
       <c r="AK78" s="13">
-        <v>566914</v>
+        <v>565548</v>
       </c>
       <c r="AL78" s="13">
-        <v>575112</v>
+        <v>577982</v>
       </c>
       <c r="AM78" s="13">
-        <v>565548</v>
+        <v>581754</v>
       </c>
       <c r="AN78" s="13">
-        <v>577982</v>
+        <v>567375</v>
       </c>
       <c r="AO78" s="13">
-        <v>581754</v>
+        <v>581111</v>
       </c>
       <c r="AP78" s="13">
-        <v>567375</v>
+        <v>740031</v>
       </c>
       <c r="AQ78" s="13">
-        <v>581111</v>
+        <v>739192</v>
       </c>
       <c r="AR78" s="13">
-        <v>740031</v>
+        <v>740616</v>
       </c>
       <c r="AS78" s="13">
-        <v>739192</v>
+        <v>752527</v>
       </c>
       <c r="AT78" s="13">
-        <v>740616</v>
+        <v>715300</v>
       </c>
       <c r="AU78" s="13">
-        <v>752527</v>
+        <v>735907</v>
       </c>
       <c r="AV78" s="13">
-        <v>715300</v>
+        <v>858394</v>
       </c>
       <c r="AW78" s="13">
-        <v>735907</v>
+        <v>887698</v>
       </c>
       <c r="AX78" s="13">
-        <v>858394</v>
+        <v>1077658</v>
       </c>
       <c r="AY78" s="13">
-        <v>887698</v>
+        <v>1113694</v>
       </c>
       <c r="AZ78" s="13">
-        <v>1077658</v>
+        <v>1097172</v>
       </c>
       <c r="BA78" s="13">
-        <v>1113694</v>
+        <v>1060785</v>
       </c>
       <c r="BB78" s="13">
-        <v>1097172</v>
+        <v>1070761</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>60</v>
       </c>
@@ -9802,104 +9802,104 @@
       <c r="V79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X79" s="11" t="s">
-        <v>58</v>
+      <c r="W79" s="11">
+        <v>328893</v>
+      </c>
+      <c r="X79" s="11">
+        <v>376941</v>
       </c>
       <c r="Y79" s="11">
-        <v>328893</v>
+        <v>415995</v>
       </c>
       <c r="Z79" s="11">
-        <v>376941</v>
+        <v>405545</v>
       </c>
       <c r="AA79" s="11">
-        <v>415995</v>
+        <v>408573</v>
       </c>
       <c r="AB79" s="11">
-        <v>405545</v>
+        <v>420444</v>
       </c>
       <c r="AC79" s="11">
-        <v>408573</v>
+        <v>504978</v>
       </c>
       <c r="AD79" s="11">
-        <v>420444</v>
+        <v>525014</v>
       </c>
       <c r="AE79" s="11">
-        <v>504978</v>
+        <v>643282</v>
       </c>
       <c r="AF79" s="11">
-        <v>525014</v>
+        <v>542330</v>
       </c>
       <c r="AG79" s="11">
-        <v>643282</v>
+        <v>550814</v>
       </c>
       <c r="AH79" s="11">
-        <v>542330</v>
+        <v>549417</v>
       </c>
       <c r="AI79" s="11">
-        <v>550814</v>
+        <v>550561</v>
       </c>
       <c r="AJ79" s="11">
-        <v>549417</v>
+        <v>547982</v>
       </c>
       <c r="AK79" s="11">
-        <v>550561</v>
+        <v>548345</v>
       </c>
       <c r="AL79" s="11">
-        <v>547982</v>
+        <v>539834</v>
       </c>
       <c r="AM79" s="11">
-        <v>548345</v>
+        <v>543543</v>
       </c>
       <c r="AN79" s="11">
-        <v>539834</v>
+        <v>624810</v>
       </c>
       <c r="AO79" s="11">
-        <v>543543</v>
+        <v>616443</v>
       </c>
       <c r="AP79" s="11">
-        <v>624810</v>
+        <v>597789</v>
       </c>
       <c r="AQ79" s="11">
-        <v>616443</v>
+        <v>648161</v>
       </c>
       <c r="AR79" s="11">
-        <v>597789</v>
+        <v>597741</v>
       </c>
       <c r="AS79" s="11">
-        <v>648161</v>
+        <v>620672</v>
       </c>
       <c r="AT79" s="11">
-        <v>597741</v>
+        <v>684449</v>
       </c>
       <c r="AU79" s="11">
-        <v>620672</v>
+        <v>721433</v>
       </c>
       <c r="AV79" s="11">
-        <v>684449</v>
+        <v>729268</v>
       </c>
       <c r="AW79" s="11">
-        <v>721433</v>
+        <v>754984</v>
       </c>
       <c r="AX79" s="11">
-        <v>729268</v>
+        <v>792557</v>
       </c>
       <c r="AY79" s="11">
-        <v>754984</v>
+        <v>818208</v>
       </c>
       <c r="AZ79" s="11">
-        <v>792557</v>
+        <v>829624</v>
       </c>
       <c r="BA79" s="11">
-        <v>818208</v>
+        <v>820968</v>
       </c>
       <c r="BB79" s="11">
-        <v>829624</v>
+        <v>824454</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
         <v>61</v>
       </c>
@@ -9961,104 +9961,104 @@
       <c r="V80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W80" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X80" s="13" t="s">
-        <v>58</v>
+      <c r="W80" s="13">
+        <v>291091</v>
+      </c>
+      <c r="X80" s="13">
+        <v>346844</v>
       </c>
       <c r="Y80" s="13">
-        <v>291091</v>
+        <v>411781</v>
       </c>
       <c r="Z80" s="13">
-        <v>346844</v>
+        <v>383694</v>
       </c>
       <c r="AA80" s="13">
-        <v>411781</v>
+        <v>398841</v>
       </c>
       <c r="AB80" s="13">
-        <v>383694</v>
+        <v>488954</v>
       </c>
       <c r="AC80" s="13">
-        <v>398841</v>
+        <v>531741</v>
       </c>
       <c r="AD80" s="13">
-        <v>488954</v>
+        <v>577119</v>
       </c>
       <c r="AE80" s="13">
-        <v>531741</v>
+        <v>557771</v>
       </c>
       <c r="AF80" s="13">
-        <v>577119</v>
+        <v>538214</v>
       </c>
       <c r="AG80" s="13">
-        <v>557771</v>
+        <v>528048</v>
       </c>
       <c r="AH80" s="13">
-        <v>538214</v>
+        <v>523852</v>
       </c>
       <c r="AI80" s="13">
-        <v>528048</v>
+        <v>542727</v>
       </c>
       <c r="AJ80" s="13">
-        <v>523852</v>
+        <v>536376</v>
       </c>
       <c r="AK80" s="13">
-        <v>542727</v>
+        <v>546104</v>
       </c>
       <c r="AL80" s="13">
-        <v>536376</v>
+        <v>537761</v>
       </c>
       <c r="AM80" s="13">
-        <v>546104</v>
+        <v>546516</v>
       </c>
       <c r="AN80" s="13">
-        <v>537761</v>
+        <v>576893</v>
       </c>
       <c r="AO80" s="13">
-        <v>546516</v>
+        <v>594261</v>
       </c>
       <c r="AP80" s="13">
-        <v>576893</v>
+        <v>581885</v>
       </c>
       <c r="AQ80" s="13">
-        <v>594261</v>
+        <v>607603</v>
       </c>
       <c r="AR80" s="13">
-        <v>581885</v>
+        <v>615458</v>
       </c>
       <c r="AS80" s="13">
-        <v>607603</v>
+        <v>625178</v>
       </c>
       <c r="AT80" s="13">
-        <v>615458</v>
+        <v>699223</v>
       </c>
       <c r="AU80" s="13">
-        <v>625178</v>
+        <v>728732</v>
       </c>
       <c r="AV80" s="13">
-        <v>699223</v>
+        <v>812262</v>
       </c>
       <c r="AW80" s="13">
-        <v>744587</v>
+        <v>728100</v>
       </c>
       <c r="AX80" s="13">
-        <v>812284</v>
+        <v>793736</v>
       </c>
       <c r="AY80" s="13">
-        <v>728100</v>
+        <v>810764</v>
       </c>
       <c r="AZ80" s="13">
-        <v>793736</v>
+        <v>808008</v>
       </c>
       <c r="BA80" s="13">
-        <v>810764</v>
+        <v>819673</v>
       </c>
       <c r="BB80" s="13">
-        <v>808008</v>
+        <v>846722</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
         <v>86</v>
       </c>
@@ -10115,7 +10115,7 @@
       <c r="BA81" s="9"/>
       <c r="BB81" s="9"/>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
         <v>59</v>
       </c>
@@ -10255,26 +10255,26 @@
       <c r="AV82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW82" s="11" t="s">
-        <v>58</v>
+      <c r="AW82" s="11">
+        <v>1071429</v>
       </c>
       <c r="AX82" s="11" t="s">
         <v>58</v>
       </c>
       <c r="AY82" s="11">
-        <v>1071429</v>
+        <v>729060</v>
       </c>
       <c r="AZ82" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="BA82" s="11">
-        <v>729060</v>
+      <c r="BA82" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BB82" s="11" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
         <v>60</v>
       </c>
@@ -10411,29 +10411,29 @@
       <c r="AU83" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV83" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW83" s="13" t="s">
-        <v>58</v>
+      <c r="AV83" s="13">
+        <v>684203</v>
+      </c>
+      <c r="AW83" s="13">
+        <v>745409</v>
       </c>
       <c r="AX83" s="13">
-        <v>684203</v>
+        <v>751902</v>
       </c>
       <c r="AY83" s="13">
-        <v>745409</v>
+        <v>770316</v>
       </c>
       <c r="AZ83" s="13">
-        <v>751902</v>
-      </c>
-      <c r="BA83" s="13">
-        <v>770316</v>
+        <v>799981</v>
+      </c>
+      <c r="BA83" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB83" s="13">
-        <v>799981</v>
+        <v>818924</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="10" t="s">
         <v>61</v>
       </c>
@@ -10570,26 +10570,26 @@
       <c r="AU84" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV84" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW84" s="11" t="s">
-        <v>58</v>
+      <c r="AV84" s="11">
+        <v>696833</v>
+      </c>
+      <c r="AW84" s="11">
+        <v>725789</v>
       </c>
       <c r="AX84" s="11">
-        <v>696833</v>
+        <v>732026</v>
       </c>
       <c r="AY84" s="11">
-        <v>725789</v>
+        <v>821625</v>
       </c>
       <c r="AZ84" s="11">
-        <v>732026</v>
-      </c>
-      <c r="BA84" s="11">
-        <v>821625</v>
+        <v>803528</v>
+      </c>
+      <c r="BA84" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BB84" s="11">
-        <v>803528</v>
+        <v>820721</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/lastic/pekerman/product/monthly_seprated.xlsx
+++ b/database/industries/lastic/pekerman/product/monthly_seprated.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="87">
   <si>
     <t xml:space="preserve">Pouya Finance</t>
   </si>
@@ -81,7 +81,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -100,7 +100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/11</t>
+      <t xml:space="preserve">1397/12</t>
     </r>
   </si>
   <si>
@@ -121,7 +121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -140,7 +140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1397/12</t>
+      <t xml:space="preserve">1398/01</t>
     </r>
   </si>
   <si>
@@ -161,7 +161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -180,7 +180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/01</t>
+      <t xml:space="preserve">1398/02</t>
     </r>
   </si>
   <si>
@@ -201,7 +201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -220,7 +220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/02</t>
+      <t xml:space="preserve">1398/03</t>
     </r>
   </si>
   <si>
@@ -241,7 +241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -260,7 +260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/03</t>
+      <t xml:space="preserve">1398/04</t>
     </r>
   </si>
   <si>
@@ -281,7 +281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -300,7 +300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/04</t>
+      <t xml:space="preserve">1398/05</t>
     </r>
   </si>
   <si>
@@ -321,7 +321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -340,7 +340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/05</t>
+      <t xml:space="preserve">1398/06</t>
     </r>
   </si>
   <si>
@@ -361,7 +361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -380,7 +380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/06</t>
+      <t xml:space="preserve">1398/07</t>
     </r>
   </si>
   <si>
@@ -401,7 +401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -420,7 +420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/07</t>
+      <t xml:space="preserve">1398/08</t>
     </r>
   </si>
   <si>
@@ -441,7 +441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -460,7 +460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/08</t>
+      <t xml:space="preserve">1398/09</t>
     </r>
   </si>
   <si>
@@ -481,7 +481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -500,7 +500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/09</t>
+      <t xml:space="preserve">1398/10</t>
     </r>
   </si>
   <si>
@@ -521,7 +521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -540,7 +540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/10</t>
+      <t xml:space="preserve">1398/11</t>
     </r>
   </si>
   <si>
@@ -561,7 +561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -580,7 +580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/11</t>
+      <t xml:space="preserve">1398/12</t>
     </r>
   </si>
   <si>
@@ -601,7 +601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -620,7 +620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1398/12</t>
+      <t xml:space="preserve">1399/01</t>
     </r>
   </si>
   <si>
@@ -641,7 +641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -660,7 +660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/01</t>
+      <t xml:space="preserve">1399/02</t>
     </r>
   </si>
   <si>
@@ -681,7 +681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -700,7 +700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/02</t>
+      <t xml:space="preserve">1399/03</t>
     </r>
   </si>
   <si>
@@ -721,7 +721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -740,7 +740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/03</t>
+      <t xml:space="preserve">1399/04</t>
     </r>
   </si>
   <si>
@@ -761,7 +761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -780,7 +780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/04</t>
+      <t xml:space="preserve">1399/05</t>
     </r>
   </si>
   <si>
@@ -801,7 +801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -820,7 +820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/05</t>
+      <t xml:space="preserve">1399/06</t>
     </r>
   </si>
   <si>
@@ -841,7 +841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -860,7 +860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/06</t>
+      <t xml:space="preserve">1399/07</t>
     </r>
   </si>
   <si>
@@ -881,7 +881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -900,7 +900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/07</t>
+      <t xml:space="preserve">1399/08</t>
     </r>
   </si>
   <si>
@@ -921,7 +921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -940,7 +940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/08</t>
+      <t xml:space="preserve">1399/09</t>
     </r>
   </si>
   <si>
@@ -961,7 +961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -980,7 +980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/09</t>
+      <t xml:space="preserve">1399/10</t>
     </r>
   </si>
   <si>
@@ -1001,7 +1001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1020,7 +1020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/10</t>
+      <t xml:space="preserve">1399/11</t>
     </r>
   </si>
   <si>
@@ -1041,7 +1041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1060,7 +1060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/11</t>
+      <t xml:space="preserve">1399/12</t>
     </r>
   </si>
   <si>
@@ -1081,7 +1081,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1100,7 +1100,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1399/12</t>
+      <t xml:space="preserve">1400/01</t>
     </r>
   </si>
   <si>
@@ -1121,7 +1121,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1140,7 +1140,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/01</t>
+      <t xml:space="preserve">1400/02</t>
     </r>
   </si>
   <si>
@@ -1161,7 +1161,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1180,7 +1180,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/02</t>
+      <t xml:space="preserve">1400/03</t>
     </r>
   </si>
   <si>
@@ -1201,7 +1201,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1220,7 +1220,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/03</t>
+      <t xml:space="preserve">1400/04</t>
     </r>
   </si>
   <si>
@@ -1241,7 +1241,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1260,7 +1260,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/04</t>
+      <t xml:space="preserve">1400/05</t>
     </r>
   </si>
   <si>
@@ -1281,7 +1281,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1300,7 +1300,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/05</t>
+      <t xml:space="preserve">1400/06</t>
     </r>
   </si>
   <si>
@@ -1321,7 +1321,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1340,7 +1340,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/06</t>
+      <t xml:space="preserve">1400/07</t>
     </r>
   </si>
   <si>
@@ -1361,7 +1361,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1380,7 +1380,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/07</t>
+      <t xml:space="preserve">1400/08</t>
     </r>
   </si>
   <si>
@@ -1401,7 +1401,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1420,7 +1420,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/08</t>
+      <t xml:space="preserve">1400/09</t>
     </r>
   </si>
   <si>
@@ -1441,7 +1441,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1460,7 +1460,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/09</t>
+      <t xml:space="preserve">1400/10</t>
     </r>
   </si>
   <si>
@@ -1481,7 +1481,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1500,7 +1500,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/10</t>
+      <t xml:space="preserve">1400/11</t>
     </r>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -1540,7 +1540,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/11</t>
+      <t xml:space="preserve">1400/12</t>
     </r>
   </si>
   <si>
@@ -1561,7 +1561,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -1580,7 +1580,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1400/12</t>
+      <t xml:space="preserve">1401/01</t>
     </r>
   </si>
   <si>
@@ -1601,7 +1601,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1 </t>
+      <t xml:space="preserve">2 </t>
     </r>
     <r>
       <rPr>
@@ -1620,7 +1620,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/01</t>
+      <t xml:space="preserve">1401/02</t>
     </r>
   </si>
   <si>
@@ -1641,7 +1641,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">2 </t>
+      <t xml:space="preserve">3 </t>
     </r>
     <r>
       <rPr>
@@ -1660,7 +1660,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/02</t>
+      <t xml:space="preserve">1401/03</t>
     </r>
   </si>
   <si>
@@ -1681,7 +1681,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">3 </t>
+      <t xml:space="preserve">4 </t>
     </r>
     <r>
       <rPr>
@@ -1700,7 +1700,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/03</t>
+      <t xml:space="preserve">1401/04</t>
     </r>
   </si>
   <si>
@@ -1721,7 +1721,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">4 </t>
+      <t xml:space="preserve">5 </t>
     </r>
     <r>
       <rPr>
@@ -1740,7 +1740,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/04</t>
+      <t xml:space="preserve">1401/05</t>
     </r>
   </si>
   <si>
@@ -1761,7 +1761,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">5 </t>
+      <t xml:space="preserve">6 </t>
     </r>
     <r>
       <rPr>
@@ -1780,7 +1780,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/05</t>
+      <t xml:space="preserve">1401/06</t>
     </r>
   </si>
   <si>
@@ -1801,7 +1801,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">6 </t>
+      <t xml:space="preserve">7 </t>
     </r>
     <r>
       <rPr>
@@ -1820,7 +1820,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/06</t>
+      <t xml:space="preserve">1401/07</t>
     </r>
   </si>
   <si>
@@ -1841,7 +1841,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">7 </t>
+      <t xml:space="preserve">8 </t>
     </r>
     <r>
       <rPr>
@@ -1860,7 +1860,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/07</t>
+      <t xml:space="preserve">1401/08</t>
     </r>
   </si>
   <si>
@@ -1881,7 +1881,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">8 </t>
+      <t xml:space="preserve">9 </t>
     </r>
     <r>
       <rPr>
@@ -1900,7 +1900,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/08</t>
+      <t xml:space="preserve">1401/09</t>
     </r>
   </si>
   <si>
@@ -1921,7 +1921,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">9 </t>
+      <t xml:space="preserve">10 </t>
     </r>
     <r>
       <rPr>
@@ -1940,7 +1940,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/09</t>
+      <t xml:space="preserve">1401/10</t>
     </r>
   </si>
   <si>
@@ -1961,7 +1961,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t xml:space="preserve">11 </t>
     </r>
     <r>
       <rPr>
@@ -1980,7 +1980,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/10</t>
+      <t xml:space="preserve">1401/11</t>
     </r>
   </si>
   <si>
@@ -2001,7 +2001,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">11 </t>
+      <t xml:space="preserve">12 </t>
     </r>
     <r>
       <rPr>
@@ -2020,7 +2020,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/11</t>
+      <t xml:space="preserve">1401/12</t>
     </r>
   </si>
   <si>
@@ -2041,7 +2041,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">12 </t>
+      <t xml:space="preserve">1 </t>
     </r>
     <r>
       <rPr>
@@ -2060,7 +2060,7 @@
         <family val="0"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">1401/12</t>
+      <t xml:space="preserve">1402/01</t>
     </r>
   </si>
   <si>
@@ -3293,107 +3293,107 @@
       <c r="T11" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U11" s="13" t="s">
-        <v>58</v>
+      <c r="U11" s="13" t="n">
+        <v>133862</v>
       </c>
       <c r="V11" s="13" t="n">
-        <v>133862</v>
+        <v>192349</v>
       </c>
       <c r="W11" s="13" t="n">
-        <v>192349</v>
+        <v>160459</v>
       </c>
       <c r="X11" s="13" t="n">
-        <v>160459</v>
+        <v>147792</v>
       </c>
       <c r="Y11" s="13" t="n">
-        <v>147792</v>
+        <v>124953</v>
       </c>
       <c r="Z11" s="13" t="n">
-        <v>124953</v>
+        <v>123835</v>
       </c>
       <c r="AA11" s="13" t="n">
-        <v>123835</v>
+        <v>129275</v>
       </c>
       <c r="AB11" s="13" t="n">
-        <v>129275</v>
+        <v>163599</v>
       </c>
       <c r="AC11" s="13" t="n">
-        <v>163599</v>
+        <v>196055</v>
       </c>
       <c r="AD11" s="13" t="n">
-        <v>196055</v>
+        <v>111434</v>
       </c>
       <c r="AE11" s="13" t="n">
-        <v>111434</v>
+        <v>152945</v>
       </c>
       <c r="AF11" s="13" t="n">
-        <v>152945</v>
+        <v>155975</v>
       </c>
       <c r="AG11" s="13" t="n">
-        <v>155975</v>
+        <v>142096</v>
       </c>
       <c r="AH11" s="13" t="n">
-        <v>142096</v>
+        <v>120974</v>
       </c>
       <c r="AI11" s="13" t="n">
-        <v>120974</v>
+        <v>131422</v>
       </c>
       <c r="AJ11" s="13" t="n">
-        <v>131422</v>
+        <v>135395</v>
       </c>
       <c r="AK11" s="13" t="n">
-        <v>135395</v>
+        <v>132289</v>
       </c>
       <c r="AL11" s="13" t="n">
-        <v>132289</v>
+        <v>137703</v>
       </c>
       <c r="AM11" s="13" t="n">
-        <v>137703</v>
+        <v>150376</v>
       </c>
       <c r="AN11" s="13" t="n">
-        <v>150376</v>
+        <v>98751</v>
       </c>
       <c r="AO11" s="13" t="n">
-        <v>98751</v>
+        <v>83857</v>
       </c>
       <c r="AP11" s="13" t="n">
-        <v>83857</v>
+        <v>55707</v>
       </c>
       <c r="AQ11" s="13" t="n">
-        <v>55707</v>
+        <v>63774</v>
       </c>
       <c r="AR11" s="13" t="n">
-        <v>63774</v>
+        <v>96015</v>
       </c>
       <c r="AS11" s="13" t="n">
-        <v>96015</v>
+        <v>104375</v>
       </c>
       <c r="AT11" s="13" t="n">
-        <v>104375</v>
+        <v>97588</v>
       </c>
       <c r="AU11" s="13" t="n">
-        <v>97588</v>
+        <v>106321</v>
       </c>
       <c r="AV11" s="13" t="n">
-        <v>106321</v>
+        <v>107491</v>
       </c>
       <c r="AW11" s="13" t="n">
-        <v>107491</v>
+        <v>135177</v>
       </c>
       <c r="AX11" s="13" t="n">
-        <v>135177</v>
+        <v>136180</v>
       </c>
       <c r="AY11" s="13" t="n">
-        <v>136180</v>
+        <v>128226</v>
       </c>
       <c r="AZ11" s="13" t="n">
-        <v>128226</v>
+        <v>145562</v>
       </c>
       <c r="BA11" s="13" t="n">
-        <v>145562</v>
+        <v>176437</v>
       </c>
       <c r="BB11" s="13" t="n">
-        <v>176437</v>
+        <v>127980</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3452,107 +3452,107 @@
       <c r="T12" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U12" s="16" t="s">
-        <v>58</v>
+      <c r="U12" s="16" t="n">
+        <v>244820</v>
       </c>
       <c r="V12" s="16" t="n">
-        <v>244820</v>
+        <v>286880</v>
       </c>
       <c r="W12" s="16" t="n">
-        <v>286880</v>
+        <v>316978</v>
       </c>
       <c r="X12" s="16" t="n">
-        <v>316978</v>
+        <v>275490</v>
       </c>
       <c r="Y12" s="16" t="n">
-        <v>275490</v>
+        <v>298710</v>
       </c>
       <c r="Z12" s="16" t="n">
-        <v>298710</v>
+        <v>301000</v>
       </c>
       <c r="AA12" s="16" t="n">
-        <v>301000</v>
+        <v>302677</v>
       </c>
       <c r="AB12" s="16" t="n">
-        <v>302677</v>
+        <v>321774</v>
       </c>
       <c r="AC12" s="16" t="n">
-        <v>321774</v>
+        <v>300944</v>
       </c>
       <c r="AD12" s="16" t="n">
-        <v>300944</v>
+        <v>170432</v>
       </c>
       <c r="AE12" s="16" t="n">
-        <v>170432</v>
+        <v>300451</v>
       </c>
       <c r="AF12" s="16" t="n">
-        <v>300451</v>
+        <v>303856</v>
       </c>
       <c r="AG12" s="16" t="n">
-        <v>303856</v>
+        <v>293876</v>
       </c>
       <c r="AH12" s="16" t="n">
-        <v>293876</v>
+        <v>200669</v>
       </c>
       <c r="AI12" s="16" t="n">
-        <v>200669</v>
+        <v>255651</v>
       </c>
       <c r="AJ12" s="16" t="n">
-        <v>255651</v>
+        <v>262963</v>
       </c>
       <c r="AK12" s="16" t="n">
-        <v>262963</v>
+        <v>262524</v>
       </c>
       <c r="AL12" s="16" t="n">
-        <v>262524</v>
+        <v>266704</v>
       </c>
       <c r="AM12" s="16" t="n">
-        <v>266704</v>
+        <v>270866</v>
       </c>
       <c r="AN12" s="16" t="n">
-        <v>270866</v>
+        <v>241075</v>
       </c>
       <c r="AO12" s="16" t="n">
-        <v>241075</v>
+        <v>255272</v>
       </c>
       <c r="AP12" s="16" t="n">
-        <v>255272</v>
+        <v>92280</v>
       </c>
       <c r="AQ12" s="16" t="n">
-        <v>92280</v>
+        <v>171554</v>
       </c>
       <c r="AR12" s="16" t="n">
-        <v>171554</v>
+        <v>210493</v>
       </c>
       <c r="AS12" s="16" t="n">
-        <v>210493</v>
+        <v>219954</v>
       </c>
       <c r="AT12" s="16" t="n">
-        <v>219954</v>
+        <v>153426</v>
       </c>
       <c r="AU12" s="16" t="n">
-        <v>153426</v>
+        <v>265597</v>
       </c>
       <c r="AV12" s="16" t="n">
-        <v>265597</v>
+        <v>280858</v>
       </c>
       <c r="AW12" s="16" t="n">
-        <v>280858</v>
+        <v>190885</v>
       </c>
       <c r="AX12" s="16" t="n">
-        <v>190885</v>
+        <v>215965</v>
       </c>
       <c r="AY12" s="16" t="n">
-        <v>215965</v>
+        <v>215410</v>
       </c>
       <c r="AZ12" s="16" t="n">
-        <v>215410</v>
+        <v>160565</v>
       </c>
       <c r="BA12" s="16" t="n">
-        <v>160565</v>
+        <v>131822</v>
       </c>
       <c r="BB12" s="16" t="n">
-        <v>131822</v>
+        <v>157010</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3611,107 +3611,107 @@
       <c r="T13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U13" s="13" t="s">
-        <v>58</v>
+      <c r="U13" s="13" t="n">
+        <v>2157117</v>
       </c>
       <c r="V13" s="13" t="n">
-        <v>2157117</v>
+        <v>2203077</v>
       </c>
       <c r="W13" s="13" t="n">
-        <v>2203077</v>
+        <v>2747977</v>
       </c>
       <c r="X13" s="13" t="n">
-        <v>2747977</v>
+        <v>2603431</v>
       </c>
       <c r="Y13" s="13" t="n">
-        <v>2603431</v>
+        <v>2693222</v>
       </c>
       <c r="Z13" s="13" t="n">
-        <v>2693222</v>
+        <v>2674037</v>
       </c>
       <c r="AA13" s="13" t="n">
-        <v>2674037</v>
+        <v>2705137</v>
       </c>
       <c r="AB13" s="13" t="n">
-        <v>2705137</v>
+        <v>2808741</v>
       </c>
       <c r="AC13" s="13" t="n">
-        <v>2808741</v>
+        <v>2819587</v>
       </c>
       <c r="AD13" s="13" t="n">
-        <v>2819587</v>
+        <v>1640722</v>
       </c>
       <c r="AE13" s="13" t="n">
-        <v>1640722</v>
+        <v>2926884</v>
       </c>
       <c r="AF13" s="13" t="n">
-        <v>2926884</v>
+        <v>2861475</v>
       </c>
       <c r="AG13" s="13" t="n">
-        <v>2861475</v>
+        <v>2914527</v>
       </c>
       <c r="AH13" s="13" t="n">
-        <v>2914527</v>
+        <v>2070652</v>
       </c>
       <c r="AI13" s="13" t="n">
-        <v>2070652</v>
+        <v>2535626</v>
       </c>
       <c r="AJ13" s="13" t="n">
-        <v>2535626</v>
+        <v>2697190</v>
       </c>
       <c r="AK13" s="13" t="n">
-        <v>2697190</v>
+        <v>2677214</v>
       </c>
       <c r="AL13" s="13" t="n">
-        <v>2677214</v>
+        <v>2619521</v>
       </c>
       <c r="AM13" s="13" t="n">
-        <v>2619521</v>
+        <v>2630484</v>
       </c>
       <c r="AN13" s="13" t="n">
-        <v>2630484</v>
+        <v>2603164</v>
       </c>
       <c r="AO13" s="13" t="n">
-        <v>2603164</v>
+        <v>2193307</v>
       </c>
       <c r="AP13" s="13" t="n">
-        <v>2193307</v>
+        <v>1418543</v>
       </c>
       <c r="AQ13" s="13" t="n">
-        <v>1418543</v>
+        <v>2608877</v>
       </c>
       <c r="AR13" s="13" t="n">
-        <v>2608877</v>
+        <v>2692676</v>
       </c>
       <c r="AS13" s="13" t="n">
-        <v>2692676</v>
+        <v>2711857</v>
       </c>
       <c r="AT13" s="13" t="n">
-        <v>2711857</v>
+        <v>1787937</v>
       </c>
       <c r="AU13" s="13" t="n">
-        <v>1787937</v>
+        <v>2438795</v>
       </c>
       <c r="AV13" s="13" t="n">
-        <v>2438795</v>
+        <v>2443112</v>
       </c>
       <c r="AW13" s="13" t="n">
-        <v>2443112</v>
+        <v>2370132</v>
       </c>
       <c r="AX13" s="13" t="n">
-        <v>2370132</v>
+        <v>2339290</v>
       </c>
       <c r="AY13" s="13" t="n">
-        <v>2339290</v>
+        <v>2247388</v>
       </c>
       <c r="AZ13" s="13" t="n">
-        <v>2247388</v>
+        <v>2264972</v>
       </c>
       <c r="BA13" s="13" t="n">
-        <v>2264972</v>
+        <v>2162127</v>
       </c>
       <c r="BB13" s="13" t="n">
-        <v>2162127</v>
+        <v>1789233</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3770,107 +3770,107 @@
       <c r="T14" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U14" s="16" t="s">
-        <v>58</v>
+      <c r="U14" s="16" t="n">
+        <v>3859112</v>
       </c>
       <c r="V14" s="16" t="n">
-        <v>3859112</v>
+        <v>4620506</v>
       </c>
       <c r="W14" s="16" t="n">
-        <v>4620506</v>
+        <v>4740937</v>
       </c>
       <c r="X14" s="16" t="n">
-        <v>4740937</v>
+        <v>4610138</v>
       </c>
       <c r="Y14" s="16" t="n">
-        <v>4610138</v>
+        <v>4602770</v>
       </c>
       <c r="Z14" s="16" t="n">
-        <v>4602770</v>
+        <v>4636081</v>
       </c>
       <c r="AA14" s="16" t="n">
-        <v>4636081</v>
+        <v>4677931</v>
       </c>
       <c r="AB14" s="16" t="n">
-        <v>4677931</v>
+        <v>4882636</v>
       </c>
       <c r="AC14" s="16" t="n">
-        <v>4882636</v>
+        <v>4841085</v>
       </c>
       <c r="AD14" s="16" t="n">
-        <v>4841085</v>
+        <v>2737030</v>
       </c>
       <c r="AE14" s="16" t="n">
-        <v>2737030</v>
+        <v>5009156</v>
       </c>
       <c r="AF14" s="16" t="n">
-        <v>5009156</v>
+        <v>4698709</v>
       </c>
       <c r="AG14" s="16" t="n">
-        <v>4698709</v>
+        <v>5223075</v>
       </c>
       <c r="AH14" s="16" t="n">
-        <v>5223075</v>
+        <v>3217180</v>
       </c>
       <c r="AI14" s="16" t="n">
-        <v>3217180</v>
+        <v>4725551</v>
       </c>
       <c r="AJ14" s="16" t="n">
-        <v>4725551</v>
+        <v>4874454</v>
       </c>
       <c r="AK14" s="16" t="n">
-        <v>4874454</v>
+        <v>5084516</v>
       </c>
       <c r="AL14" s="16" t="n">
-        <v>5084516</v>
+        <v>5073476</v>
       </c>
       <c r="AM14" s="16" t="n">
-        <v>5073476</v>
+        <v>5051990</v>
       </c>
       <c r="AN14" s="16" t="n">
-        <v>5051990</v>
+        <v>4787135</v>
       </c>
       <c r="AO14" s="16" t="n">
-        <v>4787135</v>
+        <v>4209099</v>
       </c>
       <c r="AP14" s="16" t="n">
-        <v>4209099</v>
+        <v>3453025</v>
       </c>
       <c r="AQ14" s="16" t="n">
-        <v>3453025</v>
+        <v>5322608</v>
       </c>
       <c r="AR14" s="16" t="n">
-        <v>5322608</v>
+        <v>5478651</v>
       </c>
       <c r="AS14" s="16" t="n">
-        <v>5478651</v>
+        <v>5288140</v>
       </c>
       <c r="AT14" s="16" t="n">
-        <v>5288140</v>
+        <v>3913055</v>
       </c>
       <c r="AU14" s="16" t="n">
-        <v>3913055</v>
+        <v>5691649</v>
       </c>
       <c r="AV14" s="16" t="n">
-        <v>5691649</v>
+        <v>3828881</v>
       </c>
       <c r="AW14" s="16" t="n">
-        <v>3828881</v>
+        <v>4957770</v>
       </c>
       <c r="AX14" s="16" t="n">
-        <v>4957770</v>
+        <v>5196679</v>
       </c>
       <c r="AY14" s="16" t="n">
-        <v>5196679</v>
+        <v>5380132</v>
       </c>
       <c r="AZ14" s="16" t="n">
-        <v>5380132</v>
+        <v>5503327</v>
       </c>
       <c r="BA14" s="16" t="n">
-        <v>5503327</v>
+        <v>5322586</v>
       </c>
       <c r="BB14" s="16" t="n">
-        <v>5322586</v>
+        <v>4423815</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3928,106 +3928,106 @@
         <v>0</v>
       </c>
       <c r="U15" s="18" t="n">
-        <v>0</v>
+        <v>6394911</v>
       </c>
       <c r="V15" s="18" t="n">
-        <v>6394911</v>
+        <v>7302812</v>
       </c>
       <c r="W15" s="18" t="n">
-        <v>7302812</v>
+        <v>7966351</v>
       </c>
       <c r="X15" s="18" t="n">
-        <v>7966351</v>
+        <v>7636851</v>
       </c>
       <c r="Y15" s="18" t="n">
-        <v>7636851</v>
+        <v>7719655</v>
       </c>
       <c r="Z15" s="18" t="n">
-        <v>7719655</v>
+        <v>7734953</v>
       </c>
       <c r="AA15" s="18" t="n">
-        <v>7734953</v>
+        <v>7815020</v>
       </c>
       <c r="AB15" s="18" t="n">
-        <v>7815020</v>
+        <v>8176750</v>
       </c>
       <c r="AC15" s="18" t="n">
-        <v>8176750</v>
+        <v>8157671</v>
       </c>
       <c r="AD15" s="18" t="n">
-        <v>8157671</v>
+        <v>4659618</v>
       </c>
       <c r="AE15" s="18" t="n">
-        <v>4659618</v>
+        <v>8389436</v>
       </c>
       <c r="AF15" s="18" t="n">
-        <v>8389436</v>
+        <v>8020015</v>
       </c>
       <c r="AG15" s="18" t="n">
-        <v>8020015</v>
+        <v>8573574</v>
       </c>
       <c r="AH15" s="18" t="n">
-        <v>8573574</v>
+        <v>5609475</v>
       </c>
       <c r="AI15" s="18" t="n">
-        <v>5609475</v>
+        <v>7648250</v>
       </c>
       <c r="AJ15" s="18" t="n">
-        <v>7648250</v>
+        <v>7970002</v>
       </c>
       <c r="AK15" s="18" t="n">
-        <v>7970002</v>
+        <v>8156543</v>
       </c>
       <c r="AL15" s="18" t="n">
-        <v>8156543</v>
+        <v>8097404</v>
       </c>
       <c r="AM15" s="18" t="n">
-        <v>8097404</v>
+        <v>8103716</v>
       </c>
       <c r="AN15" s="18" t="n">
-        <v>8103716</v>
+        <v>7730125</v>
       </c>
       <c r="AO15" s="18" t="n">
-        <v>7730125</v>
+        <v>6741535</v>
       </c>
       <c r="AP15" s="18" t="n">
-        <v>6741535</v>
+        <v>5019555</v>
       </c>
       <c r="AQ15" s="18" t="n">
-        <v>5019555</v>
+        <v>8166813</v>
       </c>
       <c r="AR15" s="18" t="n">
-        <v>8166813</v>
+        <v>8477835</v>
       </c>
       <c r="AS15" s="18" t="n">
-        <v>8477835</v>
+        <v>8324326</v>
       </c>
       <c r="AT15" s="18" t="n">
-        <v>8324326</v>
+        <v>5952006</v>
       </c>
       <c r="AU15" s="18" t="n">
-        <v>5952006</v>
+        <v>8502362</v>
       </c>
       <c r="AV15" s="18" t="n">
-        <v>8502362</v>
+        <v>6660342</v>
       </c>
       <c r="AW15" s="18" t="n">
-        <v>6660342</v>
+        <v>7653964</v>
       </c>
       <c r="AX15" s="18" t="n">
-        <v>7653964</v>
+        <v>7888114</v>
       </c>
       <c r="AY15" s="18" t="n">
-        <v>7888114</v>
+        <v>7971156</v>
       </c>
       <c r="AZ15" s="18" t="n">
-        <v>7971156</v>
+        <v>8074426</v>
       </c>
       <c r="BA15" s="18" t="n">
-        <v>8074426</v>
+        <v>7792972</v>
       </c>
       <c r="BB15" s="18" t="n">
-        <v>7792972</v>
+        <v>6498038</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4143,8 +4143,8 @@
       <c r="T17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U17" s="13" t="s">
-        <v>58</v>
+      <c r="U17" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V17" s="13" t="n">
         <v>0</v>
@@ -4173,8 +4173,8 @@
       <c r="AD17" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE17" s="13" t="n">
-        <v>0</v>
+      <c r="AE17" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF17" s="13" t="s">
         <v>58</v>
@@ -4203,11 +4203,11 @@
       <c r="AN17" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP17" s="13" t="n">
-        <v>0</v>
+      <c r="AO17" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ17" s="13" t="s">
         <v>58</v>
@@ -4302,8 +4302,8 @@
       <c r="T18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U18" s="16" t="s">
-        <v>58</v>
+      <c r="U18" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V18" s="16" t="n">
         <v>0</v>
@@ -4332,8 +4332,8 @@
       <c r="AD18" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE18" s="16" t="n">
-        <v>0</v>
+      <c r="AE18" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF18" s="16" t="s">
         <v>58</v>
@@ -4362,11 +4362,11 @@
       <c r="AN18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO18" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP18" s="16" t="n">
-        <v>0</v>
+      <c r="AO18" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ18" s="16" t="s">
         <v>58</v>
@@ -4380,8 +4380,8 @@
       <c r="AT18" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AU18" s="16" t="s">
-        <v>58</v>
+      <c r="AU18" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AV18" s="16" t="n">
         <v>0</v>
@@ -4461,8 +4461,8 @@
       <c r="T19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U19" s="13" t="s">
-        <v>58</v>
+      <c r="U19" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V19" s="13" t="n">
         <v>0</v>
@@ -4491,8 +4491,8 @@
       <c r="AD19" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE19" s="13" t="n">
-        <v>0</v>
+      <c r="AE19" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF19" s="13" t="s">
         <v>58</v>
@@ -4521,11 +4521,11 @@
       <c r="AN19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP19" s="13" t="n">
-        <v>0</v>
+      <c r="AO19" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ19" s="13" t="s">
         <v>58</v>
@@ -4536,8 +4536,8 @@
       <c r="AS19" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT19" s="13" t="s">
-        <v>58</v>
+      <c r="AT19" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="AU19" s="13" t="n">
         <v>0</v>
@@ -4620,8 +4620,8 @@
       <c r="T20" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U20" s="16" t="s">
-        <v>58</v>
+      <c r="U20" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V20" s="16" t="n">
         <v>0</v>
@@ -4650,8 +4650,8 @@
       <c r="AD20" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE20" s="16" t="n">
-        <v>0</v>
+      <c r="AE20" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF20" s="16" t="s">
         <v>58</v>
@@ -4680,11 +4680,11 @@
       <c r="AN20" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO20" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP20" s="16" t="n">
-        <v>0</v>
+      <c r="AO20" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ20" s="16" t="s">
         <v>58</v>
@@ -4695,8 +4695,8 @@
       <c r="AS20" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AT20" s="16" t="s">
-        <v>58</v>
+      <c r="AT20" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="AU20" s="16" t="n">
         <v>0</v>
@@ -4991,8 +4991,8 @@
       <c r="T23" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U23" s="18" t="s">
-        <v>58</v>
+      <c r="U23" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V23" s="18" t="n">
         <v>0</v>
@@ -5149,106 +5149,106 @@
         <v>0</v>
       </c>
       <c r="U24" s="22" t="n">
-        <v>0</v>
+        <v>6394911</v>
       </c>
       <c r="V24" s="22" t="n">
-        <v>6394911</v>
+        <v>7302812</v>
       </c>
       <c r="W24" s="22" t="n">
-        <v>7302812</v>
+        <v>7966351</v>
       </c>
       <c r="X24" s="22" t="n">
-        <v>7966351</v>
+        <v>7636851</v>
       </c>
       <c r="Y24" s="22" t="n">
-        <v>7636851</v>
+        <v>7719655</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>7719655</v>
+        <v>7734953</v>
       </c>
       <c r="AA24" s="22" t="n">
-        <v>7734953</v>
+        <v>7815020</v>
       </c>
       <c r="AB24" s="22" t="n">
-        <v>7815020</v>
+        <v>8176750</v>
       </c>
       <c r="AC24" s="22" t="n">
-        <v>8176750</v>
+        <v>8157671</v>
       </c>
       <c r="AD24" s="22" t="n">
-        <v>8157671</v>
+        <v>4659618</v>
       </c>
       <c r="AE24" s="22" t="n">
-        <v>4659618</v>
+        <v>8389436</v>
       </c>
       <c r="AF24" s="22" t="n">
-        <v>8389436</v>
+        <v>8020015</v>
       </c>
       <c r="AG24" s="22" t="n">
-        <v>8020015</v>
+        <v>8573574</v>
       </c>
       <c r="AH24" s="22" t="n">
-        <v>8573574</v>
+        <v>5609475</v>
       </c>
       <c r="AI24" s="22" t="n">
-        <v>5609475</v>
+        <v>7648250</v>
       </c>
       <c r="AJ24" s="22" t="n">
-        <v>7648250</v>
+        <v>7970002</v>
       </c>
       <c r="AK24" s="22" t="n">
-        <v>7970002</v>
+        <v>8156543</v>
       </c>
       <c r="AL24" s="22" t="n">
-        <v>8156543</v>
+        <v>8097404</v>
       </c>
       <c r="AM24" s="22" t="n">
-        <v>8097404</v>
+        <v>8103716</v>
       </c>
       <c r="AN24" s="22" t="n">
-        <v>8103716</v>
+        <v>7730125</v>
       </c>
       <c r="AO24" s="22" t="n">
-        <v>7730125</v>
+        <v>6741535</v>
       </c>
       <c r="AP24" s="22" t="n">
-        <v>6741535</v>
+        <v>5019555</v>
       </c>
       <c r="AQ24" s="22" t="n">
-        <v>5019555</v>
+        <v>8166813</v>
       </c>
       <c r="AR24" s="22" t="n">
-        <v>8166813</v>
+        <v>8477835</v>
       </c>
       <c r="AS24" s="22" t="n">
-        <v>8477835</v>
+        <v>8324326</v>
       </c>
       <c r="AT24" s="22" t="n">
-        <v>8324326</v>
+        <v>5952006</v>
       </c>
       <c r="AU24" s="22" t="n">
-        <v>5952006</v>
+        <v>8502362</v>
       </c>
       <c r="AV24" s="22" t="n">
-        <v>8502362</v>
+        <v>6660342</v>
       </c>
       <c r="AW24" s="22" t="n">
-        <v>6660342</v>
+        <v>7653964</v>
       </c>
       <c r="AX24" s="22" t="n">
-        <v>7653964</v>
+        <v>7888114</v>
       </c>
       <c r="AY24" s="22" t="n">
-        <v>7888114</v>
+        <v>7971156</v>
       </c>
       <c r="AZ24" s="22" t="n">
-        <v>7971156</v>
+        <v>8074426</v>
       </c>
       <c r="BA24" s="22" t="n">
-        <v>8074426</v>
+        <v>7792972</v>
       </c>
       <c r="BB24" s="22" t="n">
-        <v>7792972</v>
+        <v>6498038</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5741,107 +5741,107 @@
       <c r="T31" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U31" s="13" t="s">
-        <v>58</v>
+      <c r="U31" s="13" t="n">
+        <v>159727</v>
       </c>
       <c r="V31" s="13" t="n">
-        <v>159727</v>
+        <v>126414</v>
       </c>
       <c r="W31" s="13" t="n">
-        <v>126414</v>
+        <v>152880</v>
       </c>
       <c r="X31" s="13" t="n">
-        <v>152880</v>
+        <v>139081</v>
       </c>
       <c r="Y31" s="13" t="n">
-        <v>139081</v>
+        <v>110289</v>
       </c>
       <c r="Z31" s="13" t="n">
-        <v>110289</v>
+        <v>109578</v>
       </c>
       <c r="AA31" s="13" t="n">
-        <v>109578</v>
+        <v>143875</v>
       </c>
       <c r="AB31" s="13" t="n">
-        <v>143875</v>
+        <v>155910</v>
       </c>
       <c r="AC31" s="13" t="n">
-        <v>155910</v>
+        <v>89342</v>
       </c>
       <c r="AD31" s="13" t="n">
-        <v>89342</v>
+        <v>45179</v>
       </c>
       <c r="AE31" s="13" t="n">
-        <v>45179</v>
+        <v>177411</v>
       </c>
       <c r="AF31" s="13" t="n">
-        <v>177411</v>
+        <v>125612</v>
       </c>
       <c r="AG31" s="13" t="n">
-        <v>125612</v>
+        <v>114782</v>
       </c>
       <c r="AH31" s="13" t="n">
-        <v>114782</v>
+        <v>106385</v>
       </c>
       <c r="AI31" s="13" t="n">
-        <v>106385</v>
+        <v>202331</v>
       </c>
       <c r="AJ31" s="13" t="n">
-        <v>202331</v>
+        <v>173454</v>
       </c>
       <c r="AK31" s="13" t="n">
-        <v>173454</v>
+        <v>141951</v>
       </c>
       <c r="AL31" s="13" t="n">
-        <v>141951</v>
+        <v>137075</v>
       </c>
       <c r="AM31" s="13" t="n">
-        <v>137075</v>
+        <v>191385</v>
       </c>
       <c r="AN31" s="13" t="n">
-        <v>191385</v>
+        <v>26528</v>
       </c>
       <c r="AO31" s="13" t="n">
-        <v>26528</v>
+        <v>124386</v>
       </c>
       <c r="AP31" s="13" t="n">
-        <v>124386</v>
+        <v>85573</v>
       </c>
       <c r="AQ31" s="13" t="n">
-        <v>85573</v>
+        <v>104351</v>
       </c>
       <c r="AR31" s="13" t="n">
-        <v>104351</v>
+        <v>94203</v>
       </c>
       <c r="AS31" s="13" t="n">
-        <v>94203</v>
+        <v>122720</v>
       </c>
       <c r="AT31" s="13" t="n">
-        <v>122720</v>
+        <v>100303</v>
       </c>
       <c r="AU31" s="13" t="n">
-        <v>100303</v>
+        <v>118598</v>
       </c>
       <c r="AV31" s="13" t="n">
-        <v>118598</v>
+        <v>125405</v>
       </c>
       <c r="AW31" s="13" t="n">
-        <v>125405</v>
+        <v>117258</v>
       </c>
       <c r="AX31" s="13" t="n">
-        <v>117258</v>
+        <v>123608</v>
       </c>
       <c r="AY31" s="13" t="n">
-        <v>123608</v>
+        <v>146927</v>
       </c>
       <c r="AZ31" s="13" t="n">
-        <v>146927</v>
+        <v>79097</v>
       </c>
       <c r="BA31" s="13" t="n">
-        <v>79097</v>
+        <v>127140</v>
       </c>
       <c r="BB31" s="13" t="n">
-        <v>127140</v>
+        <v>72728</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5900,107 +5900,107 @@
       <c r="T32" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U32" s="16" t="s">
-        <v>58</v>
+      <c r="U32" s="16" t="n">
+        <v>246235</v>
       </c>
       <c r="V32" s="16" t="n">
-        <v>246235</v>
+        <v>261542</v>
       </c>
       <c r="W32" s="16" t="n">
-        <v>261542</v>
+        <v>377687</v>
       </c>
       <c r="X32" s="16" t="n">
-        <v>377687</v>
+        <v>318951</v>
       </c>
       <c r="Y32" s="16" t="n">
-        <v>318951</v>
+        <v>255039</v>
       </c>
       <c r="Z32" s="16" t="n">
-        <v>255039</v>
+        <v>220668</v>
       </c>
       <c r="AA32" s="16" t="n">
-        <v>220668</v>
+        <v>281497</v>
       </c>
       <c r="AB32" s="16" t="n">
-        <v>281497</v>
+        <v>211170</v>
       </c>
       <c r="AC32" s="16" t="n">
-        <v>211170</v>
+        <v>239869</v>
       </c>
       <c r="AD32" s="16" t="n">
-        <v>239869</v>
+        <v>128288</v>
       </c>
       <c r="AE32" s="16" t="n">
-        <v>128288</v>
+        <v>433623</v>
       </c>
       <c r="AF32" s="16" t="n">
-        <v>433623</v>
+        <v>289631</v>
       </c>
       <c r="AG32" s="16" t="n">
-        <v>289631</v>
+        <v>277229</v>
       </c>
       <c r="AH32" s="16" t="n">
-        <v>277229</v>
+        <v>165599</v>
       </c>
       <c r="AI32" s="16" t="n">
-        <v>165599</v>
+        <v>331429</v>
       </c>
       <c r="AJ32" s="16" t="n">
-        <v>331429</v>
+        <v>256297</v>
       </c>
       <c r="AK32" s="16" t="n">
-        <v>256297</v>
+        <v>194357</v>
       </c>
       <c r="AL32" s="16" t="n">
-        <v>194357</v>
+        <v>192000</v>
       </c>
       <c r="AM32" s="16" t="n">
-        <v>192000</v>
+        <v>246349</v>
       </c>
       <c r="AN32" s="16" t="n">
-        <v>246349</v>
+        <v>130408</v>
       </c>
       <c r="AO32" s="16" t="n">
-        <v>130408</v>
+        <v>276103</v>
       </c>
       <c r="AP32" s="16" t="n">
-        <v>276103</v>
+        <v>143941</v>
       </c>
       <c r="AQ32" s="16" t="n">
-        <v>143941</v>
+        <v>193100</v>
       </c>
       <c r="AR32" s="16" t="n">
-        <v>193100</v>
+        <v>292684</v>
       </c>
       <c r="AS32" s="16" t="n">
-        <v>292684</v>
+        <v>274282</v>
       </c>
       <c r="AT32" s="16" t="n">
-        <v>274282</v>
+        <v>184921</v>
       </c>
       <c r="AU32" s="16" t="n">
-        <v>184921</v>
+        <v>278384</v>
       </c>
       <c r="AV32" s="16" t="n">
-        <v>278384</v>
+        <v>270816</v>
       </c>
       <c r="AW32" s="16" t="n">
-        <v>270816</v>
+        <v>277385</v>
       </c>
       <c r="AX32" s="16" t="n">
-        <v>277385</v>
+        <v>133927</v>
       </c>
       <c r="AY32" s="16" t="n">
-        <v>133927</v>
+        <v>259407</v>
       </c>
       <c r="AZ32" s="16" t="n">
-        <v>259407</v>
+        <v>161827</v>
       </c>
       <c r="BA32" s="16" t="n">
-        <v>161827</v>
+        <v>110056</v>
       </c>
       <c r="BB32" s="16" t="n">
-        <v>110056</v>
+        <v>123789</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6059,107 +6059,107 @@
       <c r="T33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U33" s="13" t="s">
-        <v>58</v>
+      <c r="U33" s="13" t="n">
+        <v>2581762</v>
       </c>
       <c r="V33" s="13" t="n">
-        <v>2581762</v>
+        <v>1580913</v>
       </c>
       <c r="W33" s="13" t="n">
-        <v>1580913</v>
+        <v>2664249</v>
       </c>
       <c r="X33" s="13" t="n">
-        <v>2664249</v>
+        <v>2543703</v>
       </c>
       <c r="Y33" s="13" t="n">
-        <v>2543703</v>
+        <v>2461361</v>
       </c>
       <c r="Z33" s="13" t="n">
-        <v>2461361</v>
+        <v>1776079</v>
       </c>
       <c r="AA33" s="13" t="n">
-        <v>1776079</v>
+        <v>2117786</v>
       </c>
       <c r="AB33" s="13" t="n">
-        <v>2117786</v>
+        <v>2440395</v>
       </c>
       <c r="AC33" s="13" t="n">
-        <v>2440395</v>
+        <v>2156300</v>
       </c>
       <c r="AD33" s="13" t="n">
-        <v>2156300</v>
+        <v>1371262</v>
       </c>
       <c r="AE33" s="13" t="n">
-        <v>1371262</v>
+        <v>2883052</v>
       </c>
       <c r="AF33" s="13" t="n">
-        <v>2883052</v>
+        <v>3595563</v>
       </c>
       <c r="AG33" s="13" t="n">
-        <v>3595563</v>
+        <v>2296443</v>
       </c>
       <c r="AH33" s="13" t="n">
-        <v>2296443</v>
+        <v>2828429</v>
       </c>
       <c r="AI33" s="13" t="n">
-        <v>2828429</v>
+        <v>3562063</v>
       </c>
       <c r="AJ33" s="13" t="n">
-        <v>3562063</v>
+        <v>2489079</v>
       </c>
       <c r="AK33" s="13" t="n">
-        <v>2489079</v>
+        <v>2548569</v>
       </c>
       <c r="AL33" s="13" t="n">
-        <v>2548569</v>
+        <v>1665944</v>
       </c>
       <c r="AM33" s="13" t="n">
-        <v>1665944</v>
+        <v>2017416</v>
       </c>
       <c r="AN33" s="13" t="n">
-        <v>2017416</v>
+        <v>1662413</v>
       </c>
       <c r="AO33" s="13" t="n">
-        <v>1662413</v>
+        <v>2601693</v>
       </c>
       <c r="AP33" s="13" t="n">
-        <v>2601693</v>
+        <v>1111511</v>
       </c>
       <c r="AQ33" s="13" t="n">
-        <v>1111511</v>
+        <v>4183959</v>
       </c>
       <c r="AR33" s="13" t="n">
-        <v>4183959</v>
+        <v>2604751</v>
       </c>
       <c r="AS33" s="13" t="n">
-        <v>2604751</v>
+        <v>3077439</v>
       </c>
       <c r="AT33" s="13" t="n">
-        <v>3077439</v>
+        <v>2275404</v>
       </c>
       <c r="AU33" s="13" t="n">
-        <v>2275404</v>
+        <v>2589083</v>
       </c>
       <c r="AV33" s="13" t="n">
-        <v>2589083</v>
+        <v>2187400</v>
       </c>
       <c r="AW33" s="13" t="n">
-        <v>2187400</v>
+        <v>2777459</v>
       </c>
       <c r="AX33" s="13" t="n">
-        <v>2777459</v>
+        <v>1872685</v>
       </c>
       <c r="AY33" s="13" t="n">
-        <v>1872685</v>
+        <v>2222313</v>
       </c>
       <c r="AZ33" s="13" t="n">
-        <v>2222313</v>
+        <v>2051278</v>
       </c>
       <c r="BA33" s="13" t="n">
-        <v>2051278</v>
+        <v>2430311</v>
       </c>
       <c r="BB33" s="13" t="n">
-        <v>2430311</v>
+        <v>1970166</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6218,107 +6218,107 @@
       <c r="T34" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U34" s="16" t="s">
-        <v>58</v>
+      <c r="U34" s="16" t="n">
+        <v>4736869</v>
       </c>
       <c r="V34" s="16" t="n">
-        <v>4736869</v>
+        <v>3536365</v>
       </c>
       <c r="W34" s="16" t="n">
-        <v>3536365</v>
+        <v>5281256</v>
       </c>
       <c r="X34" s="16" t="n">
-        <v>5281256</v>
+        <v>4843745</v>
       </c>
       <c r="Y34" s="16" t="n">
-        <v>4843745</v>
+        <v>4515487</v>
       </c>
       <c r="Z34" s="16" t="n">
-        <v>4515487</v>
+        <v>3802653</v>
       </c>
       <c r="AA34" s="16" t="n">
-        <v>3802653</v>
+        <v>4813840</v>
       </c>
       <c r="AB34" s="16" t="n">
-        <v>4813840</v>
+        <v>4477138</v>
       </c>
       <c r="AC34" s="16" t="n">
-        <v>4477138</v>
+        <v>4450246</v>
       </c>
       <c r="AD34" s="16" t="n">
-        <v>4450246</v>
+        <v>2767829</v>
       </c>
       <c r="AE34" s="16" t="n">
-        <v>2767829</v>
+        <v>4804993</v>
       </c>
       <c r="AF34" s="16" t="n">
-        <v>4804993</v>
+        <v>4978792</v>
       </c>
       <c r="AG34" s="16" t="n">
-        <v>4978792</v>
+        <v>5632641</v>
       </c>
       <c r="AH34" s="16" t="n">
-        <v>5632641</v>
+        <v>3590625</v>
       </c>
       <c r="AI34" s="16" t="n">
-        <v>3590625</v>
+        <v>5022958</v>
       </c>
       <c r="AJ34" s="16" t="n">
-        <v>5022958</v>
+        <v>4364005</v>
       </c>
       <c r="AK34" s="16" t="n">
-        <v>4364005</v>
+        <v>4755076</v>
       </c>
       <c r="AL34" s="16" t="n">
-        <v>4755076</v>
+        <v>5774215</v>
       </c>
       <c r="AM34" s="16" t="n">
-        <v>5774215</v>
+        <v>4311551</v>
       </c>
       <c r="AN34" s="16" t="n">
-        <v>4311551</v>
+        <v>5209264</v>
       </c>
       <c r="AO34" s="16" t="n">
-        <v>5209264</v>
+        <v>4201316</v>
       </c>
       <c r="AP34" s="16" t="n">
-        <v>4201316</v>
+        <v>2729923</v>
       </c>
       <c r="AQ34" s="16" t="n">
-        <v>2729923</v>
+        <v>4860901</v>
       </c>
       <c r="AR34" s="16" t="n">
-        <v>4860901</v>
+        <v>5522645</v>
       </c>
       <c r="AS34" s="16" t="n">
-        <v>5522645</v>
+        <v>5418613</v>
       </c>
       <c r="AT34" s="16" t="n">
-        <v>5418613</v>
+        <v>4582596</v>
       </c>
       <c r="AU34" s="16" t="n">
-        <v>4582596</v>
+        <v>5285449</v>
       </c>
       <c r="AV34" s="16" t="n">
-        <v>5285449</v>
+        <v>3728474</v>
       </c>
       <c r="AW34" s="16" t="n">
-        <v>3728474</v>
+        <v>4962053</v>
       </c>
       <c r="AX34" s="16" t="n">
-        <v>4962053</v>
+        <v>5392903</v>
       </c>
       <c r="AY34" s="16" t="n">
-        <v>5392903</v>
+        <v>4623059</v>
       </c>
       <c r="AZ34" s="16" t="n">
-        <v>4623059</v>
+        <v>5459773</v>
       </c>
       <c r="BA34" s="16" t="n">
-        <v>5459773</v>
+        <v>5117565</v>
       </c>
       <c r="BB34" s="16" t="n">
-        <v>5117565</v>
+        <v>2916992</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6376,106 +6376,106 @@
         <v>0</v>
       </c>
       <c r="U35" s="18" t="n">
-        <v>0</v>
+        <v>7724593</v>
       </c>
       <c r="V35" s="18" t="n">
-        <v>7724593</v>
+        <v>5505234</v>
       </c>
       <c r="W35" s="18" t="n">
-        <v>5505234</v>
+        <v>8476072</v>
       </c>
       <c r="X35" s="18" t="n">
-        <v>8476072</v>
+        <v>7845480</v>
       </c>
       <c r="Y35" s="18" t="n">
-        <v>7845480</v>
+        <v>7342176</v>
       </c>
       <c r="Z35" s="18" t="n">
-        <v>7342176</v>
+        <v>5908978</v>
       </c>
       <c r="AA35" s="18" t="n">
-        <v>5908978</v>
+        <v>7356998</v>
       </c>
       <c r="AB35" s="18" t="n">
-        <v>7356998</v>
+        <v>7284613</v>
       </c>
       <c r="AC35" s="18" t="n">
-        <v>7284613</v>
+        <v>6935757</v>
       </c>
       <c r="AD35" s="18" t="n">
-        <v>6935757</v>
+        <v>4312558</v>
       </c>
       <c r="AE35" s="18" t="n">
-        <v>4312558</v>
+        <v>8299079</v>
       </c>
       <c r="AF35" s="18" t="n">
-        <v>8299079</v>
+        <v>8989598</v>
       </c>
       <c r="AG35" s="18" t="n">
-        <v>8989598</v>
+        <v>8321095</v>
       </c>
       <c r="AH35" s="18" t="n">
-        <v>8321095</v>
+        <v>6691038</v>
       </c>
       <c r="AI35" s="18" t="n">
-        <v>6691038</v>
+        <v>9118781</v>
       </c>
       <c r="AJ35" s="18" t="n">
-        <v>9118781</v>
+        <v>7282835</v>
       </c>
       <c r="AK35" s="18" t="n">
-        <v>7282835</v>
+        <v>7639953</v>
       </c>
       <c r="AL35" s="18" t="n">
-        <v>7639953</v>
+        <v>7769234</v>
       </c>
       <c r="AM35" s="18" t="n">
-        <v>7769234</v>
+        <v>6766701</v>
       </c>
       <c r="AN35" s="18" t="n">
-        <v>6766701</v>
+        <v>7028613</v>
       </c>
       <c r="AO35" s="18" t="n">
-        <v>7028613</v>
+        <v>7203498</v>
       </c>
       <c r="AP35" s="18" t="n">
-        <v>7203498</v>
+        <v>4070948</v>
       </c>
       <c r="AQ35" s="18" t="n">
-        <v>4070948</v>
+        <v>9342311</v>
       </c>
       <c r="AR35" s="18" t="n">
-        <v>9342311</v>
+        <v>8514283</v>
       </c>
       <c r="AS35" s="18" t="n">
-        <v>8514283</v>
+        <v>8893054</v>
       </c>
       <c r="AT35" s="18" t="n">
-        <v>8893054</v>
+        <v>7143224</v>
       </c>
       <c r="AU35" s="18" t="n">
-        <v>7143224</v>
+        <v>8271514</v>
       </c>
       <c r="AV35" s="18" t="n">
-        <v>8271514</v>
+        <v>6312095</v>
       </c>
       <c r="AW35" s="18" t="n">
-        <v>6312095</v>
+        <v>8134155</v>
       </c>
       <c r="AX35" s="18" t="n">
-        <v>8134155</v>
+        <v>7523123</v>
       </c>
       <c r="AY35" s="18" t="n">
-        <v>7523123</v>
+        <v>7251706</v>
       </c>
       <c r="AZ35" s="18" t="n">
-        <v>7251706</v>
+        <v>7751975</v>
       </c>
       <c r="BA35" s="18" t="n">
-        <v>7751975</v>
+        <v>7785072</v>
       </c>
       <c r="BB35" s="18" t="n">
-        <v>7785072</v>
+        <v>5083675</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6591,8 +6591,8 @@
       <c r="T37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U37" s="13" t="s">
-        <v>58</v>
+      <c r="U37" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V37" s="13" t="n">
         <v>0</v>
@@ -6621,8 +6621,8 @@
       <c r="AD37" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE37" s="13" t="n">
-        <v>0</v>
+      <c r="AE37" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF37" s="13" t="s">
         <v>58</v>
@@ -6651,11 +6651,11 @@
       <c r="AN37" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO37" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP37" s="13" t="n">
-        <v>0</v>
+      <c r="AO37" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP37" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ37" s="13" t="s">
         <v>58</v>
@@ -6750,8 +6750,8 @@
       <c r="T38" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U38" s="16" t="s">
-        <v>58</v>
+      <c r="U38" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V38" s="16" t="n">
         <v>0</v>
@@ -6780,8 +6780,8 @@
       <c r="AD38" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE38" s="16" t="n">
-        <v>0</v>
+      <c r="AE38" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF38" s="16" t="s">
         <v>58</v>
@@ -6810,11 +6810,11 @@
       <c r="AN38" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO38" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP38" s="16" t="n">
-        <v>0</v>
+      <c r="AO38" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP38" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ38" s="16" t="s">
         <v>58</v>
@@ -6828,17 +6828,17 @@
       <c r="AT38" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AU38" s="16" t="s">
-        <v>58</v>
+      <c r="AU38" s="16" t="n">
+        <v>14</v>
       </c>
       <c r="AV38" s="16" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AW38" s="16" t="n">
-        <v>0</v>
+        <v>1373</v>
       </c>
       <c r="AX38" s="16" t="n">
-        <v>1373</v>
+        <v>0</v>
       </c>
       <c r="AY38" s="16" t="n">
         <v>0</v>
@@ -6909,8 +6909,8 @@
       <c r="T39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U39" s="13" t="s">
-        <v>58</v>
+      <c r="U39" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V39" s="13" t="n">
         <v>0</v>
@@ -6939,8 +6939,8 @@
       <c r="AD39" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AE39" s="13" t="n">
-        <v>0</v>
+      <c r="AE39" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AF39" s="13" t="s">
         <v>58</v>
@@ -6969,11 +6969,11 @@
       <c r="AN39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO39" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP39" s="13" t="n">
-        <v>0</v>
+      <c r="AO39" s="13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP39" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ39" s="13" t="s">
         <v>58</v>
@@ -6984,29 +6984,29 @@
       <c r="AS39" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT39" s="13" t="s">
-        <v>58</v>
+      <c r="AT39" s="13" t="n">
+        <v>44763</v>
       </c>
       <c r="AU39" s="13" t="n">
-        <v>44763</v>
+        <v>61915</v>
       </c>
       <c r="AV39" s="13" t="n">
-        <v>61915</v>
+        <v>41145</v>
       </c>
       <c r="AW39" s="13" t="n">
-        <v>41145</v>
+        <v>98322</v>
       </c>
       <c r="AX39" s="13" t="n">
-        <v>98322</v>
+        <v>43001</v>
       </c>
       <c r="AY39" s="13" t="n">
-        <v>43001</v>
+        <v>0</v>
       </c>
       <c r="AZ39" s="13" t="n">
-        <v>0</v>
+        <v>24741</v>
       </c>
       <c r="BA39" s="13" t="n">
-        <v>24741</v>
+        <v>0</v>
       </c>
       <c r="BB39" s="13" t="n">
         <v>0</v>
@@ -7068,8 +7068,8 @@
       <c r="T40" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U40" s="16" t="s">
-        <v>58</v>
+      <c r="U40" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V40" s="16" t="n">
         <v>0</v>
@@ -7098,8 +7098,8 @@
       <c r="AD40" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AE40" s="16" t="n">
-        <v>0</v>
+      <c r="AE40" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AF40" s="16" t="s">
         <v>58</v>
@@ -7128,11 +7128,11 @@
       <c r="AN40" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AO40" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP40" s="16" t="n">
-        <v>0</v>
+      <c r="AO40" s="16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP40" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ40" s="16" t="s">
         <v>58</v>
@@ -7143,29 +7143,29 @@
       <c r="AS40" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AT40" s="16" t="s">
-        <v>58</v>
+      <c r="AT40" s="16" t="n">
+        <v>84442</v>
       </c>
       <c r="AU40" s="16" t="n">
-        <v>84442</v>
+        <v>84475</v>
       </c>
       <c r="AV40" s="16" t="n">
-        <v>84475</v>
+        <v>108656</v>
       </c>
       <c r="AW40" s="16" t="n">
-        <v>108656</v>
+        <v>26691</v>
       </c>
       <c r="AX40" s="16" t="n">
-        <v>26691</v>
+        <v>15534</v>
       </c>
       <c r="AY40" s="16" t="n">
-        <v>15534</v>
+        <v>0</v>
       </c>
       <c r="AZ40" s="16" t="n">
-        <v>0</v>
+        <v>10598</v>
       </c>
       <c r="BA40" s="16" t="n">
-        <v>10598</v>
+        <v>0</v>
       </c>
       <c r="BB40" s="16" t="n">
         <v>0</v>
@@ -7301,28 +7301,28 @@
         <v>0</v>
       </c>
       <c r="AT41" s="18" t="n">
-        <v>0</v>
+        <v>129205</v>
       </c>
       <c r="AU41" s="18" t="n">
-        <v>129205</v>
+        <v>146404</v>
       </c>
       <c r="AV41" s="18" t="n">
-        <v>146404</v>
+        <v>149801</v>
       </c>
       <c r="AW41" s="18" t="n">
-        <v>149801</v>
+        <v>126386</v>
       </c>
       <c r="AX41" s="18" t="n">
-        <v>126386</v>
+        <v>58535</v>
       </c>
       <c r="AY41" s="18" t="n">
-        <v>58535</v>
+        <v>0</v>
       </c>
       <c r="AZ41" s="18" t="n">
-        <v>0</v>
+        <v>35339</v>
       </c>
       <c r="BA41" s="18" t="n">
-        <v>35339</v>
+        <v>0</v>
       </c>
       <c r="BB41" s="18" t="n">
         <v>0</v>
@@ -7439,8 +7439,8 @@
       <c r="T43" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U43" s="18" t="s">
-        <v>58</v>
+      <c r="U43" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V43" s="18" t="n">
         <v>0</v>
@@ -7653,8 +7653,8 @@
       <c r="T45" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U45" s="18" t="s">
-        <v>58</v>
+      <c r="U45" s="18" t="n">
+        <v>0</v>
       </c>
       <c r="V45" s="18" t="n">
         <v>0</v>
@@ -7811,106 +7811,106 @@
         <v>0</v>
       </c>
       <c r="U46" s="22" t="n">
-        <v>0</v>
+        <v>7724593</v>
       </c>
       <c r="V46" s="22" t="n">
-        <v>7724593</v>
+        <v>5505234</v>
       </c>
       <c r="W46" s="22" t="n">
-        <v>5505234</v>
+        <v>8476072</v>
       </c>
       <c r="X46" s="22" t="n">
-        <v>8476072</v>
+        <v>7845480</v>
       </c>
       <c r="Y46" s="22" t="n">
-        <v>7845480</v>
+        <v>7342176</v>
       </c>
       <c r="Z46" s="22" t="n">
-        <v>7342176</v>
+        <v>5908978</v>
       </c>
       <c r="AA46" s="22" t="n">
-        <v>5908978</v>
+        <v>7356998</v>
       </c>
       <c r="AB46" s="22" t="n">
-        <v>7356998</v>
+        <v>7284613</v>
       </c>
       <c r="AC46" s="22" t="n">
-        <v>7284613</v>
+        <v>6935757</v>
       </c>
       <c r="AD46" s="22" t="n">
-        <v>6935757</v>
+        <v>4312558</v>
       </c>
       <c r="AE46" s="22" t="n">
-        <v>4312558</v>
+        <v>8299079</v>
       </c>
       <c r="AF46" s="22" t="n">
-        <v>8299079</v>
+        <v>8989598</v>
       </c>
       <c r="AG46" s="22" t="n">
-        <v>8989598</v>
+        <v>8321095</v>
       </c>
       <c r="AH46" s="22" t="n">
-        <v>8321095</v>
+        <v>6691038</v>
       </c>
       <c r="AI46" s="22" t="n">
-        <v>6691038</v>
+        <v>9118781</v>
       </c>
       <c r="AJ46" s="22" t="n">
-        <v>9118781</v>
+        <v>7282835</v>
       </c>
       <c r="AK46" s="22" t="n">
-        <v>7282835</v>
+        <v>7639953</v>
       </c>
       <c r="AL46" s="22" t="n">
-        <v>7639953</v>
+        <v>7769234</v>
       </c>
       <c r="AM46" s="22" t="n">
-        <v>7769234</v>
+        <v>6766701</v>
       </c>
       <c r="AN46" s="22" t="n">
-        <v>6766701</v>
+        <v>7028613</v>
       </c>
       <c r="AO46" s="22" t="n">
-        <v>7028613</v>
+        <v>7203498</v>
       </c>
       <c r="AP46" s="22" t="n">
-        <v>7203498</v>
+        <v>4070948</v>
       </c>
       <c r="AQ46" s="22" t="n">
-        <v>4070948</v>
+        <v>9342311</v>
       </c>
       <c r="AR46" s="22" t="n">
-        <v>9342311</v>
+        <v>8514283</v>
       </c>
       <c r="AS46" s="22" t="n">
-        <v>8514283</v>
+        <v>8893054</v>
       </c>
       <c r="AT46" s="22" t="n">
-        <v>8893054</v>
+        <v>7272429</v>
       </c>
       <c r="AU46" s="22" t="n">
-        <v>7272429</v>
+        <v>8417918</v>
       </c>
       <c r="AV46" s="22" t="n">
-        <v>8417918</v>
+        <v>6461896</v>
       </c>
       <c r="AW46" s="22" t="n">
-        <v>6461896</v>
+        <v>8260541</v>
       </c>
       <c r="AX46" s="22" t="n">
-        <v>8260541</v>
+        <v>7581658</v>
       </c>
       <c r="AY46" s="22" t="n">
-        <v>7581658</v>
+        <v>7251706</v>
       </c>
       <c r="AZ46" s="22" t="n">
-        <v>7251706</v>
+        <v>7787314</v>
       </c>
       <c r="BA46" s="22" t="n">
-        <v>7787314</v>
+        <v>7785072</v>
       </c>
       <c r="BB46" s="22" t="n">
-        <v>7785072</v>
+        <v>5083675</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8403,107 +8403,107 @@
       <c r="T53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U53" s="13" t="s">
-        <v>58</v>
+      <c r="U53" s="13" t="n">
+        <v>48989</v>
       </c>
       <c r="V53" s="13" t="n">
-        <v>48989</v>
+        <v>39792</v>
       </c>
       <c r="W53" s="13" t="n">
-        <v>39792</v>
+        <v>48283</v>
       </c>
       <c r="X53" s="13" t="n">
-        <v>48283</v>
+        <v>42098</v>
       </c>
       <c r="Y53" s="13" t="n">
-        <v>42098</v>
+        <v>32645</v>
       </c>
       <c r="Z53" s="13" t="n">
-        <v>32645</v>
+        <v>32796</v>
       </c>
       <c r="AA53" s="13" t="n">
-        <v>32796</v>
+        <v>41797</v>
       </c>
       <c r="AB53" s="13" t="n">
-        <v>41797</v>
+        <v>45881</v>
       </c>
       <c r="AC53" s="13" t="n">
-        <v>45881</v>
+        <v>26872</v>
       </c>
       <c r="AD53" s="13" t="n">
-        <v>26872</v>
+        <v>13580</v>
       </c>
       <c r="AE53" s="13" t="n">
-        <v>13580</v>
+        <v>52189</v>
       </c>
       <c r="AF53" s="13" t="n">
-        <v>52189</v>
+        <v>36484</v>
       </c>
       <c r="AG53" s="13" t="n">
-        <v>36484</v>
+        <v>33489</v>
       </c>
       <c r="AH53" s="13" t="n">
-        <v>33489</v>
+        <v>31362</v>
       </c>
       <c r="AI53" s="13" t="n">
-        <v>31362</v>
+        <v>58120</v>
       </c>
       <c r="AJ53" s="13" t="n">
-        <v>58120</v>
+        <v>50176</v>
       </c>
       <c r="AK53" s="13" t="n">
-        <v>50176</v>
+        <v>41973</v>
       </c>
       <c r="AL53" s="13" t="n">
-        <v>41973</v>
+        <v>40011</v>
       </c>
       <c r="AM53" s="13" t="n">
-        <v>40011</v>
+        <v>55342</v>
       </c>
       <c r="AN53" s="13" t="n">
-        <v>55342</v>
+        <v>10241</v>
       </c>
       <c r="AO53" s="13" t="n">
-        <v>10241</v>
+        <v>43552</v>
       </c>
       <c r="AP53" s="13" t="n">
-        <v>43552</v>
+        <v>30027</v>
       </c>
       <c r="AQ53" s="13" t="n">
-        <v>30027</v>
+        <v>50115</v>
       </c>
       <c r="AR53" s="13" t="n">
-        <v>50115</v>
+        <v>37664</v>
       </c>
       <c r="AS53" s="13" t="n">
-        <v>37664</v>
+        <v>56301</v>
       </c>
       <c r="AT53" s="13" t="n">
-        <v>56301</v>
+        <v>47272</v>
       </c>
       <c r="AU53" s="13" t="n">
-        <v>47272</v>
+        <v>56827</v>
       </c>
       <c r="AV53" s="13" t="n">
-        <v>56827</v>
+        <v>68225</v>
       </c>
       <c r="AW53" s="13" t="n">
-        <v>68225</v>
+        <v>72064</v>
       </c>
       <c r="AX53" s="13" t="n">
-        <v>72064</v>
+        <v>71750</v>
       </c>
       <c r="AY53" s="13" t="n">
-        <v>71750</v>
+        <v>84003</v>
       </c>
       <c r="AZ53" s="13" t="n">
-        <v>84003</v>
+        <v>45790</v>
       </c>
       <c r="BA53" s="13" t="n">
-        <v>45790</v>
+        <v>71331</v>
       </c>
       <c r="BB53" s="13" t="n">
-        <v>71331</v>
+        <v>41971</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8562,107 +8562,107 @@
       <c r="T54" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U54" s="16" t="s">
-        <v>58</v>
+      <c r="U54" s="16" t="n">
+        <v>123933</v>
       </c>
       <c r="V54" s="16" t="n">
-        <v>123933</v>
+        <v>143947</v>
       </c>
       <c r="W54" s="16" t="n">
-        <v>143947</v>
+        <v>218355</v>
       </c>
       <c r="X54" s="16" t="n">
-        <v>218355</v>
+        <v>183944</v>
       </c>
       <c r="Y54" s="16" t="n">
-        <v>183944</v>
+        <v>146812</v>
       </c>
       <c r="Z54" s="16" t="n">
-        <v>146812</v>
+        <v>128691</v>
       </c>
       <c r="AA54" s="16" t="n">
-        <v>128691</v>
+        <v>160343</v>
       </c>
       <c r="AB54" s="16" t="n">
-        <v>160343</v>
+        <v>122939</v>
       </c>
       <c r="AC54" s="16" t="n">
-        <v>122939</v>
+        <v>138367</v>
       </c>
       <c r="AD54" s="16" t="n">
-        <v>138367</v>
+        <v>73709</v>
       </c>
       <c r="AE54" s="16" t="n">
-        <v>73709</v>
+        <v>251030</v>
       </c>
       <c r="AF54" s="16" t="n">
-        <v>251030</v>
+        <v>168392</v>
       </c>
       <c r="AG54" s="16" t="n">
-        <v>168392</v>
+        <v>157165</v>
       </c>
       <c r="AH54" s="16" t="n">
-        <v>157165</v>
+        <v>95238</v>
       </c>
       <c r="AI54" s="16" t="n">
-        <v>95238</v>
+        <v>187439</v>
       </c>
       <c r="AJ54" s="16" t="n">
-        <v>187439</v>
+        <v>148135</v>
       </c>
       <c r="AK54" s="16" t="n">
-        <v>148135</v>
+        <v>113068</v>
       </c>
       <c r="AL54" s="16" t="n">
-        <v>113068</v>
+        <v>108936</v>
       </c>
       <c r="AM54" s="16" t="n">
-        <v>108936</v>
+        <v>143156</v>
       </c>
       <c r="AN54" s="16" t="n">
-        <v>143156</v>
+        <v>96506</v>
       </c>
       <c r="AO54" s="16" t="n">
-        <v>96506</v>
+        <v>204093</v>
       </c>
       <c r="AP54" s="16" t="n">
-        <v>204093</v>
+        <v>106605</v>
       </c>
       <c r="AQ54" s="16" t="n">
-        <v>106605</v>
+        <v>145313</v>
       </c>
       <c r="AR54" s="16" t="n">
-        <v>145313</v>
+        <v>209357</v>
       </c>
       <c r="AS54" s="16" t="n">
-        <v>209357</v>
+        <v>201846</v>
       </c>
       <c r="AT54" s="16" t="n">
-        <v>201846</v>
+        <v>158735</v>
       </c>
       <c r="AU54" s="16" t="n">
-        <v>158735</v>
+        <v>247121</v>
       </c>
       <c r="AV54" s="16" t="n">
-        <v>247121</v>
+        <v>291847</v>
       </c>
       <c r="AW54" s="16" t="n">
-        <v>291847</v>
+        <v>308922</v>
       </c>
       <c r="AX54" s="16" t="n">
-        <v>308922</v>
+        <v>146941</v>
       </c>
       <c r="AY54" s="16" t="n">
-        <v>146941</v>
+        <v>275175</v>
       </c>
       <c r="AZ54" s="16" t="n">
-        <v>275175</v>
+        <v>173278</v>
       </c>
       <c r="BA54" s="16" t="n">
-        <v>173278</v>
+        <v>125128</v>
       </c>
       <c r="BB54" s="16" t="n">
-        <v>125128</v>
+        <v>139890</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8721,107 +8721,107 @@
       <c r="T55" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U55" s="13" t="s">
-        <v>58</v>
+      <c r="U55" s="13" t="n">
+        <v>849123</v>
       </c>
       <c r="V55" s="13" t="n">
-        <v>849123</v>
+        <v>595911</v>
       </c>
       <c r="W55" s="13" t="n">
-        <v>595911</v>
+        <v>1108313</v>
       </c>
       <c r="X55" s="13" t="n">
-        <v>1108313</v>
+        <v>1031586</v>
       </c>
       <c r="Y55" s="13" t="n">
-        <v>1031586</v>
+        <v>1005646</v>
       </c>
       <c r="Z55" s="13" t="n">
-        <v>1005646</v>
+        <v>746742</v>
       </c>
       <c r="AA55" s="13" t="n">
-        <v>746742</v>
+        <v>1069436</v>
       </c>
       <c r="AB55" s="13" t="n">
-        <v>1069436</v>
+        <v>1281241</v>
       </c>
       <c r="AC55" s="13" t="n">
-        <v>1281241</v>
+        <v>1387108</v>
       </c>
       <c r="AD55" s="13" t="n">
-        <v>1387108</v>
+        <v>743677</v>
       </c>
       <c r="AE55" s="13" t="n">
-        <v>743677</v>
+        <v>1588025</v>
       </c>
       <c r="AF55" s="13" t="n">
-        <v>1588025</v>
+        <v>1975465</v>
       </c>
       <c r="AG55" s="13" t="n">
-        <v>1975465</v>
+        <v>1264333</v>
       </c>
       <c r="AH55" s="13" t="n">
-        <v>1264333</v>
+        <v>1549929</v>
       </c>
       <c r="AI55" s="13" t="n">
-        <v>1549929</v>
+        <v>1953240</v>
       </c>
       <c r="AJ55" s="13" t="n">
-        <v>1953240</v>
+        <v>1343690</v>
       </c>
       <c r="AK55" s="13" t="n">
-        <v>1343690</v>
+        <v>1385257</v>
       </c>
       <c r="AL55" s="13" t="n">
-        <v>1385257</v>
+        <v>1040898</v>
       </c>
       <c r="AM55" s="13" t="n">
-        <v>1040898</v>
+        <v>1243622</v>
       </c>
       <c r="AN55" s="13" t="n">
-        <v>1243622</v>
+        <v>993773</v>
       </c>
       <c r="AO55" s="13" t="n">
-        <v>993773</v>
+        <v>1686317</v>
       </c>
       <c r="AP55" s="13" t="n">
-        <v>1686317</v>
+        <v>664396</v>
       </c>
       <c r="AQ55" s="13" t="n">
-        <v>664396</v>
+        <v>2596866</v>
       </c>
       <c r="AR55" s="13" t="n">
-        <v>2596866</v>
+        <v>1782819</v>
       </c>
       <c r="AS55" s="13" t="n">
-        <v>1782819</v>
+        <v>2220167</v>
       </c>
       <c r="AT55" s="13" t="n">
-        <v>2220167</v>
+        <v>1659379</v>
       </c>
       <c r="AU55" s="13" t="n">
-        <v>1659379</v>
+        <v>1954715</v>
       </c>
       <c r="AV55" s="13" t="n">
-        <v>1954715</v>
+        <v>1733639</v>
       </c>
       <c r="AW55" s="13" t="n">
-        <v>1733639</v>
+        <v>2272539</v>
       </c>
       <c r="AX55" s="13" t="n">
-        <v>2272539</v>
+        <v>1553625</v>
       </c>
       <c r="AY55" s="13" t="n">
-        <v>1553625</v>
+        <v>1824448</v>
       </c>
       <c r="AZ55" s="13" t="n">
-        <v>1824448</v>
+        <v>1691184</v>
       </c>
       <c r="BA55" s="13" t="n">
-        <v>1691184</v>
+        <v>2301204</v>
       </c>
       <c r="BB55" s="13" t="n">
-        <v>2301204</v>
+        <v>1798718</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8880,107 +8880,107 @@
       <c r="T56" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U56" s="16" t="s">
-        <v>58</v>
+      <c r="U56" s="16" t="n">
+        <v>1378861</v>
       </c>
       <c r="V56" s="16" t="n">
-        <v>1378861</v>
+        <v>1226566</v>
       </c>
       <c r="W56" s="16" t="n">
-        <v>1226566</v>
+        <v>2174719</v>
       </c>
       <c r="X56" s="16" t="n">
-        <v>2174719</v>
+        <v>1858515</v>
       </c>
       <c r="Y56" s="16" t="n">
-        <v>1858515</v>
+        <v>1800961</v>
       </c>
       <c r="Z56" s="16" t="n">
-        <v>1800961</v>
+        <v>1859323</v>
       </c>
       <c r="AA56" s="16" t="n">
-        <v>1859323</v>
+        <v>2559714</v>
       </c>
       <c r="AB56" s="16" t="n">
-        <v>2559714</v>
+        <v>2583842</v>
       </c>
       <c r="AC56" s="16" t="n">
-        <v>2583842</v>
+        <v>2482218</v>
       </c>
       <c r="AD56" s="16" t="n">
-        <v>2482218</v>
+        <v>1489683</v>
       </c>
       <c r="AE56" s="16" t="n">
-        <v>1489683</v>
+        <v>2537265</v>
       </c>
       <c r="AF56" s="16" t="n">
-        <v>2537265</v>
+        <v>2608152</v>
       </c>
       <c r="AG56" s="16" t="n">
-        <v>2608152</v>
+        <v>3056985</v>
       </c>
       <c r="AH56" s="16" t="n">
-        <v>3056985</v>
+        <v>1925926</v>
       </c>
       <c r="AI56" s="16" t="n">
-        <v>1925926</v>
+        <v>2743058</v>
       </c>
       <c r="AJ56" s="16" t="n">
-        <v>2743058</v>
+        <v>2346792</v>
       </c>
       <c r="AK56" s="16" t="n">
-        <v>2346792</v>
+        <v>2598725</v>
       </c>
       <c r="AL56" s="16" t="n">
-        <v>2598725</v>
+        <v>3331106</v>
       </c>
       <c r="AM56" s="16" t="n">
-        <v>3331106</v>
+        <v>2562188</v>
       </c>
       <c r="AN56" s="16" t="n">
-        <v>2562188</v>
+        <v>3031193</v>
       </c>
       <c r="AO56" s="16" t="n">
-        <v>3031193</v>
+        <v>2552731</v>
       </c>
       <c r="AP56" s="16" t="n">
-        <v>2552731</v>
+        <v>1680153</v>
       </c>
       <c r="AQ56" s="16" t="n">
-        <v>1680153</v>
+        <v>3038928</v>
       </c>
       <c r="AR56" s="16" t="n">
-        <v>3038928</v>
+        <v>3861560</v>
       </c>
       <c r="AS56" s="16" t="n">
-        <v>3861560</v>
+        <v>3948718</v>
       </c>
       <c r="AT56" s="16" t="n">
-        <v>3948718</v>
+        <v>3722268</v>
       </c>
       <c r="AU56" s="16" t="n">
-        <v>3722268</v>
+        <v>3848333</v>
       </c>
       <c r="AV56" s="16" t="n">
-        <v>3848333</v>
+        <v>2959424</v>
       </c>
       <c r="AW56" s="16" t="n">
-        <v>2959424</v>
+        <v>4023052</v>
       </c>
       <c r="AX56" s="16" t="n">
-        <v>4023052</v>
+        <v>4357508</v>
       </c>
       <c r="AY56" s="16" t="n">
-        <v>4357508</v>
+        <v>3789396</v>
       </c>
       <c r="AZ56" s="16" t="n">
-        <v>3789396</v>
+        <v>4622911</v>
       </c>
       <c r="BA56" s="16" t="n">
-        <v>4622911</v>
+        <v>4585351</v>
       </c>
       <c r="BB56" s="16" t="n">
-        <v>4585351</v>
+        <v>2806385</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9038,106 +9038,106 @@
         <v>0</v>
       </c>
       <c r="U57" s="18" t="n">
-        <v>0</v>
+        <v>2400906</v>
       </c>
       <c r="V57" s="18" t="n">
-        <v>2400906</v>
+        <v>2006216</v>
       </c>
       <c r="W57" s="18" t="n">
-        <v>2006216</v>
+        <v>3549670</v>
       </c>
       <c r="X57" s="18" t="n">
-        <v>3549670</v>
+        <v>3116143</v>
       </c>
       <c r="Y57" s="18" t="n">
-        <v>3116143</v>
+        <v>2986064</v>
       </c>
       <c r="Z57" s="18" t="n">
-        <v>2986064</v>
+        <v>2767552</v>
       </c>
       <c r="AA57" s="18" t="n">
-        <v>2767552</v>
+        <v>3831290</v>
       </c>
       <c r="AB57" s="18" t="n">
-        <v>3831290</v>
+        <v>4033903</v>
       </c>
       <c r="AC57" s="18" t="n">
-        <v>4033903</v>
+        <v>4034565</v>
       </c>
       <c r="AD57" s="18" t="n">
-        <v>4034565</v>
+        <v>2320649</v>
       </c>
       <c r="AE57" s="18" t="n">
-        <v>2320649</v>
+        <v>4428509</v>
       </c>
       <c r="AF57" s="18" t="n">
-        <v>4428509</v>
+        <v>4788493</v>
       </c>
       <c r="AG57" s="18" t="n">
-        <v>4788493</v>
+        <v>4511972</v>
       </c>
       <c r="AH57" s="18" t="n">
-        <v>4511972</v>
+        <v>3602455</v>
       </c>
       <c r="AI57" s="18" t="n">
-        <v>3602455</v>
+        <v>4941857</v>
       </c>
       <c r="AJ57" s="18" t="n">
-        <v>4941857</v>
+        <v>3888793</v>
       </c>
       <c r="AK57" s="18" t="n">
-        <v>3888793</v>
+        <v>4139023</v>
       </c>
       <c r="AL57" s="18" t="n">
-        <v>4139023</v>
+        <v>4520951</v>
       </c>
       <c r="AM57" s="18" t="n">
-        <v>4520951</v>
+        <v>4004308</v>
       </c>
       <c r="AN57" s="18" t="n">
-        <v>4004308</v>
+        <v>4131713</v>
       </c>
       <c r="AO57" s="18" t="n">
-        <v>4131713</v>
+        <v>4486693</v>
       </c>
       <c r="AP57" s="18" t="n">
-        <v>4486693</v>
+        <v>2481181</v>
       </c>
       <c r="AQ57" s="18" t="n">
-        <v>2481181</v>
+        <v>5831222</v>
       </c>
       <c r="AR57" s="18" t="n">
-        <v>5831222</v>
+        <v>5891400</v>
       </c>
       <c r="AS57" s="18" t="n">
-        <v>5891400</v>
+        <v>6427032</v>
       </c>
       <c r="AT57" s="18" t="n">
-        <v>6427032</v>
+        <v>5587654</v>
       </c>
       <c r="AU57" s="18" t="n">
-        <v>5587654</v>
+        <v>6106996</v>
       </c>
       <c r="AV57" s="18" t="n">
-        <v>6106996</v>
+        <v>5053135</v>
       </c>
       <c r="AW57" s="18" t="n">
-        <v>5053135</v>
+        <v>6676577</v>
       </c>
       <c r="AX57" s="18" t="n">
-        <v>6676577</v>
+        <v>6129824</v>
       </c>
       <c r="AY57" s="18" t="n">
-        <v>6129824</v>
+        <v>5973022</v>
       </c>
       <c r="AZ57" s="18" t="n">
-        <v>5973022</v>
+        <v>6533163</v>
       </c>
       <c r="BA57" s="18" t="n">
-        <v>6533163</v>
+        <v>7083014</v>
       </c>
       <c r="BB57" s="18" t="n">
-        <v>7083014</v>
+        <v>4786964</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9253,8 +9253,8 @@
       <c r="T59" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U59" s="13" t="s">
-        <v>58</v>
+      <c r="U59" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V59" s="13" t="n">
         <v>0</v>
@@ -9316,8 +9316,8 @@
       <c r="AO59" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP59" s="13" t="n">
-        <v>0</v>
+      <c r="AP59" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ59" s="13" t="s">
         <v>58</v>
@@ -9412,8 +9412,8 @@
       <c r="T60" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U60" s="16" t="s">
-        <v>58</v>
+      <c r="U60" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V60" s="16" t="n">
         <v>0</v>
@@ -9475,8 +9475,8 @@
       <c r="AO60" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP60" s="16" t="n">
-        <v>0</v>
+      <c r="AP60" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ60" s="16" t="s">
         <v>58</v>
@@ -9490,17 +9490,17 @@
       <c r="AT60" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AU60" s="16" t="s">
-        <v>58</v>
+      <c r="AU60" s="16" t="n">
+        <v>15</v>
       </c>
       <c r="AV60" s="16" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AW60" s="16" t="n">
-        <v>0</v>
+        <v>1001</v>
       </c>
       <c r="AX60" s="16" t="n">
-        <v>1001</v>
+        <v>0</v>
       </c>
       <c r="AY60" s="16" t="n">
         <v>0</v>
@@ -9571,8 +9571,8 @@
       <c r="T61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U61" s="13" t="s">
-        <v>58</v>
+      <c r="U61" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V61" s="13" t="n">
         <v>0</v>
@@ -9634,8 +9634,8 @@
       <c r="AO61" s="13" t="n">
         <v>0</v>
       </c>
-      <c r="AP61" s="13" t="n">
-        <v>0</v>
+      <c r="AP61" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ61" s="13" t="s">
         <v>58</v>
@@ -9646,29 +9646,29 @@
       <c r="AS61" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT61" s="13" t="s">
-        <v>58</v>
+      <c r="AT61" s="13" t="n">
+        <v>30627</v>
       </c>
       <c r="AU61" s="13" t="n">
-        <v>30627</v>
+        <v>46152</v>
       </c>
       <c r="AV61" s="13" t="n">
-        <v>46152</v>
+        <v>30937</v>
       </c>
       <c r="AW61" s="13" t="n">
-        <v>30937</v>
+        <v>75739</v>
       </c>
       <c r="AX61" s="13" t="n">
-        <v>75739</v>
+        <v>34400</v>
       </c>
       <c r="AY61" s="13" t="n">
-        <v>34400</v>
+        <v>0</v>
       </c>
       <c r="AZ61" s="13" t="n">
-        <v>0</v>
+        <v>20261</v>
       </c>
       <c r="BA61" s="13" t="n">
-        <v>20261</v>
+        <v>0</v>
       </c>
       <c r="BB61" s="13" t="n">
         <v>0</v>
@@ -9730,8 +9730,8 @@
       <c r="T62" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U62" s="16" t="s">
-        <v>58</v>
+      <c r="U62" s="16" t="n">
+        <v>0</v>
       </c>
       <c r="V62" s="16" t="n">
         <v>0</v>
@@ -9793,8 +9793,8 @@
       <c r="AO62" s="16" t="n">
         <v>0</v>
       </c>
-      <c r="AP62" s="16" t="n">
-        <v>0</v>
+      <c r="AP62" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="AQ62" s="16" t="s">
         <v>58</v>
@@ -9805,29 +9805,29 @@
       <c r="AS62" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AT62" s="16" t="s">
-        <v>58</v>
+      <c r="AT62" s="16" t="n">
+        <v>58842</v>
       </c>
       <c r="AU62" s="16" t="n">
-        <v>58842</v>
+        <v>61311</v>
       </c>
       <c r="AV62" s="16" t="n">
-        <v>61311</v>
+        <v>79539</v>
       </c>
       <c r="AW62" s="16" t="n">
-        <v>79539</v>
+        <v>21930</v>
       </c>
       <c r="AX62" s="16" t="n">
-        <v>21930</v>
+        <v>12482</v>
       </c>
       <c r="AY62" s="16" t="n">
-        <v>12482</v>
+        <v>0</v>
       </c>
       <c r="AZ62" s="16" t="n">
-        <v>0</v>
+        <v>8698</v>
       </c>
       <c r="BA62" s="16" t="n">
-        <v>8698</v>
+        <v>0</v>
       </c>
       <c r="BB62" s="16" t="n">
         <v>0</v>
@@ -9963,28 +9963,28 @@
         <v>0</v>
       </c>
       <c r="AT63" s="18" t="n">
-        <v>0</v>
+        <v>89469</v>
       </c>
       <c r="AU63" s="18" t="n">
-        <v>89469</v>
+        <v>107478</v>
       </c>
       <c r="AV63" s="18" t="n">
-        <v>107478</v>
+        <v>110476</v>
       </c>
       <c r="AW63" s="18" t="n">
-        <v>110476</v>
+        <v>98670</v>
       </c>
       <c r="AX63" s="18" t="n">
-        <v>98670</v>
+        <v>46882</v>
       </c>
       <c r="AY63" s="18" t="n">
-        <v>46882</v>
+        <v>0</v>
       </c>
       <c r="AZ63" s="18" t="n">
-        <v>0</v>
+        <v>28959</v>
       </c>
       <c r="BA63" s="18" t="n">
-        <v>28959</v>
+        <v>0</v>
       </c>
       <c r="BB63" s="18" t="n">
         <v>0</v>
@@ -10103,8 +10103,8 @@
       <c r="T65" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U65" s="18" t="s">
-        <v>58</v>
+      <c r="U65" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V65" s="23" t="n">
         <v>0</v>
@@ -10319,8 +10319,8 @@
       <c r="T67" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="U67" s="18" t="s">
-        <v>58</v>
+      <c r="U67" s="23" t="n">
+        <v>0</v>
       </c>
       <c r="V67" s="23" t="n">
         <v>0</v>
@@ -10535,8 +10535,8 @@
       <c r="T69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U69" s="13" t="s">
-        <v>58</v>
+      <c r="U69" s="13" t="n">
+        <v>0</v>
       </c>
       <c r="V69" s="13" t="n">
         <v>0</v>
@@ -10693,106 +10693,106 @@
         <v>0</v>
       </c>
       <c r="U70" s="22" t="n">
-        <v>0</v>
+        <v>2400906</v>
       </c>
       <c r="V70" s="22" t="n">
-        <v>2400906</v>
+        <v>2006216</v>
       </c>
       <c r="W70" s="22" t="n">
-        <v>2006216</v>
+        <v>3549670</v>
       </c>
       <c r="X70" s="22" t="n">
-        <v>3549670</v>
+        <v>3116143</v>
       </c>
       <c r="Y70" s="22" t="n">
-        <v>3116143</v>
+        <v>2986064</v>
       </c>
       <c r="Z70" s="22" t="n">
-        <v>2986064</v>
+        <v>2767552</v>
       </c>
       <c r="AA70" s="22" t="n">
-        <v>2767552</v>
+        <v>3831290</v>
       </c>
       <c r="AB70" s="22" t="n">
-        <v>3831290</v>
+        <v>4033903</v>
       </c>
       <c r="AC70" s="22" t="n">
-        <v>4033903</v>
+        <v>4034565</v>
       </c>
       <c r="AD70" s="22" t="n">
-        <v>4034565</v>
+        <v>2320649</v>
       </c>
       <c r="AE70" s="22" t="n">
-        <v>2320649</v>
+        <v>4428509</v>
       </c>
       <c r="AF70" s="22" t="n">
-        <v>4428509</v>
+        <v>4788493</v>
       </c>
       <c r="AG70" s="22" t="n">
-        <v>4788493</v>
+        <v>4511972</v>
       </c>
       <c r="AH70" s="22" t="n">
-        <v>4511972</v>
+        <v>3602455</v>
       </c>
       <c r="AI70" s="22" t="n">
-        <v>3602455</v>
+        <v>4941857</v>
       </c>
       <c r="AJ70" s="22" t="n">
-        <v>4941857</v>
+        <v>3888793</v>
       </c>
       <c r="AK70" s="22" t="n">
-        <v>3888793</v>
+        <v>4139023</v>
       </c>
       <c r="AL70" s="22" t="n">
-        <v>4139023</v>
+        <v>4520951</v>
       </c>
       <c r="AM70" s="22" t="n">
-        <v>4520951</v>
+        <v>4004308</v>
       </c>
       <c r="AN70" s="22" t="n">
-        <v>4004308</v>
+        <v>4131713</v>
       </c>
       <c r="AO70" s="22" t="n">
-        <v>4131713</v>
+        <v>4486693</v>
       </c>
       <c r="AP70" s="22" t="n">
-        <v>4486693</v>
+        <v>2481181</v>
       </c>
       <c r="AQ70" s="22" t="n">
-        <v>2481181</v>
+        <v>5831222</v>
       </c>
       <c r="AR70" s="22" t="n">
-        <v>5831222</v>
+        <v>5891400</v>
       </c>
       <c r="AS70" s="22" t="n">
-        <v>5891400</v>
+        <v>6427032</v>
       </c>
       <c r="AT70" s="22" t="n">
-        <v>6427032</v>
+        <v>5677123</v>
       </c>
       <c r="AU70" s="22" t="n">
-        <v>5677123</v>
+        <v>6214474</v>
       </c>
       <c r="AV70" s="22" t="n">
-        <v>6214474</v>
+        <v>5163611</v>
       </c>
       <c r="AW70" s="22" t="n">
-        <v>5163611</v>
+        <v>6775247</v>
       </c>
       <c r="AX70" s="22" t="n">
-        <v>6775247</v>
+        <v>6176706</v>
       </c>
       <c r="AY70" s="22" t="n">
-        <v>6176706</v>
+        <v>5973022</v>
       </c>
       <c r="AZ70" s="22" t="n">
-        <v>5973022</v>
+        <v>6562122</v>
       </c>
       <c r="BA70" s="22" t="n">
-        <v>6562122</v>
+        <v>7083014</v>
       </c>
       <c r="BB70" s="22" t="n">
-        <v>7083014</v>
+        <v>4786964</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11285,107 +11285,107 @@
       <c r="T77" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U77" s="13" t="s">
-        <v>58</v>
+      <c r="U77" s="13" t="n">
+        <v>306705</v>
       </c>
       <c r="V77" s="13" t="n">
-        <v>306705</v>
+        <v>314775</v>
       </c>
       <c r="W77" s="13" t="n">
-        <v>314775</v>
+        <v>315823</v>
       </c>
       <c r="X77" s="13" t="n">
-        <v>315823</v>
+        <v>302687</v>
       </c>
       <c r="Y77" s="13" t="n">
-        <v>302687</v>
+        <v>295995</v>
       </c>
       <c r="Z77" s="13" t="n">
-        <v>295995</v>
+        <v>299294</v>
       </c>
       <c r="AA77" s="13" t="n">
-        <v>299294</v>
+        <v>290509</v>
       </c>
       <c r="AB77" s="13" t="n">
-        <v>290509</v>
+        <v>294279</v>
       </c>
       <c r="AC77" s="13" t="n">
-        <v>294279</v>
+        <v>300777</v>
       </c>
       <c r="AD77" s="13" t="n">
-        <v>300777</v>
+        <v>300582</v>
       </c>
       <c r="AE77" s="13" t="n">
-        <v>300582</v>
+        <v>294170</v>
       </c>
       <c r="AF77" s="13" t="n">
-        <v>294170</v>
+        <v>290450</v>
       </c>
       <c r="AG77" s="13" t="n">
-        <v>290450</v>
+        <v>291762</v>
       </c>
       <c r="AH77" s="13" t="n">
-        <v>291762</v>
+        <v>294797</v>
       </c>
       <c r="AI77" s="13" t="n">
-        <v>294797</v>
+        <v>287252</v>
       </c>
       <c r="AJ77" s="13" t="n">
-        <v>287252</v>
+        <v>289276</v>
       </c>
       <c r="AK77" s="13" t="n">
-        <v>289276</v>
+        <v>295687</v>
       </c>
       <c r="AL77" s="13" t="n">
-        <v>295687</v>
+        <v>291891</v>
       </c>
       <c r="AM77" s="13" t="n">
-        <v>291891</v>
+        <v>289166</v>
       </c>
       <c r="AN77" s="13" t="n">
-        <v>289166</v>
+        <v>386045</v>
       </c>
       <c r="AO77" s="13" t="n">
-        <v>386045</v>
+        <v>350136</v>
       </c>
       <c r="AP77" s="13" t="n">
-        <v>350136</v>
+        <v>350893</v>
       </c>
       <c r="AQ77" s="13" t="n">
-        <v>350893</v>
+        <v>480254</v>
       </c>
       <c r="AR77" s="13" t="n">
-        <v>480254</v>
+        <v>399817</v>
       </c>
       <c r="AS77" s="13" t="n">
-        <v>399817</v>
+        <v>458776</v>
       </c>
       <c r="AT77" s="13" t="n">
-        <v>458776</v>
+        <v>471292</v>
       </c>
       <c r="AU77" s="13" t="n">
-        <v>471292</v>
+        <v>479156</v>
       </c>
       <c r="AV77" s="13" t="n">
-        <v>479156</v>
+        <v>544037</v>
       </c>
       <c r="AW77" s="13" t="n">
-        <v>544037</v>
+        <v>614576</v>
       </c>
       <c r="AX77" s="13" t="n">
-        <v>614576</v>
+        <v>580464</v>
       </c>
       <c r="AY77" s="13" t="n">
-        <v>580464</v>
+        <v>571733</v>
       </c>
       <c r="AZ77" s="13" t="n">
-        <v>571733</v>
+        <v>578909</v>
       </c>
       <c r="BA77" s="13" t="n">
-        <v>578909</v>
+        <v>561043</v>
       </c>
       <c r="BB77" s="13" t="n">
-        <v>561043</v>
+        <v>577095</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11444,107 +11444,107 @@
       <c r="T78" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U78" s="16" t="s">
-        <v>58</v>
+      <c r="U78" s="16" t="n">
+        <v>503312</v>
       </c>
       <c r="V78" s="16" t="n">
-        <v>503312</v>
+        <v>550378</v>
       </c>
       <c r="W78" s="16" t="n">
-        <v>550378</v>
+        <v>578137</v>
       </c>
       <c r="X78" s="16" t="n">
-        <v>578137</v>
+        <v>576716</v>
       </c>
       <c r="Y78" s="16" t="n">
-        <v>576716</v>
+        <v>575645</v>
       </c>
       <c r="Z78" s="16" t="n">
-        <v>575645</v>
+        <v>583188</v>
       </c>
       <c r="AA78" s="16" t="n">
-        <v>583188</v>
+        <v>569608</v>
       </c>
       <c r="AB78" s="16" t="n">
-        <v>569608</v>
+        <v>582180</v>
       </c>
       <c r="AC78" s="16" t="n">
-        <v>582180</v>
+        <v>576844</v>
       </c>
       <c r="AD78" s="16" t="n">
-        <v>576844</v>
+        <v>574559</v>
       </c>
       <c r="AE78" s="16" t="n">
-        <v>574559</v>
+        <v>578913</v>
       </c>
       <c r="AF78" s="16" t="n">
-        <v>578913</v>
+        <v>581402</v>
       </c>
       <c r="AG78" s="16" t="n">
-        <v>581402</v>
+        <v>566914</v>
       </c>
       <c r="AH78" s="16" t="n">
-        <v>566914</v>
+        <v>575112</v>
       </c>
       <c r="AI78" s="16" t="n">
-        <v>575112</v>
+        <v>565548</v>
       </c>
       <c r="AJ78" s="16" t="n">
-        <v>565548</v>
+        <v>577982</v>
       </c>
       <c r="AK78" s="16" t="n">
-        <v>577982</v>
+        <v>581754</v>
       </c>
       <c r="AL78" s="16" t="n">
-        <v>581754</v>
+        <v>567375</v>
       </c>
       <c r="AM78" s="16" t="n">
-        <v>567375</v>
+        <v>581111</v>
       </c>
       <c r="AN78" s="16" t="n">
-        <v>581111</v>
+        <v>740031</v>
       </c>
       <c r="AO78" s="16" t="n">
-        <v>740031</v>
+        <v>739192</v>
       </c>
       <c r="AP78" s="16" t="n">
-        <v>739192</v>
+        <v>740616</v>
       </c>
       <c r="AQ78" s="16" t="n">
-        <v>740616</v>
+        <v>752527</v>
       </c>
       <c r="AR78" s="16" t="n">
-        <v>752527</v>
+        <v>715300</v>
       </c>
       <c r="AS78" s="16" t="n">
-        <v>715300</v>
+        <v>735907</v>
       </c>
       <c r="AT78" s="16" t="n">
-        <v>735907</v>
+        <v>858394</v>
       </c>
       <c r="AU78" s="16" t="n">
-        <v>858394</v>
+        <v>887698</v>
       </c>
       <c r="AV78" s="16" t="n">
-        <v>887698</v>
+        <v>1077658</v>
       </c>
       <c r="AW78" s="16" t="n">
-        <v>1077658</v>
+        <v>1113694</v>
       </c>
       <c r="AX78" s="16" t="n">
-        <v>1113694</v>
+        <v>1097172</v>
       </c>
       <c r="AY78" s="16" t="n">
-        <v>1097172</v>
+        <v>1060785</v>
       </c>
       <c r="AZ78" s="16" t="n">
-        <v>1060785</v>
+        <v>1070761</v>
       </c>
       <c r="BA78" s="16" t="n">
-        <v>1070761</v>
+        <v>1136948</v>
       </c>
       <c r="BB78" s="16" t="n">
-        <v>1136948</v>
+        <v>1130068</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11603,107 +11603,107 @@
       <c r="T79" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U79" s="13" t="s">
-        <v>58</v>
+      <c r="U79" s="13" t="n">
+        <v>328893</v>
       </c>
       <c r="V79" s="13" t="n">
-        <v>328893</v>
+        <v>376941</v>
       </c>
       <c r="W79" s="13" t="n">
-        <v>376941</v>
+        <v>415995</v>
       </c>
       <c r="X79" s="13" t="n">
-        <v>415995</v>
+        <v>405545</v>
       </c>
       <c r="Y79" s="13" t="n">
-        <v>405545</v>
+        <v>408573</v>
       </c>
       <c r="Z79" s="13" t="n">
-        <v>408573</v>
+        <v>420444</v>
       </c>
       <c r="AA79" s="13" t="n">
-        <v>420444</v>
+        <v>504978</v>
       </c>
       <c r="AB79" s="13" t="n">
-        <v>504978</v>
+        <v>525014</v>
       </c>
       <c r="AC79" s="13" t="n">
-        <v>525014</v>
+        <v>643282</v>
       </c>
       <c r="AD79" s="13" t="n">
-        <v>643282</v>
+        <v>542330</v>
       </c>
       <c r="AE79" s="13" t="n">
-        <v>542330</v>
+        <v>550814</v>
       </c>
       <c r="AF79" s="13" t="n">
-        <v>550814</v>
+        <v>549417</v>
       </c>
       <c r="AG79" s="13" t="n">
-        <v>549417</v>
+        <v>550561</v>
       </c>
       <c r="AH79" s="13" t="n">
-        <v>550561</v>
+        <v>547982</v>
       </c>
       <c r="AI79" s="13" t="n">
-        <v>547982</v>
+        <v>548345</v>
       </c>
       <c r="AJ79" s="13" t="n">
-        <v>548345</v>
+        <v>539834</v>
       </c>
       <c r="AK79" s="13" t="n">
-        <v>539834</v>
+        <v>543543</v>
       </c>
       <c r="AL79" s="13" t="n">
-        <v>543543</v>
+        <v>624810</v>
       </c>
       <c r="AM79" s="13" t="n">
-        <v>624810</v>
+        <v>616443</v>
       </c>
       <c r="AN79" s="13" t="n">
-        <v>616443</v>
+        <v>597789</v>
       </c>
       <c r="AO79" s="13" t="n">
-        <v>597789</v>
+        <v>648161</v>
       </c>
       <c r="AP79" s="13" t="n">
-        <v>648161</v>
+        <v>597741</v>
       </c>
       <c r="AQ79" s="13" t="n">
-        <v>597741</v>
+        <v>620672</v>
       </c>
       <c r="AR79" s="13" t="n">
-        <v>620672</v>
+        <v>684449</v>
       </c>
       <c r="AS79" s="13" t="n">
-        <v>684449</v>
+        <v>721433</v>
       </c>
       <c r="AT79" s="13" t="n">
-        <v>721433</v>
+        <v>729268</v>
       </c>
       <c r="AU79" s="13" t="n">
-        <v>729268</v>
+        <v>754984</v>
       </c>
       <c r="AV79" s="13" t="n">
-        <v>754984</v>
+        <v>792557</v>
       </c>
       <c r="AW79" s="13" t="n">
-        <v>792557</v>
+        <v>818208</v>
       </c>
       <c r="AX79" s="13" t="n">
-        <v>818208</v>
+        <v>829624</v>
       </c>
       <c r="AY79" s="13" t="n">
-        <v>829624</v>
+        <v>820968</v>
       </c>
       <c r="AZ79" s="13" t="n">
-        <v>820968</v>
+        <v>824454</v>
       </c>
       <c r="BA79" s="13" t="n">
-        <v>824454</v>
+        <v>946876</v>
       </c>
       <c r="BB79" s="13" t="n">
-        <v>946876</v>
+        <v>912978</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11762,107 +11762,107 @@
       <c r="T80" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="U80" s="16" t="s">
-        <v>58</v>
+      <c r="U80" s="16" t="n">
+        <v>291091</v>
       </c>
       <c r="V80" s="16" t="n">
-        <v>291091</v>
+        <v>346844</v>
       </c>
       <c r="W80" s="16" t="n">
-        <v>346844</v>
+        <v>411781</v>
       </c>
       <c r="X80" s="16" t="n">
-        <v>411781</v>
+        <v>383694</v>
       </c>
       <c r="Y80" s="16" t="n">
-        <v>383694</v>
+        <v>398841</v>
       </c>
       <c r="Z80" s="16" t="n">
-        <v>398841</v>
+        <v>488954</v>
       </c>
       <c r="AA80" s="16" t="n">
-        <v>488954</v>
+        <v>531741</v>
       </c>
       <c r="AB80" s="16" t="n">
-        <v>531741</v>
+        <v>577119</v>
       </c>
       <c r="AC80" s="16" t="n">
-        <v>577119</v>
+        <v>557771</v>
       </c>
       <c r="AD80" s="16" t="n">
-        <v>557771</v>
+        <v>538214</v>
       </c>
       <c r="AE80" s="16" t="n">
-        <v>538214</v>
+        <v>528048</v>
       </c>
       <c r="AF80" s="16" t="n">
-        <v>528048</v>
+        <v>523852</v>
       </c>
       <c r="AG80" s="16" t="n">
-        <v>523852</v>
+        <v>542727</v>
       </c>
       <c r="AH80" s="16" t="n">
-        <v>542727</v>
+        <v>536376</v>
       </c>
       <c r="AI80" s="16" t="n">
-        <v>536376</v>
+        <v>546104</v>
       </c>
       <c r="AJ80" s="16" t="n">
-        <v>546104</v>
+        <v>537761</v>
       </c>
       <c r="AK80" s="16" t="n">
-        <v>537761</v>
+        <v>546516</v>
       </c>
       <c r="AL80" s="16" t="n">
-        <v>546516</v>
+        <v>576893</v>
       </c>
       <c r="AM80" s="16" t="n">
-        <v>576893</v>
+        <v>594261</v>
       </c>
       <c r="AN80" s="16" t="n">
-        <v>594261</v>
+        <v>581885</v>
       </c>
       <c r="AO80" s="16" t="n">
-        <v>581885</v>
+        <v>607603</v>
       </c>
       <c r="AP80" s="16" t="n">
-        <v>607603</v>
+        <v>615458</v>
       </c>
       <c r="AQ80" s="16" t="n">
-        <v>615458</v>
+        <v>625178</v>
       </c>
       <c r="AR80" s="16" t="n">
-        <v>625178</v>
+        <v>699223</v>
       </c>
       <c r="AS80" s="16" t="n">
-        <v>699223</v>
+        <v>728732</v>
       </c>
       <c r="AT80" s="16" t="n">
-        <v>728732</v>
+        <v>812262</v>
       </c>
       <c r="AU80" s="16" t="n">
-        <v>812262</v>
+        <v>728100</v>
       </c>
       <c r="AV80" s="16" t="n">
-        <v>728100</v>
+        <v>793736</v>
       </c>
       <c r="AW80" s="16" t="n">
-        <v>793736</v>
+        <v>810764</v>
       </c>
       <c r="AX80" s="16" t="n">
-        <v>810764</v>
+        <v>808008</v>
       </c>
       <c r="AY80" s="16" t="n">
-        <v>808008</v>
+        <v>819673</v>
       </c>
       <c r="AZ80" s="16" t="n">
-        <v>819673</v>
+        <v>846722</v>
       </c>
       <c r="BA80" s="16" t="n">
-        <v>846722</v>
+        <v>896002</v>
       </c>
       <c r="BB80" s="16" t="n">
-        <v>896002</v>
+        <v>962082</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12056,17 +12056,17 @@
       <c r="AT82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU82" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV82" s="13" t="n">
+      <c r="AU82" s="13" t="n">
         <v>1071429</v>
       </c>
-      <c r="AW82" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AX82" s="13" t="n">
+      <c r="AV82" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW82" s="13" t="n">
         <v>729060</v>
+      </c>
+      <c r="AX82" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AY82" s="13" t="s">
         <v>58</v>
@@ -12212,29 +12212,29 @@
       <c r="AS83" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="AT83" s="16" t="s">
-        <v>58</v>
+      <c r="AT83" s="16" t="n">
+        <v>684203</v>
       </c>
       <c r="AU83" s="16" t="n">
-        <v>684203</v>
+        <v>745409</v>
       </c>
       <c r="AV83" s="16" t="n">
-        <v>745409</v>
+        <v>751902</v>
       </c>
       <c r="AW83" s="16" t="n">
-        <v>751902</v>
+        <v>770316</v>
       </c>
       <c r="AX83" s="16" t="n">
-        <v>770316</v>
-      </c>
-      <c r="AY83" s="16" t="n">
         <v>799981</v>
       </c>
-      <c r="AZ83" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA83" s="16" t="n">
+      <c r="AY83" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ83" s="16" t="n">
         <v>818924</v>
+      </c>
+      <c r="BA83" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="BB83" s="16" t="s">
         <v>58</v>
@@ -12371,29 +12371,29 @@
       <c r="AS84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT84" s="13" t="s">
-        <v>58</v>
+      <c r="AT84" s="13" t="n">
+        <v>696833</v>
       </c>
       <c r="AU84" s="13" t="n">
-        <v>696833</v>
+        <v>725789</v>
       </c>
       <c r="AV84" s="13" t="n">
-        <v>725789</v>
+        <v>732026</v>
       </c>
       <c r="AW84" s="13" t="n">
-        <v>732026</v>
+        <v>821625</v>
       </c>
       <c r="AX84" s="13" t="n">
-        <v>821625</v>
-      </c>
-      <c r="AY84" s="13" t="n">
         <v>803528</v>
       </c>
-      <c r="AZ84" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BA84" s="13" t="n">
+      <c r="AY84" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AZ84" s="13" t="n">
         <v>820721</v>
+      </c>
+      <c r="BA84" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB84" s="13" t="s">
         <v>58</v>
